--- a/SLAM_Ext_Framwork/validation/EwaldTestValidation.xlsx
+++ b/SLAM_Ext_Framwork/validation/EwaldTestValidation.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/woongkyujee/Desktop/ProjectPAX/SLAM Extension Reference/Ewald/EwaldPreResearch/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/woongkyujee/Desktop/ProjectPAX/SLAM Extension Reference/SLAM-3D-Extension/SLAM_Ext_Framwork/validation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{053518BC-0C92-A84E-8A06-D1709E5C96E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDC0DAEC-EDF9-4842-88BC-69265741942E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11820" yWindow="1120" windowWidth="44600" windowHeight="25100" activeTab="8" xr2:uid="{ED569559-3BE8-BA43-B08A-1C36884B8A7F}"/>
+    <workbookView xWindow="6240" yWindow="1780" windowWidth="47980" windowHeight="25400" firstSheet="1" activeTab="12" xr2:uid="{ED569559-3BE8-BA43-B08A-1C36884B8A7F}"/>
   </bookViews>
   <sheets>
     <sheet name="CubicTegragonalCell" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,11 @@
     <sheet name="TiltedCell E,IntGD,SD 2" sheetId="7" r:id="rId7"/>
     <sheet name="CORESHELL_ECHECK-A" sheetId="11" r:id="rId8"/>
     <sheet name="CORESHELL_ECHECK-B" sheetId="9" r:id="rId9"/>
-    <sheet name="LatticeSum OPtimisation" sheetId="12" r:id="rId10"/>
+    <sheet name="LatticeVec_derivative_Sub" sheetId="14" r:id="rId10"/>
+    <sheet name="LatticeVec_derivative_FDM" sheetId="13" r:id="rId11"/>
+    <sheet name="LatticeVec_derivative_Sub (2)" sheetId="16" r:id="rId12"/>
+    <sheet name="LatticeVec_derivative_FDM (2)" sheetId="15" r:id="rId13"/>
+    <sheet name="LatticeSum OPtimisation" sheetId="12" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -122,7 +126,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1432" uniqueCount="200">
   <si>
     <t>GULP</t>
   </si>
@@ -675,6 +679,54 @@
   <si>
     <t>Ave(w)</t>
   </si>
+  <si>
+    <t>LatticeMatrix</t>
+  </si>
+  <si>
+    <t>Lattice Matrix</t>
+  </si>
+  <si>
+    <t>ax+</t>
+  </si>
+  <si>
+    <t>ax-</t>
+  </si>
+  <si>
+    <t>bx+</t>
+  </si>
+  <si>
+    <t>bx-</t>
+  </si>
+  <si>
+    <t>by+</t>
+  </si>
+  <si>
+    <t>by-</t>
+  </si>
+  <si>
+    <t>cx+</t>
+  </si>
+  <si>
+    <t>cx-</t>
+  </si>
+  <si>
+    <t>cy+</t>
+  </si>
+  <si>
+    <t>cy-</t>
+  </si>
+  <si>
+    <t>cz+</t>
+  </si>
+  <si>
+    <t>cz-</t>
+  </si>
+  <si>
+    <t>Lattice Derivative Numerical</t>
+  </si>
+  <si>
+    <t>Lattice Derivative Analytical</t>
+  </si>
 </sst>
 </file>
 
@@ -693,9 +745,9 @@
     <numFmt numFmtId="173" formatCode="0.000"/>
     <numFmt numFmtId="174" formatCode="0.0000000%"/>
     <numFmt numFmtId="175" formatCode="0.0000.E+00"/>
-    <numFmt numFmtId="177" formatCode="0.000000000%"/>
+    <numFmt numFmtId="176" formatCode="0.000000000%"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -733,6 +785,27 @@
     <font>
       <sz val="12"/>
       <color theme="4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="5"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF92D050"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -776,7 +849,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -839,9 +912,45 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="168" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="174" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="174" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="174" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3504,6 +3613,8145 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DFF6148-B2B9-E54C-AB63-37A396A67884}">
+  <dimension ref="C3:AC73"/>
+  <sheetViews>
+    <sheetView topLeftCell="A34" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F58" sqref="F58"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="4" max="5" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="11" bestFit="1" customWidth="1"/>
+    <col min="17" max="19" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:29">
+      <c r="C3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="5" spans="3:29">
+      <c r="C5" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="6" spans="3:29">
+      <c r="C6" t="s">
+        <v>144</v>
+      </c>
+      <c r="D6">
+        <v>5.89</v>
+      </c>
+      <c r="E6">
+        <v>4.3</v>
+      </c>
+      <c r="F6">
+        <v>3.2</v>
+      </c>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="19"/>
+      <c r="O6" s="19"/>
+      <c r="P6" s="19"/>
+      <c r="Q6" s="19"/>
+      <c r="R6" s="19"/>
+      <c r="S6" s="19"/>
+      <c r="T6" s="19"/>
+      <c r="U6" s="19"/>
+      <c r="V6" s="19"/>
+      <c r="W6" s="19"/>
+      <c r="X6" s="19"/>
+      <c r="Y6" s="19"/>
+    </row>
+    <row r="7" spans="3:29">
+      <c r="C7" t="s">
+        <v>143</v>
+      </c>
+      <c r="D7">
+        <v>88</v>
+      </c>
+      <c r="E7">
+        <v>54</v>
+      </c>
+      <c r="F7">
+        <v>60</v>
+      </c>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="19"/>
+      <c r="O7" s="19"/>
+      <c r="P7" s="19"/>
+      <c r="Q7" s="19"/>
+      <c r="R7" s="19"/>
+      <c r="S7" s="19"/>
+      <c r="T7" s="19"/>
+      <c r="U7" s="19"/>
+      <c r="V7" s="19"/>
+      <c r="W7" s="19"/>
+      <c r="X7" s="19"/>
+      <c r="Y7" s="19"/>
+    </row>
+    <row r="8" spans="3:29">
+      <c r="H8" s="43" t="s">
+        <v>149</v>
+      </c>
+      <c r="I8" s="43"/>
+      <c r="J8" s="43" t="s">
+        <v>150</v>
+      </c>
+      <c r="K8" s="43" t="s">
+        <v>153</v>
+      </c>
+      <c r="L8" s="43" t="s">
+        <v>152</v>
+      </c>
+      <c r="M8" s="19"/>
+      <c r="N8" s="19"/>
+      <c r="O8" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="P8" s="19"/>
+      <c r="Q8" s="19"/>
+      <c r="R8" s="19"/>
+      <c r="S8" s="19"/>
+      <c r="T8" s="19"/>
+      <c r="U8" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="V8" s="19"/>
+      <c r="W8" s="19"/>
+      <c r="X8" s="19"/>
+      <c r="Y8" s="19"/>
+      <c r="AA8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="3:29">
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" t="s">
+        <v>147</v>
+      </c>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="19"/>
+      <c r="N9" s="19"/>
+      <c r="O9" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="P9" s="19"/>
+      <c r="Q9" s="19"/>
+      <c r="R9" s="19"/>
+      <c r="S9" s="19"/>
+      <c r="T9" s="19"/>
+      <c r="U9" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="V9" s="19"/>
+      <c r="W9" s="19"/>
+      <c r="X9" s="19"/>
+      <c r="Y9" s="19"/>
+    </row>
+    <row r="10" spans="3:29">
+      <c r="C10" t="s">
+        <v>138</v>
+      </c>
+      <c r="D10">
+        <v>-67.988583379999994</v>
+      </c>
+      <c r="E10">
+        <v>-105.846295519519</v>
+      </c>
+      <c r="H10" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="I10" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="J10" s="19">
+        <v>0.05</v>
+      </c>
+      <c r="K10" s="19">
+        <v>0</v>
+      </c>
+      <c r="L10" s="19">
+        <v>0</v>
+      </c>
+      <c r="M10" s="19">
+        <v>2</v>
+      </c>
+      <c r="N10" s="19"/>
+      <c r="O10" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="P10" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q10" s="19">
+        <v>-2.1221169999999998</v>
+      </c>
+      <c r="R10" s="19">
+        <v>29.318014999999999</v>
+      </c>
+      <c r="S10" s="19">
+        <v>-33.788389000000002</v>
+      </c>
+      <c r="T10" s="19"/>
+      <c r="U10" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="V10" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="W10" s="19">
+        <v>-2.1221000000000001</v>
+      </c>
+      <c r="X10" s="19">
+        <v>29.317782000000001</v>
+      </c>
+      <c r="Y10" s="19">
+        <v>-33.788119999999999</v>
+      </c>
+      <c r="AA10" s="16">
+        <f t="shared" ref="AA10:AC21" si="0">(Q10-W10)/Q10</f>
+        <v>8.0108683921346896E-6</v>
+      </c>
+      <c r="AB10" s="16">
+        <f t="shared" si="0"/>
+        <v>7.9473320413380422E-6</v>
+      </c>
+      <c r="AC10" s="16">
+        <f t="shared" si="0"/>
+        <v>7.9613147582431737E-6</v>
+      </c>
+    </row>
+    <row r="11" spans="3:29">
+      <c r="C11" t="s">
+        <v>139</v>
+      </c>
+      <c r="D11">
+        <v>-205.47066222000001</v>
+      </c>
+      <c r="E11">
+        <v>-167.61077580654799</v>
+      </c>
+      <c r="H11" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="I11" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="J11" s="19">
+        <v>0.49</v>
+      </c>
+      <c r="K11" s="19">
+        <v>0.52</v>
+      </c>
+      <c r="L11" s="19">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="M11" s="19">
+        <v>2</v>
+      </c>
+      <c r="N11" s="19"/>
+      <c r="O11" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="P11" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q11" s="19">
+        <v>24.505184</v>
+      </c>
+      <c r="R11" s="19">
+        <v>24.302281000000001</v>
+      </c>
+      <c r="S11" s="19">
+        <v>-2.3867440000000002</v>
+      </c>
+      <c r="T11" s="19"/>
+      <c r="U11" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="V11" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="W11" s="19">
+        <v>24.504988999999998</v>
+      </c>
+      <c r="X11" s="19">
+        <v>24.302088000000001</v>
+      </c>
+      <c r="Y11" s="19">
+        <v>-2.3867250000000002</v>
+      </c>
+      <c r="AA11" s="16">
+        <f t="shared" si="0"/>
+        <v>7.9574999315042704E-6</v>
+      </c>
+      <c r="AB11" s="16">
+        <f t="shared" si="0"/>
+        <v>7.9416413627775765E-6</v>
+      </c>
+      <c r="AC11" s="16">
+        <f t="shared" si="0"/>
+        <v>7.9606359123522441E-6</v>
+      </c>
+    </row>
+    <row r="12" spans="3:29">
+      <c r="C12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D12">
+        <v>-273.45924560999998</v>
+      </c>
+      <c r="E12">
+        <v>-273.45707132606799</v>
+      </c>
+      <c r="F12" s="18">
+        <f>(D12-E12)/D12</f>
+        <v>7.951034630928544E-6</v>
+      </c>
+      <c r="H12" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="I12" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="J12" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="K12" s="19">
+        <v>0</v>
+      </c>
+      <c r="L12" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="M12" s="19">
+        <v>2</v>
+      </c>
+      <c r="N12" s="19"/>
+      <c r="O12" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="P12" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q12" s="19">
+        <v>-39.756037999999997</v>
+      </c>
+      <c r="R12" s="19">
+        <v>-28.327783</v>
+      </c>
+      <c r="S12" s="19">
+        <v>-21.779077999999998</v>
+      </c>
+      <c r="T12" s="19"/>
+      <c r="U12" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="V12" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="W12" s="19">
+        <v>-39.755721999999999</v>
+      </c>
+      <c r="X12" s="19">
+        <v>-28.327558</v>
+      </c>
+      <c r="Y12" s="19">
+        <v>-21.778905000000002</v>
+      </c>
+      <c r="AA12" s="16">
+        <f t="shared" si="0"/>
+        <v>7.9484781657061651E-6</v>
+      </c>
+      <c r="AB12" s="16">
+        <f t="shared" si="0"/>
+        <v>7.9427324051572905E-6</v>
+      </c>
+      <c r="AC12" s="16">
+        <f t="shared" si="0"/>
+        <v>7.9434032972675926E-6</v>
+      </c>
+    </row>
+    <row r="13" spans="3:29">
+      <c r="H13" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="I13" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="J13" s="19">
+        <v>0</v>
+      </c>
+      <c r="K13" s="19">
+        <v>0.52</v>
+      </c>
+      <c r="L13" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="M13" s="19">
+        <v>2</v>
+      </c>
+      <c r="N13" s="19"/>
+      <c r="O13" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="P13" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q13" s="19">
+        <v>-227.10598200000001</v>
+      </c>
+      <c r="R13" s="19">
+        <v>-112.411174</v>
+      </c>
+      <c r="S13" s="19">
+        <v>474.70942100000002</v>
+      </c>
+      <c r="T13" s="19"/>
+      <c r="U13" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="V13" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="W13" s="19">
+        <v>-227.104176</v>
+      </c>
+      <c r="X13" s="19">
+        <v>-112.410281</v>
+      </c>
+      <c r="Y13" s="19">
+        <v>474.705646</v>
+      </c>
+      <c r="AA13" s="16">
+        <f t="shared" si="0"/>
+        <v>7.9522343890359675E-6</v>
+      </c>
+      <c r="AB13" s="16">
+        <f t="shared" si="0"/>
+        <v>7.9440501173390259E-6</v>
+      </c>
+      <c r="AC13" s="16">
+        <f t="shared" si="0"/>
+        <v>7.9522331620604931E-6</v>
+      </c>
+    </row>
+    <row r="14" spans="3:29">
+      <c r="C14" s="2"/>
+      <c r="D14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H14" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="I14" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="J14" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="K14" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="L14" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="M14" s="19">
+        <v>1</v>
+      </c>
+      <c r="N14" s="19"/>
+      <c r="O14" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="P14" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q14" s="19">
+        <v>2.8440210000000001</v>
+      </c>
+      <c r="R14" s="19">
+        <v>15.025373</v>
+      </c>
+      <c r="S14" s="19">
+        <v>-6.0432689999999996</v>
+      </c>
+      <c r="T14" s="19"/>
+      <c r="U14" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="V14" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="W14" s="19">
+        <v>2.8439990000000002</v>
+      </c>
+      <c r="X14" s="19">
+        <v>15.025254</v>
+      </c>
+      <c r="Y14" s="19">
+        <v>-6.043221</v>
+      </c>
+      <c r="AA14" s="16">
+        <f t="shared" si="0"/>
+        <v>7.735526566071941E-6</v>
+      </c>
+      <c r="AB14" s="16">
+        <f t="shared" si="0"/>
+        <v>7.9199364967351014E-6</v>
+      </c>
+      <c r="AC14" s="16">
+        <f t="shared" si="0"/>
+        <v>7.942721066959608E-6</v>
+      </c>
+    </row>
+    <row r="15" spans="3:29">
+      <c r="C15" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="H15" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="I15" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="J15" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="K15" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="L15" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="M15" s="19">
+        <v>-3</v>
+      </c>
+      <c r="N15" s="19"/>
+      <c r="O15" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="P15" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q15" s="19">
+        <v>-8.8358969999999992</v>
+      </c>
+      <c r="R15" s="19">
+        <v>-17.968553</v>
+      </c>
+      <c r="S15" s="19">
+        <v>-7.1856369999999998</v>
+      </c>
+      <c r="T15" s="19"/>
+      <c r="U15" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="V15" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="W15" s="19">
+        <v>-8.8358270000000001</v>
+      </c>
+      <c r="X15" s="19">
+        <v>-17.968409999999999</v>
+      </c>
+      <c r="Y15" s="19">
+        <v>-7.1855789999999997</v>
+      </c>
+      <c r="AA15" s="16">
+        <f t="shared" si="0"/>
+        <v>7.9222290616477672E-6</v>
+      </c>
+      <c r="AB15" s="16">
+        <f t="shared" si="0"/>
+        <v>7.9583481208162117E-6</v>
+      </c>
+      <c r="AC15" s="16">
+        <f t="shared" si="0"/>
+        <v>8.0716573910028463E-6</v>
+      </c>
+    </row>
+    <row r="16" spans="3:29">
+      <c r="C16" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="H16" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="I16" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="J16" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="K16" s="19">
+        <v>0</v>
+      </c>
+      <c r="L16" s="19">
+        <v>-0.04</v>
+      </c>
+      <c r="M16" s="19">
+        <v>1</v>
+      </c>
+      <c r="N16" s="19"/>
+      <c r="O16" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="P16" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q16" s="19">
+        <v>-304.43766699999998</v>
+      </c>
+      <c r="R16" s="19">
+        <v>-198.73353599999999</v>
+      </c>
+      <c r="S16" s="19">
+        <v>173.36172999999999</v>
+      </c>
+      <c r="T16" s="19"/>
+      <c r="U16" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="V16" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="W16" s="19">
+        <v>-304.435247</v>
+      </c>
+      <c r="X16" s="19">
+        <v>-198.731956</v>
+      </c>
+      <c r="Y16" s="19">
+        <v>173.36035200000001</v>
+      </c>
+      <c r="AA16" s="16">
+        <f t="shared" si="0"/>
+        <v>7.949082069310213E-6</v>
+      </c>
+      <c r="AB16" s="16">
+        <f t="shared" si="0"/>
+        <v>7.9503441230468663E-6</v>
+      </c>
+      <c r="AC16" s="16">
+        <f t="shared" si="0"/>
+        <v>7.9486977892314129E-6</v>
+      </c>
+    </row>
+    <row r="17" spans="3:29">
+      <c r="C17" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="H17" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="I17" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="J17" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="K17" s="19">
+        <v>0</v>
+      </c>
+      <c r="L17" s="19">
+        <v>-0.03</v>
+      </c>
+      <c r="M17" s="19">
+        <v>-3</v>
+      </c>
+      <c r="N17" s="19"/>
+      <c r="O17" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="P17" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q17" s="19">
+        <v>0.49326399999999998</v>
+      </c>
+      <c r="R17" s="19">
+        <v>8.6332199999999997</v>
+      </c>
+      <c r="S17" s="19">
+        <v>-12.199964</v>
+      </c>
+      <c r="T17" s="19"/>
+      <c r="U17" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="V17" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="W17" s="19">
+        <v>0.49325999999999998</v>
+      </c>
+      <c r="X17" s="19">
+        <v>8.6331509999999998</v>
+      </c>
+      <c r="Y17" s="19">
+        <v>-12.199866999999999</v>
+      </c>
+      <c r="AA17" s="16">
+        <f t="shared" si="0"/>
+        <v>8.1092477861834645E-6</v>
+      </c>
+      <c r="AB17" s="16">
+        <f t="shared" si="0"/>
+        <v>7.9923829115758336E-6</v>
+      </c>
+      <c r="AC17" s="16">
+        <f t="shared" si="0"/>
+        <v>7.9508431336548037E-6</v>
+      </c>
+    </row>
+    <row r="18" spans="3:29">
+      <c r="C18" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="H18" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="I18" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="J18" s="19">
+        <v>0.1</v>
+      </c>
+      <c r="K18" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="L18" s="19">
+        <v>0.32</v>
+      </c>
+      <c r="M18" s="19">
+        <v>1</v>
+      </c>
+      <c r="N18" s="19"/>
+      <c r="O18" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="P18" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q18" s="19">
+        <v>-8.5320640000000001</v>
+      </c>
+      <c r="R18" s="19">
+        <v>-45.076118999999998</v>
+      </c>
+      <c r="S18" s="19">
+        <v>18.129808000000001</v>
+      </c>
+      <c r="T18" s="19"/>
+      <c r="U18" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="V18" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="W18" s="19">
+        <v>-8.5319959999999995</v>
+      </c>
+      <c r="X18" s="19">
+        <v>-45.075761</v>
+      </c>
+      <c r="Y18" s="19">
+        <v>18.129663999999998</v>
+      </c>
+      <c r="AA18" s="16">
+        <f t="shared" si="0"/>
+        <v>7.9699355279828093E-6</v>
+      </c>
+      <c r="AB18" s="16">
+        <f t="shared" si="0"/>
+        <v>7.94212119278783E-6</v>
+      </c>
+      <c r="AC18" s="16">
+        <f t="shared" si="0"/>
+        <v>7.9427206290526884E-6</v>
+      </c>
+    </row>
+    <row r="19" spans="3:29">
+      <c r="C19" s="2"/>
+      <c r="D19" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="H19" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="I19" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="J19" s="19">
+        <v>0.1</v>
+      </c>
+      <c r="K19" s="19">
+        <v>0.48</v>
+      </c>
+      <c r="L19" s="19">
+        <v>0.3</v>
+      </c>
+      <c r="M19" s="19">
+        <v>-3</v>
+      </c>
+      <c r="N19" s="19"/>
+      <c r="O19" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="P19" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q19" s="19">
+        <v>18.362038999999999</v>
+      </c>
+      <c r="R19" s="19">
+        <v>53.082394000000001</v>
+      </c>
+      <c r="S19" s="19">
+        <v>13.903905</v>
+      </c>
+      <c r="T19" s="19"/>
+      <c r="U19" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="V19" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="W19" s="19">
+        <v>18.361892999999998</v>
+      </c>
+      <c r="X19" s="19">
+        <v>53.081972</v>
+      </c>
+      <c r="Y19" s="19">
+        <v>13.903795000000001</v>
+      </c>
+      <c r="AA19" s="16">
+        <f t="shared" si="0"/>
+        <v>7.9511866847068377E-6</v>
+      </c>
+      <c r="AB19" s="16">
+        <f t="shared" si="0"/>
+        <v>7.9499051983293462E-6</v>
+      </c>
+      <c r="AC19" s="16">
+        <f t="shared" si="0"/>
+        <v>7.9114464605007266E-6</v>
+      </c>
+    </row>
+    <row r="20" spans="3:29">
+      <c r="C20" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="H20" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="I20" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="J20" s="19">
+        <v>0</v>
+      </c>
+      <c r="K20" s="19">
+        <v>0</v>
+      </c>
+      <c r="L20" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="M20" s="19">
+        <v>1</v>
+      </c>
+      <c r="N20" s="19"/>
+      <c r="O20" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="P20" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q20" s="19">
+        <v>546.06504800000005</v>
+      </c>
+      <c r="R20" s="19">
+        <v>298.055543</v>
+      </c>
+      <c r="S20" s="19">
+        <v>-633.32167500000003</v>
+      </c>
+      <c r="T20" s="19"/>
+      <c r="U20" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="V20" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="W20" s="19">
+        <v>546.06070599999998</v>
+      </c>
+      <c r="X20" s="19">
+        <v>298.05317300000002</v>
+      </c>
+      <c r="Y20" s="19">
+        <v>-633.31663900000001</v>
+      </c>
+      <c r="AA20" s="16">
+        <f t="shared" si="0"/>
+        <v>7.9514336542285465E-6</v>
+      </c>
+      <c r="AB20" s="16">
+        <f t="shared" si="0"/>
+        <v>7.9515380795480936E-6</v>
+      </c>
+      <c r="AC20" s="16">
+        <f t="shared" si="0"/>
+        <v>7.9517253219199357E-6</v>
+      </c>
+    </row>
+    <row r="21" spans="3:29">
+      <c r="C21" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="H21" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="I21" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="J21" s="19">
+        <v>0</v>
+      </c>
+      <c r="K21" s="19">
+        <v>0</v>
+      </c>
+      <c r="L21" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="M21" s="19">
+        <v>-3</v>
+      </c>
+      <c r="N21" s="19"/>
+      <c r="O21" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="P21" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q21" s="19">
+        <v>-1.4797910000000001</v>
+      </c>
+      <c r="R21" s="19">
+        <v>-25.899660000000001</v>
+      </c>
+      <c r="S21" s="19">
+        <v>36.599891999999997</v>
+      </c>
+      <c r="T21" s="19"/>
+      <c r="U21" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="V21" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="W21" s="19">
+        <v>-1.479779</v>
+      </c>
+      <c r="X21" s="19">
+        <v>-25.899453999999999</v>
+      </c>
+      <c r="Y21" s="19">
+        <v>36.599601</v>
+      </c>
+      <c r="AA21" s="16">
+        <f t="shared" si="0"/>
+        <v>8.1092532662538313E-6</v>
+      </c>
+      <c r="AB21" s="16">
+        <f t="shared" si="0"/>
+        <v>7.9537723662066954E-6</v>
+      </c>
+      <c r="AC21" s="16">
+        <f t="shared" si="0"/>
+        <v>7.9508431335577355E-6</v>
+      </c>
+    </row>
+    <row r="22" spans="3:29">
+      <c r="C22" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+    </row>
+    <row r="36" spans="3:29">
+      <c r="C36" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="37" spans="3:29">
+      <c r="C37" t="s">
+        <v>144</v>
+      </c>
+      <c r="D37" s="19">
+        <v>4.3</v>
+      </c>
+      <c r="E37" s="19">
+        <v>4.299213</v>
+      </c>
+      <c r="F37" s="19">
+        <v>3.1997110000000002</v>
+      </c>
+      <c r="H37" s="19"/>
+      <c r="I37" s="19"/>
+      <c r="J37" s="19"/>
+      <c r="K37" s="19"/>
+      <c r="L37" s="19"/>
+      <c r="M37" s="19"/>
+      <c r="N37" s="19"/>
+      <c r="O37" s="19"/>
+      <c r="P37" s="19"/>
+      <c r="Q37" s="19"/>
+      <c r="R37" s="19"/>
+      <c r="S37" s="19"/>
+      <c r="T37" s="19"/>
+      <c r="U37" s="19"/>
+      <c r="V37" s="19"/>
+      <c r="W37" s="19"/>
+      <c r="X37" s="19"/>
+      <c r="Y37" s="19"/>
+    </row>
+    <row r="38" spans="3:29">
+      <c r="C38" t="s">
+        <v>143</v>
+      </c>
+      <c r="D38" s="19">
+        <v>90.989622999999995</v>
+      </c>
+      <c r="E38" s="19">
+        <v>54.016441999999998</v>
+      </c>
+      <c r="F38" s="19">
+        <v>59.993941</v>
+      </c>
+      <c r="H38" s="19"/>
+      <c r="I38" s="19"/>
+      <c r="J38" s="19"/>
+      <c r="K38" s="19"/>
+      <c r="L38" s="19"/>
+      <c r="M38" s="19"/>
+      <c r="N38" s="19"/>
+      <c r="O38" s="19"/>
+      <c r="P38" s="19"/>
+      <c r="Q38" s="19"/>
+      <c r="R38" s="19"/>
+      <c r="S38" s="19"/>
+      <c r="T38" s="19"/>
+      <c r="U38" s="19"/>
+      <c r="V38" s="19"/>
+      <c r="W38" s="19"/>
+      <c r="X38" s="19"/>
+      <c r="Y38" s="19"/>
+    </row>
+    <row r="39" spans="3:29">
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="H39" s="43" t="s">
+        <v>149</v>
+      </c>
+      <c r="I39" s="43"/>
+      <c r="J39" s="43" t="s">
+        <v>150</v>
+      </c>
+      <c r="K39" s="43" t="s">
+        <v>153</v>
+      </c>
+      <c r="L39" s="43" t="s">
+        <v>152</v>
+      </c>
+      <c r="M39" s="19"/>
+      <c r="N39" s="19"/>
+      <c r="O39" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="P39" s="19"/>
+      <c r="Q39" s="19"/>
+      <c r="R39" s="19"/>
+      <c r="S39" s="19"/>
+      <c r="T39" s="19"/>
+      <c r="U39" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="V39" s="19"/>
+      <c r="W39" s="19"/>
+      <c r="X39" s="19"/>
+      <c r="Y39" s="19"/>
+      <c r="AA39" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="40" spans="3:29">
+      <c r="C40" t="s">
+        <v>16</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="H40" s="19"/>
+      <c r="I40" s="19"/>
+      <c r="J40" s="19"/>
+      <c r="K40" s="19"/>
+      <c r="L40" s="19"/>
+      <c r="M40" s="19"/>
+      <c r="N40" s="19"/>
+      <c r="O40" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="P40" s="19"/>
+      <c r="Q40" s="19"/>
+      <c r="R40" s="19"/>
+      <c r="S40" s="19"/>
+      <c r="T40" s="19"/>
+      <c r="U40" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="V40" s="19"/>
+      <c r="W40" s="19"/>
+      <c r="X40" s="19"/>
+      <c r="Y40" s="19"/>
+    </row>
+    <row r="41" spans="3:29">
+      <c r="C41" t="s">
+        <v>138</v>
+      </c>
+      <c r="D41" s="7">
+        <v>-51.442462579999997</v>
+      </c>
+      <c r="E41" s="7">
+        <v>-171.30534759564401</v>
+      </c>
+      <c r="H41" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="I41" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="J41" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="K41" s="6">
+        <v>0</v>
+      </c>
+      <c r="L41" s="6">
+        <v>0</v>
+      </c>
+      <c r="M41" s="6">
+        <v>1.8</v>
+      </c>
+      <c r="N41" s="19"/>
+      <c r="O41" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="P41" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q41" s="19">
+        <v>-4.3851259999999996</v>
+      </c>
+      <c r="R41" s="19">
+        <v>13.621562000000001</v>
+      </c>
+      <c r="S41" s="19">
+        <v>-32.913127000000003</v>
+      </c>
+      <c r="T41" s="19"/>
+      <c r="U41" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="V41" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="W41" s="19">
+        <v>-4.3850819999999997</v>
+      </c>
+      <c r="X41" s="19">
+        <v>13.621468</v>
+      </c>
+      <c r="Y41" s="19">
+        <v>-32.912864999999996</v>
+      </c>
+      <c r="AA41" s="16">
+        <f t="shared" ref="AA41:AC56" si="1">(Q41-W41)/Q41</f>
+        <v>1.0033919207779431E-5</v>
+      </c>
+      <c r="AB41" s="16">
+        <f t="shared" si="1"/>
+        <v>6.9008238556418586E-6</v>
+      </c>
+      <c r="AC41" s="16">
+        <f t="shared" si="1"/>
+        <v>7.9603496807344907E-6</v>
+      </c>
+    </row>
+    <row r="42" spans="3:29">
+      <c r="C42" t="s">
+        <v>139</v>
+      </c>
+      <c r="D42" s="7">
+        <v>-225.12178098000001</v>
+      </c>
+      <c r="E42" s="7">
+        <v>-105.256733056654</v>
+      </c>
+      <c r="F42" s="44"/>
+      <c r="H42" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="I42" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="J42" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="K42" s="6">
+        <v>0</v>
+      </c>
+      <c r="L42" s="6">
+        <v>-0.15</v>
+      </c>
+      <c r="M42" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="N42" s="19"/>
+      <c r="O42" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="P42" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q42" s="19">
+        <v>42.127279000000001</v>
+      </c>
+      <c r="R42" s="19">
+        <v>39.682597999999999</v>
+      </c>
+      <c r="S42" s="19">
+        <v>0.36264999999999997</v>
+      </c>
+      <c r="T42" s="19"/>
+      <c r="U42" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="V42" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="W42" s="19">
+        <v>42.126942</v>
+      </c>
+      <c r="X42" s="19">
+        <v>39.682279999999999</v>
+      </c>
+      <c r="Y42" s="19">
+        <v>0.36264800000000003</v>
+      </c>
+      <c r="AA42" s="16">
+        <f t="shared" si="1"/>
+        <v>7.9995672163352405E-6</v>
+      </c>
+      <c r="AB42" s="16">
+        <f t="shared" si="1"/>
+        <v>8.0135882232317668E-6</v>
+      </c>
+      <c r="AC42" s="16">
+        <f t="shared" si="1"/>
+        <v>5.5149593270274067E-6</v>
+      </c>
+    </row>
+    <row r="43" spans="3:29">
+      <c r="C43" t="s">
+        <v>140</v>
+      </c>
+      <c r="D43" s="7">
+        <v>-276.56424356000002</v>
+      </c>
+      <c r="E43" s="7">
+        <v>-276.56208065229799</v>
+      </c>
+      <c r="F43" s="44">
+        <f>(D43-E43)/D43</f>
+        <v>7.8206339119904229E-6</v>
+      </c>
+      <c r="H43" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="I43" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="J43" s="6">
+        <v>0.49</v>
+      </c>
+      <c r="K43" s="6">
+        <v>0.52</v>
+      </c>
+      <c r="L43" s="6">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="M43" s="6">
+        <v>1.8</v>
+      </c>
+      <c r="N43" s="19"/>
+      <c r="O43" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="P43" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q43" s="19">
+        <v>-37.548006000000001</v>
+      </c>
+      <c r="R43" s="19">
+        <v>-25.871352999999999</v>
+      </c>
+      <c r="S43" s="19">
+        <v>-15.163667999999999</v>
+      </c>
+      <c r="T43" s="19"/>
+      <c r="U43" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="V43" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="W43" s="19">
+        <v>-37.547719000000001</v>
+      </c>
+      <c r="X43" s="19">
+        <v>-25.871155999999999</v>
+      </c>
+      <c r="Y43" s="19">
+        <v>-15.163554</v>
+      </c>
+      <c r="AA43" s="16">
+        <f t="shared" si="1"/>
+        <v>7.6435483684579211E-6</v>
+      </c>
+      <c r="AB43" s="16">
+        <f t="shared" si="1"/>
+        <v>7.6145998239830264E-6</v>
+      </c>
+      <c r="AC43" s="16">
+        <f t="shared" si="1"/>
+        <v>7.5179699265341002E-6</v>
+      </c>
+    </row>
+    <row r="44" spans="3:29">
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
+      <c r="H44" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="I44" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="J44" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="K44" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="L44" s="6">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="M44" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="N44" s="19"/>
+      <c r="O44" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="P44" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q44" s="19">
+        <v>159.97370100000001</v>
+      </c>
+      <c r="R44" s="19">
+        <v>0.27545199999999997</v>
+      </c>
+      <c r="S44" s="19">
+        <v>584.97688200000005</v>
+      </c>
+      <c r="T44" s="19"/>
+      <c r="U44" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="V44" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="W44" s="19">
+        <v>159.972388</v>
+      </c>
+      <c r="X44" s="19">
+        <v>0.27540900000000001</v>
+      </c>
+      <c r="Y44" s="19">
+        <v>584.97230100000002</v>
+      </c>
+      <c r="AA44" s="16">
+        <f t="shared" si="1"/>
+        <v>8.2075990728646927E-6</v>
+      </c>
+      <c r="AB44" s="16">
+        <f t="shared" si="1"/>
+        <v>1.5610705313433827E-4</v>
+      </c>
+      <c r="AC44" s="16">
+        <f t="shared" si="1"/>
+        <v>7.8310786989871922E-6</v>
+      </c>
+    </row>
+    <row r="45" spans="3:29">
+      <c r="C45" s="2"/>
+      <c r="D45" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H45" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="I45" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="J45" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="K45" s="6">
+        <v>0</v>
+      </c>
+      <c r="L45" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="M45" s="6">
+        <v>1.8</v>
+      </c>
+      <c r="N45" s="19"/>
+      <c r="O45" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="P45" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q45" s="19">
+        <v>-0.35025699999999999</v>
+      </c>
+      <c r="R45" s="19">
+        <v>11.976184999999999</v>
+      </c>
+      <c r="S45" s="19">
+        <v>-8.548807</v>
+      </c>
+      <c r="T45" s="19"/>
+      <c r="U45" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="V45" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="W45" s="19">
+        <v>-0.35025000000000001</v>
+      </c>
+      <c r="X45" s="19">
+        <v>11.976096</v>
+      </c>
+      <c r="Y45" s="19">
+        <v>-8.5487389999999994</v>
+      </c>
+      <c r="AA45" s="16">
+        <f t="shared" si="1"/>
+        <v>1.9985325061252867E-5</v>
+      </c>
+      <c r="AB45" s="16">
+        <f t="shared" si="1"/>
+        <v>7.4314149288039195E-6</v>
+      </c>
+      <c r="AC45" s="16">
+        <f t="shared" si="1"/>
+        <v>7.9543262586958769E-6</v>
+      </c>
+    </row>
+    <row r="46" spans="3:29">
+      <c r="C46" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D46" s="4">
+        <v>4.3</v>
+      </c>
+      <c r="E46" s="4">
+        <v>0</v>
+      </c>
+      <c r="F46" s="4">
+        <v>0</v>
+      </c>
+      <c r="H46" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="I46" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="J46" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="K46" s="6">
+        <v>0</v>
+      </c>
+      <c r="L46" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="M46" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="N46" s="19"/>
+      <c r="O46" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="P46" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q46" s="19">
+        <v>-19.722740999999999</v>
+      </c>
+      <c r="R46" s="19">
+        <v>-31.125858000000001</v>
+      </c>
+      <c r="S46" s="19">
+        <v>-11.557019</v>
+      </c>
+      <c r="T46" s="19"/>
+      <c r="U46" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="V46" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="W46" s="19">
+        <v>-19.722581000000002</v>
+      </c>
+      <c r="X46" s="19">
+        <v>-31.125608</v>
+      </c>
+      <c r="Y46" s="19">
+        <v>-11.556925</v>
+      </c>
+      <c r="AA46" s="16">
+        <f t="shared" si="1"/>
+        <v>8.1124626641649596E-6</v>
+      </c>
+      <c r="AB46" s="16">
+        <f t="shared" si="1"/>
+        <v>8.0319071044143978E-6</v>
+      </c>
+      <c r="AC46" s="16">
+        <f t="shared" si="1"/>
+        <v>8.1335853130209987E-6</v>
+      </c>
+    </row>
+    <row r="47" spans="3:29">
+      <c r="C47" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D47" s="4">
+        <v>2.15</v>
+      </c>
+      <c r="E47" s="4">
+        <v>3.7229999999999999</v>
+      </c>
+      <c r="F47" s="4">
+        <v>0</v>
+      </c>
+      <c r="H47" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="I47" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="J47" s="6">
+        <v>0</v>
+      </c>
+      <c r="K47" s="6">
+        <v>0.52</v>
+      </c>
+      <c r="L47" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="M47" s="6">
+        <v>1.8</v>
+      </c>
+      <c r="N47" s="19"/>
+      <c r="O47" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="P47" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q47" s="19">
+        <v>-57.330945</v>
+      </c>
+      <c r="R47" s="19">
+        <v>-176.93370300000001</v>
+      </c>
+      <c r="S47" s="19">
+        <v>334.32381099999998</v>
+      </c>
+      <c r="T47" s="19"/>
+      <c r="U47" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="V47" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="W47" s="19">
+        <v>-57.330576999999998</v>
+      </c>
+      <c r="X47" s="19">
+        <v>-176.93236200000001</v>
+      </c>
+      <c r="Y47" s="19">
+        <v>334.32115599999997</v>
+      </c>
+      <c r="AA47" s="16">
+        <f t="shared" si="1"/>
+        <v>6.4188720419958246E-6</v>
+      </c>
+      <c r="AB47" s="16">
+        <f t="shared" si="1"/>
+        <v>7.579110012728801E-6</v>
+      </c>
+      <c r="AC47" s="16">
+        <f t="shared" si="1"/>
+        <v>7.9414026541001976E-6</v>
+      </c>
+    </row>
+    <row r="48" spans="3:29">
+      <c r="C48" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D48" s="4">
+        <v>1.88</v>
+      </c>
+      <c r="E48" s="4">
+        <v>-1.1499999999999999</v>
+      </c>
+      <c r="F48" s="4">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="H48" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="I48" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="J48" s="6">
+        <v>0</v>
+      </c>
+      <c r="K48" s="6">
+        <v>0.52</v>
+      </c>
+      <c r="L48" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="M48" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="N48" s="19"/>
+      <c r="O48" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="P48" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q48" s="19">
+        <v>9.3541570000000007</v>
+      </c>
+      <c r="R48" s="19">
+        <v>2.8929459999999998</v>
+      </c>
+      <c r="S48" s="19">
+        <v>-2.885561</v>
+      </c>
+      <c r="T48" s="19"/>
+      <c r="U48" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="V48" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="W48" s="19">
+        <v>9.3540829999999993</v>
+      </c>
+      <c r="X48" s="19">
+        <v>2.8929260000000001</v>
+      </c>
+      <c r="Y48" s="19">
+        <v>-2.8855390000000001</v>
+      </c>
+      <c r="AA48" s="16">
+        <f t="shared" si="1"/>
+        <v>7.9109213156740666E-6</v>
+      </c>
+      <c r="AB48" s="16">
+        <f t="shared" si="1"/>
+        <v>6.9133678954556833E-6</v>
+      </c>
+      <c r="AC48" s="16">
+        <f t="shared" si="1"/>
+        <v>7.6241673629379143E-6</v>
+      </c>
+    </row>
+    <row r="49" spans="3:29">
+      <c r="C49" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="H49" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="I49" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="J49" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="K49" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="L49" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="M49" s="6">
+        <v>1</v>
+      </c>
+      <c r="N49" s="19"/>
+      <c r="O49" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="P49" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q49" s="19">
+        <v>8.5306759999999997</v>
+      </c>
+      <c r="R49" s="19">
+        <v>5.3875640000000002</v>
+      </c>
+      <c r="S49" s="19">
+        <v>4.464899</v>
+      </c>
+      <c r="T49" s="19"/>
+      <c r="U49" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="V49" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="W49" s="19">
+        <v>8.5306080000000009</v>
+      </c>
+      <c r="X49" s="19">
+        <v>5.3875200000000003</v>
+      </c>
+      <c r="Y49" s="19">
+        <v>4.4648630000000002</v>
+      </c>
+      <c r="AA49" s="16">
+        <f t="shared" si="1"/>
+        <v>7.9712322914206047E-6</v>
+      </c>
+      <c r="AB49" s="16">
+        <f t="shared" si="1"/>
+        <v>8.1669563461209891E-6</v>
+      </c>
+      <c r="AC49" s="16">
+        <f t="shared" si="1"/>
+        <v>8.0628923520337048E-6</v>
+      </c>
+    </row>
+    <row r="50" spans="3:29">
+      <c r="C50" s="2"/>
+      <c r="D50" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="H50" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="I50" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="J50" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="K50" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="L50" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="M50" s="6">
+        <v>-3</v>
+      </c>
+      <c r="N50" s="19"/>
+      <c r="O50" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="P50" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q50" s="19">
+        <v>4.7066299999999996</v>
+      </c>
+      <c r="R50" s="19">
+        <v>4.2750300000000001</v>
+      </c>
+      <c r="S50" s="19">
+        <v>0.25242100000000001</v>
+      </c>
+      <c r="T50" s="19"/>
+      <c r="U50" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="V50" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="W50" s="19">
+        <v>4.7065919999999997</v>
+      </c>
+      <c r="X50" s="19">
+        <v>4.2749959999999998</v>
+      </c>
+      <c r="Y50" s="19">
+        <v>0.252419</v>
+      </c>
+      <c r="AA50" s="16">
+        <f t="shared" si="1"/>
+        <v>8.0737172881621233E-6</v>
+      </c>
+      <c r="AB50" s="16">
+        <f t="shared" si="1"/>
+        <v>7.9531605626888142E-6</v>
+      </c>
+      <c r="AC50" s="16">
+        <f t="shared" si="1"/>
+        <v>7.9232710432254057E-6</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29">
+      <c r="C51" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D51" s="4">
+        <v>4.3</v>
+      </c>
+      <c r="E51" s="4">
+        <v>2.15</v>
+      </c>
+      <c r="F51" s="4">
+        <v>1.88</v>
+      </c>
+      <c r="H51" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="I51" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="J51" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="K51" s="6">
+        <v>0</v>
+      </c>
+      <c r="L51" s="6">
+        <v>-0.04</v>
+      </c>
+      <c r="M51" s="6">
+        <v>1</v>
+      </c>
+      <c r="N51" s="19"/>
+      <c r="O51" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="P51" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q51" s="19">
+        <v>-4.1720009999999998</v>
+      </c>
+      <c r="R51" s="19">
+        <v>-2.8745949999999998</v>
+      </c>
+      <c r="S51" s="19">
+        <v>-1.684852</v>
+      </c>
+      <c r="T51" s="19"/>
+      <c r="U51" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="V51" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="W51" s="19">
+        <v>-4.1719689999999998</v>
+      </c>
+      <c r="X51" s="19">
+        <v>-2.8745729999999998</v>
+      </c>
+      <c r="Y51" s="19">
+        <v>-1.684839</v>
+      </c>
+      <c r="AA51" s="16">
+        <f t="shared" si="1"/>
+        <v>7.6701803283441212E-6</v>
+      </c>
+      <c r="AB51" s="16">
+        <f t="shared" si="1"/>
+        <v>7.6532520233168473E-6</v>
+      </c>
+      <c r="AC51" s="16">
+        <f t="shared" si="1"/>
+        <v>7.7158112404180048E-6</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29">
+      <c r="C52" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D52" s="4">
+        <v>0</v>
+      </c>
+      <c r="E52" s="4">
+        <v>3.7229999999999999</v>
+      </c>
+      <c r="F52" s="4">
+        <v>-1.1499999999999999</v>
+      </c>
+      <c r="H52" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="I52" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="J52" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="K52" s="6">
+        <v>0</v>
+      </c>
+      <c r="L52" s="6">
+        <v>-0.03</v>
+      </c>
+      <c r="M52" s="6">
+        <v>-3</v>
+      </c>
+      <c r="N52" s="19"/>
+      <c r="O52" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="P52" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q52" s="19">
+        <v>17.774856</v>
+      </c>
+      <c r="R52" s="19">
+        <v>3.0606000000000001E-2</v>
+      </c>
+      <c r="S52" s="19">
+        <v>64.997431000000006</v>
+      </c>
+      <c r="T52" s="19"/>
+      <c r="U52" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="V52" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="W52" s="19">
+        <v>17.774709999999999</v>
+      </c>
+      <c r="X52" s="19">
+        <v>3.0601E-2</v>
+      </c>
+      <c r="Y52" s="19">
+        <v>64.996921999999998</v>
+      </c>
+      <c r="AA52" s="16">
+        <f t="shared" si="1"/>
+        <v>8.2138499462874785E-6</v>
+      </c>
+      <c r="AB52" s="16">
+        <f t="shared" si="1"/>
+        <v>1.6336666013205028E-4</v>
+      </c>
+      <c r="AC52" s="16">
+        <f t="shared" si="1"/>
+        <v>7.8310787392210353E-6</v>
+      </c>
+    </row>
+    <row r="53" spans="3:29">
+      <c r="C53" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D53" s="4">
+        <v>0</v>
+      </c>
+      <c r="E53" s="4">
+        <v>0</v>
+      </c>
+      <c r="F53" s="4">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="H53" t="s">
+        <v>132</v>
+      </c>
+      <c r="I53" t="s">
+        <v>133</v>
+      </c>
+      <c r="J53" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="K53" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="L53" s="6">
+        <v>0.32</v>
+      </c>
+      <c r="M53" s="6">
+        <v>1</v>
+      </c>
+      <c r="O53" t="s">
+        <v>162</v>
+      </c>
+      <c r="P53" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q53">
+        <v>1.05077</v>
+      </c>
+      <c r="R53">
+        <v>-35.928555000000003</v>
+      </c>
+      <c r="S53">
+        <v>25.646419999999999</v>
+      </c>
+      <c r="U53" t="s">
+        <v>162</v>
+      </c>
+      <c r="V53" t="s">
+        <v>164</v>
+      </c>
+      <c r="W53">
+        <v>1.0507500000000001</v>
+      </c>
+      <c r="X53">
+        <v>-35.928288000000002</v>
+      </c>
+      <c r="Y53">
+        <v>25.646217</v>
+      </c>
+      <c r="AA53" s="16">
+        <f t="shared" si="1"/>
+        <v>1.9033661029444102E-5</v>
+      </c>
+      <c r="AB53" s="16">
+        <f t="shared" si="1"/>
+        <v>7.4314149289028012E-6</v>
+      </c>
+      <c r="AC53" s="16">
+        <f t="shared" si="1"/>
+        <v>7.915334771834238E-6</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29">
+      <c r="D54" s="7"/>
+      <c r="E54" s="7"/>
+      <c r="H54" t="s">
+        <v>132</v>
+      </c>
+      <c r="I54" t="s">
+        <v>142</v>
+      </c>
+      <c r="J54" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="K54" s="6">
+        <v>0.48</v>
+      </c>
+      <c r="L54" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="M54" s="6">
+        <v>-3</v>
+      </c>
+      <c r="O54" t="s">
+        <v>162</v>
+      </c>
+      <c r="P54" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q54">
+        <v>49.196362000000001</v>
+      </c>
+      <c r="R54">
+        <v>90.944946999999999</v>
+      </c>
+      <c r="S54">
+        <v>25.295646000000001</v>
+      </c>
+      <c r="U54" t="s">
+        <v>162</v>
+      </c>
+      <c r="V54" t="s">
+        <v>164</v>
+      </c>
+      <c r="W54">
+        <v>49.195963999999996</v>
+      </c>
+      <c r="X54">
+        <v>90.944218000000006</v>
+      </c>
+      <c r="Y54">
+        <v>25.295437</v>
+      </c>
+      <c r="AA54" s="16">
+        <f t="shared" si="1"/>
+        <v>8.090029096137582E-6</v>
+      </c>
+      <c r="AB54" s="16">
+        <f t="shared" si="1"/>
+        <v>8.0158384169782646E-6</v>
+      </c>
+      <c r="AC54" s="16">
+        <f t="shared" si="1"/>
+        <v>8.2622914631901493E-6</v>
+      </c>
+    </row>
+    <row r="55" spans="3:29">
+      <c r="D55" s="7"/>
+      <c r="E55" s="7"/>
+      <c r="H55" t="s">
+        <v>132</v>
+      </c>
+      <c r="I55" t="s">
+        <v>133</v>
+      </c>
+      <c r="J55" s="6">
+        <v>0</v>
+      </c>
+      <c r="K55" s="6">
+        <v>0</v>
+      </c>
+      <c r="L55" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="M55" s="6">
+        <v>1</v>
+      </c>
+      <c r="O55" t="s">
+        <v>162</v>
+      </c>
+      <c r="P55" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q55">
+        <v>-141.14288400000001</v>
+      </c>
+      <c r="R55">
+        <v>112.326013</v>
+      </c>
+      <c r="S55">
+        <v>-976.22380899999996</v>
+      </c>
+      <c r="U55" t="s">
+        <v>162</v>
+      </c>
+      <c r="V55" t="s">
+        <v>164</v>
+      </c>
+      <c r="W55">
+        <v>-141.14160999999999</v>
+      </c>
+      <c r="X55">
+        <v>112.32525099999999</v>
+      </c>
+      <c r="Y55">
+        <v>-976.21612100000004</v>
+      </c>
+      <c r="AA55" s="16">
+        <f t="shared" si="1"/>
+        <v>9.0263140720826853E-6</v>
+      </c>
+      <c r="AB55" s="16">
+        <f t="shared" si="1"/>
+        <v>6.7838248652946591E-6</v>
+      </c>
+      <c r="AC55" s="16">
+        <f t="shared" si="1"/>
+        <v>7.8752432885156439E-6</v>
+      </c>
+    </row>
+    <row r="56" spans="3:29">
+      <c r="D56" s="7"/>
+      <c r="E56" s="7"/>
+      <c r="H56" t="s">
+        <v>132</v>
+      </c>
+      <c r="I56" t="s">
+        <v>142</v>
+      </c>
+      <c r="J56" s="6">
+        <v>0</v>
+      </c>
+      <c r="K56" s="6">
+        <v>0</v>
+      </c>
+      <c r="L56" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="M56" s="6">
+        <v>-3</v>
+      </c>
+      <c r="O56" t="s">
+        <v>162</v>
+      </c>
+      <c r="P56" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q56">
+        <v>-28.062470999999999</v>
+      </c>
+      <c r="R56">
+        <v>-8.6788380000000007</v>
+      </c>
+      <c r="S56">
+        <v>8.6566829999999992</v>
+      </c>
+      <c r="U56" t="s">
+        <v>162</v>
+      </c>
+      <c r="V56" t="s">
+        <v>164</v>
+      </c>
+      <c r="W56">
+        <v>-28.062249999999999</v>
+      </c>
+      <c r="X56">
+        <v>-8.6787779999999994</v>
+      </c>
+      <c r="Y56">
+        <v>8.6566179999999999</v>
+      </c>
+      <c r="AA56" s="16">
+        <f t="shared" si="1"/>
+        <v>7.875286534810305E-6</v>
+      </c>
+      <c r="AB56" s="16">
+        <f t="shared" si="1"/>
+        <v>6.9133678957115279E-6</v>
+      </c>
+      <c r="AC56" s="16">
+        <f t="shared" si="1"/>
+        <v>7.508649675553051E-6</v>
+      </c>
+    </row>
+    <row r="57" spans="3:29">
+      <c r="D57" s="7"/>
+      <c r="E57" s="7"/>
+    </row>
+    <row r="58" spans="3:29">
+      <c r="D58" s="7"/>
+      <c r="E58" s="7"/>
+    </row>
+    <row r="59" spans="3:29">
+      <c r="D59" s="7"/>
+      <c r="E59" s="7"/>
+    </row>
+    <row r="60" spans="3:29">
+      <c r="D60" s="7"/>
+      <c r="E60" s="7"/>
+    </row>
+    <row r="61" spans="3:29">
+      <c r="D61" s="7"/>
+      <c r="E61" s="7"/>
+    </row>
+    <row r="62" spans="3:29">
+      <c r="D62" s="7"/>
+      <c r="E62" s="7"/>
+    </row>
+    <row r="63" spans="3:29">
+      <c r="D63" s="7"/>
+      <c r="E63" s="7"/>
+    </row>
+    <row r="64" spans="3:29">
+      <c r="D64" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E64" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="H64" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="65" spans="3:15">
+      <c r="C65" t="s">
+        <v>27</v>
+      </c>
+      <c r="D65" s="7">
+        <v>53.57311</v>
+      </c>
+      <c r="E65" s="7">
+        <f>H65</f>
+        <v>53.572671999999997</v>
+      </c>
+      <c r="F65" s="44">
+        <f>(D65-E65)/D65</f>
+        <v>8.1757433907160321E-6</v>
+      </c>
+      <c r="H65">
+        <v>53.572671999999997</v>
+      </c>
+      <c r="I65">
+        <v>-20.613994999999999</v>
+      </c>
+      <c r="J65">
+        <v>96.194164999999998</v>
+      </c>
+      <c r="N65">
+        <v>-0.84362800000000004</v>
+      </c>
+      <c r="O65">
+        <f>N65*N65</f>
+        <v>0.71170820238400012</v>
+      </c>
+    </row>
+    <row r="66" spans="3:15">
+      <c r="C66" t="s">
+        <v>28</v>
+      </c>
+      <c r="D66" s="7">
+        <v>37.711478999999997</v>
+      </c>
+      <c r="E66" s="7">
+        <f>I66</f>
+        <v>37.711193999999999</v>
+      </c>
+      <c r="F66" s="44">
+        <f t="shared" ref="F66:F70" si="2">(D66-E66)/D66</f>
+        <v>7.5573806054674323E-6</v>
+      </c>
+      <c r="H66">
+        <v>-20.613994999999999</v>
+      </c>
+      <c r="I66">
+        <v>37.711193999999999</v>
+      </c>
+      <c r="J66">
+        <v>1.5207139999999999</v>
+      </c>
+      <c r="N66">
+        <v>1.6872549999999999</v>
+      </c>
+      <c r="O66">
+        <f t="shared" ref="O66:O67" si="3">N66*N66</f>
+        <v>2.8468294350249996</v>
+      </c>
+    </row>
+    <row r="67" spans="3:15">
+      <c r="C67" t="s">
+        <v>29</v>
+      </c>
+      <c r="D67" s="7">
+        <v>185.27965399999999</v>
+      </c>
+      <c r="E67" s="7">
+        <f>J67</f>
+        <v>185.27821399999999</v>
+      </c>
+      <c r="F67" s="44">
+        <f t="shared" si="2"/>
+        <v>7.7720352392407224E-6</v>
+      </c>
+      <c r="H67">
+        <v>96.194164999999998</v>
+      </c>
+      <c r="I67">
+        <v>1.5207139999999999</v>
+      </c>
+      <c r="J67">
+        <v>185.27821399999999</v>
+      </c>
+      <c r="N67">
+        <v>0</v>
+      </c>
+      <c r="O67">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="3:15">
+      <c r="C68" t="s">
+        <v>30</v>
+      </c>
+      <c r="D68" s="7">
+        <v>1.5207390000000001</v>
+      </c>
+      <c r="E68" s="7">
+        <f>J66</f>
+        <v>1.5207139999999999</v>
+      </c>
+      <c r="F68" s="44">
+        <f t="shared" si="2"/>
+        <v>1.6439375856188193E-5</v>
+      </c>
+      <c r="O68">
+        <f>SQRT(SUM(O65:O67))</f>
+        <v>1.8864086612950546</v>
+      </c>
+    </row>
+    <row r="69" spans="3:15">
+      <c r="C69" t="s">
+        <v>31</v>
+      </c>
+      <c r="D69" s="7">
+        <v>96.194942999999995</v>
+      </c>
+      <c r="E69" s="7">
+        <f>J65</f>
+        <v>96.194164999999998</v>
+      </c>
+      <c r="F69" s="44">
+        <f t="shared" si="2"/>
+        <v>8.087743240274458E-6</v>
+      </c>
+    </row>
+    <row r="70" spans="3:15">
+      <c r="C70" t="s">
+        <v>32</v>
+      </c>
+      <c r="D70" s="7">
+        <v>-20.614146999999999</v>
+      </c>
+      <c r="E70" s="7">
+        <f>I65</f>
+        <v>-20.613994999999999</v>
+      </c>
+      <c r="F70" s="44">
+        <f t="shared" si="2"/>
+        <v>7.3735769905943704E-6</v>
+      </c>
+    </row>
+    <row r="72" spans="3:15">
+      <c r="O72">
+        <v>3.939981</v>
+      </c>
+    </row>
+    <row r="73" spans="3:15">
+      <c r="O73">
+        <f>O72/O68</f>
+        <v>2.0886147741153445</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F0F5E3C-50C2-D34D-B7FF-8835CD417F1B}">
+  <dimension ref="B1:AC70"/>
+  <sheetViews>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="4" max="5" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="22.83203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.33203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.83203125" style="20"/>
+    <col min="23" max="24" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:29">
+      <c r="C1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D1">
+        <v>37.140647999999999</v>
+      </c>
+    </row>
+    <row r="2" spans="2:29">
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+    </row>
+    <row r="3" spans="2:29">
+      <c r="C3" t="s">
+        <v>185</v>
+      </c>
+      <c r="G3" s="19"/>
+      <c r="H3" s="43" t="s">
+        <v>186</v>
+      </c>
+      <c r="I3" s="43"/>
+      <c r="J3" s="43"/>
+      <c r="K3" s="43"/>
+      <c r="L3" s="43" t="s">
+        <v>187</v>
+      </c>
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="19"/>
+      <c r="Q3" s="19"/>
+    </row>
+    <row r="4" spans="2:29">
+      <c r="C4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D4" t="s">
+        <v>113</v>
+      </c>
+      <c r="E4" t="s">
+        <v>114</v>
+      </c>
+      <c r="G4" s="19"/>
+      <c r="H4" t="s">
+        <v>112</v>
+      </c>
+      <c r="I4" t="s">
+        <v>113</v>
+      </c>
+      <c r="J4" t="s">
+        <v>114</v>
+      </c>
+      <c r="L4" t="s">
+        <v>112</v>
+      </c>
+      <c r="M4" t="s">
+        <v>113</v>
+      </c>
+      <c r="N4" t="s">
+        <v>114</v>
+      </c>
+      <c r="O4" s="19"/>
+      <c r="P4" s="19"/>
+      <c r="Q4" s="19"/>
+    </row>
+    <row r="5" spans="2:29">
+      <c r="B5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="6">
+        <v>4.3</v>
+      </c>
+      <c r="D5" s="6">
+        <v>2.15</v>
+      </c>
+      <c r="E5" s="6">
+        <v>1.88</v>
+      </c>
+      <c r="G5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H5" s="19">
+        <v>4.3005000000000004</v>
+      </c>
+      <c r="I5" s="19">
+        <v>2.15</v>
+      </c>
+      <c r="J5" s="19">
+        <v>1.88</v>
+      </c>
+      <c r="K5" t="s">
+        <v>36</v>
+      </c>
+      <c r="L5" s="19">
+        <v>4.2995000000000001</v>
+      </c>
+      <c r="M5" s="19">
+        <v>2.15</v>
+      </c>
+      <c r="N5" s="19">
+        <v>1.88</v>
+      </c>
+      <c r="O5" s="19"/>
+      <c r="P5" s="19">
+        <f>(H9-L9)/(H5-L5)</f>
+        <v>-9.3049999999803585</v>
+      </c>
+      <c r="Q5" s="19"/>
+    </row>
+    <row r="6" spans="2:29">
+      <c r="B6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="6">
+        <v>0</v>
+      </c>
+      <c r="D6" s="6">
+        <v>3.7229999999999999</v>
+      </c>
+      <c r="E6" s="6">
+        <v>-1.1499999999999999</v>
+      </c>
+      <c r="G6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6" s="19">
+        <v>0</v>
+      </c>
+      <c r="I6" s="19">
+        <v>3.7229999999999999</v>
+      </c>
+      <c r="J6" s="19">
+        <v>-1.1499999999999999</v>
+      </c>
+      <c r="K6" t="s">
+        <v>37</v>
+      </c>
+      <c r="L6" s="19">
+        <v>0</v>
+      </c>
+      <c r="M6" s="19">
+        <v>3.7229999999999999</v>
+      </c>
+      <c r="N6" s="19">
+        <v>-1.1499999999999999</v>
+      </c>
+      <c r="O6" s="19"/>
+      <c r="P6" s="19"/>
+      <c r="Q6" s="19"/>
+    </row>
+    <row r="7" spans="2:29">
+      <c r="B7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="6">
+        <v>0</v>
+      </c>
+      <c r="D7" s="6">
+        <v>0</v>
+      </c>
+      <c r="E7" s="6">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="G7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" s="19">
+        <v>0</v>
+      </c>
+      <c r="I7" s="19">
+        <v>0</v>
+      </c>
+      <c r="J7" s="19">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="K7" t="s">
+        <v>38</v>
+      </c>
+      <c r="L7" s="19">
+        <v>0</v>
+      </c>
+      <c r="M7" s="19">
+        <v>0</v>
+      </c>
+      <c r="N7" s="19">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="O7" s="19"/>
+      <c r="P7" s="19"/>
+      <c r="Q7" s="19"/>
+    </row>
+    <row r="8" spans="2:29">
+      <c r="H8" s="19"/>
+      <c r="I8" s="43"/>
+      <c r="J8" s="43"/>
+      <c r="L8" s="43"/>
+      <c r="M8" s="43"/>
+      <c r="N8" s="19"/>
+      <c r="O8" s="19"/>
+      <c r="P8" s="19"/>
+      <c r="Q8" s="19"/>
+    </row>
+    <row r="9" spans="2:29">
+      <c r="C9" t="s">
+        <v>199</v>
+      </c>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19">
+        <v>-276.566732</v>
+      </c>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19">
+        <v>-276.55742700000002</v>
+      </c>
+      <c r="M9" s="19"/>
+      <c r="N9" s="19"/>
+      <c r="O9" s="19"/>
+      <c r="P9" s="19"/>
+      <c r="Q9" s="19"/>
+    </row>
+    <row r="10" spans="2:29">
+      <c r="C10" t="s">
+        <v>112</v>
+      </c>
+      <c r="D10" t="s">
+        <v>113</v>
+      </c>
+      <c r="E10" t="s">
+        <v>114</v>
+      </c>
+      <c r="G10" s="19"/>
+      <c r="H10" s="50" t="s">
+        <v>188</v>
+      </c>
+      <c r="I10" s="50"/>
+      <c r="J10" s="50"/>
+      <c r="K10" s="50"/>
+      <c r="L10" s="50" t="s">
+        <v>189</v>
+      </c>
+      <c r="M10" s="19"/>
+      <c r="N10" s="19"/>
+      <c r="O10" s="19"/>
+      <c r="P10" s="19"/>
+      <c r="Q10" s="19"/>
+      <c r="AB10" s="16"/>
+      <c r="AC10" s="16"/>
+    </row>
+    <row r="11" spans="2:29">
+      <c r="B11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="47">
+        <v>-9.3055900000000005</v>
+      </c>
+      <c r="D11" s="48">
+        <v>7.2717729999999996</v>
+      </c>
+      <c r="E11" s="49">
+        <v>41.46557</v>
+      </c>
+      <c r="H11" t="s">
+        <v>112</v>
+      </c>
+      <c r="I11" t="s">
+        <v>113</v>
+      </c>
+      <c r="J11" t="s">
+        <v>114</v>
+      </c>
+      <c r="L11" t="s">
+        <v>112</v>
+      </c>
+      <c r="M11" t="s">
+        <v>113</v>
+      </c>
+      <c r="N11" t="s">
+        <v>114</v>
+      </c>
+      <c r="O11" s="19"/>
+      <c r="P11" s="19"/>
+      <c r="Q11" s="19"/>
+      <c r="AB11" s="16"/>
+      <c r="AC11" s="16"/>
+    </row>
+    <row r="12" spans="2:29">
+      <c r="B12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="6">
+        <v>-10.246663</v>
+      </c>
+      <c r="D12" s="48">
+        <v>10.331464</v>
+      </c>
+      <c r="E12" s="49">
+        <v>0.65658799999999995</v>
+      </c>
+      <c r="G12" t="s">
+        <v>36</v>
+      </c>
+      <c r="H12" s="19">
+        <v>4.3</v>
+      </c>
+      <c r="I12" s="19">
+        <v>2.1505000000000001</v>
+      </c>
+      <c r="J12" s="19">
+        <v>1.88</v>
+      </c>
+      <c r="K12" t="s">
+        <v>36</v>
+      </c>
+      <c r="L12" s="19">
+        <v>4.3</v>
+      </c>
+      <c r="M12" s="19">
+        <v>2.1495000000000002</v>
+      </c>
+      <c r="N12" s="19">
+        <v>1.88</v>
+      </c>
+      <c r="O12" s="19"/>
+      <c r="P12" s="19">
+        <f>(H16-L16)/(I12-M12)</f>
+        <v>7.2710000000037152</v>
+      </c>
+      <c r="Q12" s="19"/>
+      <c r="AB12" s="16"/>
+      <c r="AC12" s="16"/>
+    </row>
+    <row r="13" spans="2:29">
+      <c r="B13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="6">
+        <v>-25.082708</v>
+      </c>
+      <c r="D13" s="6">
+        <v>25.077231999999999</v>
+      </c>
+      <c r="E13" s="49">
+        <v>79.860218000000003</v>
+      </c>
+      <c r="G13" t="s">
+        <v>37</v>
+      </c>
+      <c r="H13" s="19">
+        <v>0</v>
+      </c>
+      <c r="I13" s="19">
+        <v>3.7229999999999999</v>
+      </c>
+      <c r="J13" s="19">
+        <v>-1.1499999999999999</v>
+      </c>
+      <c r="K13" t="s">
+        <v>37</v>
+      </c>
+      <c r="L13" s="19">
+        <v>0</v>
+      </c>
+      <c r="M13" s="19">
+        <v>3.7229999999999999</v>
+      </c>
+      <c r="N13" s="19">
+        <v>-1.1499999999999999</v>
+      </c>
+      <c r="O13" s="19"/>
+      <c r="P13" s="19"/>
+      <c r="Q13" s="19"/>
+      <c r="AB13" s="16"/>
+      <c r="AC13" s="16"/>
+    </row>
+    <row r="14" spans="2:29">
+      <c r="G14" t="s">
+        <v>38</v>
+      </c>
+      <c r="H14" s="19">
+        <v>0</v>
+      </c>
+      <c r="I14" s="19">
+        <v>0</v>
+      </c>
+      <c r="J14" s="19">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="K14" t="s">
+        <v>38</v>
+      </c>
+      <c r="L14" s="19">
+        <v>0</v>
+      </c>
+      <c r="M14" s="19">
+        <v>0</v>
+      </c>
+      <c r="N14" s="19">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="O14" s="19"/>
+      <c r="P14" s="19"/>
+      <c r="Q14" s="19"/>
+      <c r="AB14" s="16"/>
+      <c r="AC14" s="16"/>
+    </row>
+    <row r="15" spans="2:29">
+      <c r="C15" t="s">
+        <v>198</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="43"/>
+      <c r="J15" s="43"/>
+      <c r="L15" s="43"/>
+      <c r="M15" s="43"/>
+      <c r="N15" s="19"/>
+      <c r="O15" s="19"/>
+      <c r="P15" s="19"/>
+      <c r="Q15" s="19"/>
+      <c r="AB15" s="16"/>
+      <c r="AC15" s="16"/>
+    </row>
+    <row r="16" spans="2:29">
+      <c r="C16" t="s">
+        <v>112</v>
+      </c>
+      <c r="D16" t="s">
+        <v>113</v>
+      </c>
+      <c r="E16" t="s">
+        <v>114</v>
+      </c>
+      <c r="G16" s="5"/>
+      <c r="H16" s="19">
+        <v>-276.55844400000001</v>
+      </c>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="19">
+        <v>-276.56571500000001</v>
+      </c>
+      <c r="M16" s="19"/>
+      <c r="N16" s="19"/>
+      <c r="O16" s="19"/>
+      <c r="P16" s="19"/>
+      <c r="Q16" s="19"/>
+      <c r="AB16" s="16"/>
+      <c r="AC16" s="16"/>
+    </row>
+    <row r="17" spans="2:29">
+      <c r="B17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="54">
+        <f>P5</f>
+        <v>-9.3049999999803585</v>
+      </c>
+      <c r="D17" s="52">
+        <f>P12</f>
+        <v>7.2710000000037152</v>
+      </c>
+      <c r="E17" s="53">
+        <f>P26</f>
+        <v>41.463000000016926</v>
+      </c>
+      <c r="G17" s="5"/>
+      <c r="H17" s="50" t="s">
+        <v>190</v>
+      </c>
+      <c r="I17" s="50"/>
+      <c r="J17" s="50"/>
+      <c r="K17" s="50"/>
+      <c r="L17" s="50" t="s">
+        <v>191</v>
+      </c>
+      <c r="M17" s="19"/>
+      <c r="N17" s="19"/>
+      <c r="O17" s="19"/>
+      <c r="P17" s="19"/>
+      <c r="Q17" s="19"/>
+      <c r="AB17" s="16"/>
+      <c r="AC17" s="16"/>
+    </row>
+    <row r="18" spans="2:29">
+      <c r="B18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="52">
+        <f>P19</f>
+        <v>10.332000000006476</v>
+      </c>
+      <c r="E18" s="53">
+        <f>P33</f>
+        <v>0.65499999999466985</v>
+      </c>
+      <c r="G18" s="19"/>
+      <c r="H18" t="s">
+        <v>112</v>
+      </c>
+      <c r="I18" t="s">
+        <v>113</v>
+      </c>
+      <c r="J18" t="s">
+        <v>114</v>
+      </c>
+      <c r="L18" t="s">
+        <v>112</v>
+      </c>
+      <c r="M18" t="s">
+        <v>113</v>
+      </c>
+      <c r="N18" t="s">
+        <v>114</v>
+      </c>
+      <c r="O18" s="19"/>
+      <c r="P18" s="19"/>
+      <c r="Q18" s="19"/>
+      <c r="AB18" s="16"/>
+      <c r="AC18" s="16"/>
+    </row>
+    <row r="19" spans="2:29">
+      <c r="B19" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="53">
+        <f>P40</f>
+        <v>79.861000000002761</v>
+      </c>
+      <c r="G19" t="s">
+        <v>36</v>
+      </c>
+      <c r="H19" s="19">
+        <v>4.3</v>
+      </c>
+      <c r="I19" s="19">
+        <v>2.15</v>
+      </c>
+      <c r="J19" s="19">
+        <v>1.88</v>
+      </c>
+      <c r="K19" t="s">
+        <v>36</v>
+      </c>
+      <c r="L19" s="19">
+        <v>4.3</v>
+      </c>
+      <c r="M19" s="19">
+        <v>2.15</v>
+      </c>
+      <c r="N19" s="19">
+        <v>1.88</v>
+      </c>
+      <c r="O19" s="19"/>
+      <c r="P19" s="19">
+        <f>(H23-L23)/(I20-M20)</f>
+        <v>10.332000000006476</v>
+      </c>
+      <c r="Q19" s="19"/>
+      <c r="AB19" s="16"/>
+      <c r="AC19" s="16"/>
+    </row>
+    <row r="20" spans="2:29">
+      <c r="C20" s="2"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="G20" t="s">
+        <v>37</v>
+      </c>
+      <c r="H20" s="19">
+        <v>0</v>
+      </c>
+      <c r="I20" s="19">
+        <v>3.7235</v>
+      </c>
+      <c r="J20" s="19">
+        <v>-1.1499999999999999</v>
+      </c>
+      <c r="K20" t="s">
+        <v>37</v>
+      </c>
+      <c r="L20" s="19">
+        <v>0</v>
+      </c>
+      <c r="M20" s="19">
+        <v>3.7225000000000001</v>
+      </c>
+      <c r="N20" s="19">
+        <v>-1.1499999999999999</v>
+      </c>
+      <c r="O20" s="19"/>
+      <c r="P20" s="19"/>
+      <c r="Q20" s="19"/>
+      <c r="AB20" s="16"/>
+      <c r="AC20" s="16"/>
+    </row>
+    <row r="21" spans="2:29">
+      <c r="B21" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21" s="55">
+        <f>(C17-C11)/C17</f>
+        <v>-6.3406772664500763E-5</v>
+      </c>
+      <c r="D21" s="56">
+        <f t="shared" ref="D21:E22" si="0">(D17-D11)/D17</f>
+        <v>-1.0631274876688837E-4</v>
+      </c>
+      <c r="E21" s="57">
+        <f t="shared" si="0"/>
+        <v>-6.1982972362647462E-5</v>
+      </c>
+      <c r="G21" t="s">
+        <v>38</v>
+      </c>
+      <c r="H21" s="19">
+        <v>0</v>
+      </c>
+      <c r="I21" s="19">
+        <v>0</v>
+      </c>
+      <c r="J21" s="19">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="K21" t="s">
+        <v>38</v>
+      </c>
+      <c r="L21" s="19">
+        <v>0</v>
+      </c>
+      <c r="M21" s="19">
+        <v>0</v>
+      </c>
+      <c r="N21" s="19">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="O21" s="19"/>
+      <c r="P21" s="19"/>
+      <c r="Q21" s="19"/>
+      <c r="AB21" s="16"/>
+      <c r="AC21" s="16"/>
+    </row>
+    <row r="22" spans="2:29">
+      <c r="C22" s="8"/>
+      <c r="D22" s="56">
+        <f t="shared" si="0"/>
+        <v>5.1877662260433482E-5</v>
+      </c>
+      <c r="E22" s="57">
+        <f t="shared" ref="E22" si="1">(E18-E12)/E18</f>
+        <v>-2.4244274890733225E-3</v>
+      </c>
+      <c r="H22" s="19"/>
+      <c r="I22" s="43"/>
+      <c r="J22" s="43"/>
+      <c r="L22" s="43"/>
+      <c r="M22" s="43"/>
+      <c r="N22" s="19"/>
+      <c r="O22" s="19"/>
+      <c r="P22" s="19"/>
+      <c r="Q22" s="19"/>
+    </row>
+    <row r="23" spans="2:29">
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="57">
+        <f t="shared" ref="E23" si="2">(E19-E13)/E19</f>
+        <v>9.7920136582039713E-6</v>
+      </c>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19">
+        <v>-276.556915</v>
+      </c>
+      <c r="I23" s="19"/>
+      <c r="J23" s="19"/>
+      <c r="K23" s="19"/>
+      <c r="L23" s="19">
+        <v>-276.56724700000001</v>
+      </c>
+      <c r="M23" s="19"/>
+      <c r="N23" s="19"/>
+      <c r="O23" s="19"/>
+      <c r="P23" s="19"/>
+      <c r="Q23" s="19"/>
+    </row>
+    <row r="24" spans="2:29">
+      <c r="G24" s="19"/>
+      <c r="H24" s="51" t="s">
+        <v>192</v>
+      </c>
+      <c r="I24" s="51"/>
+      <c r="J24" s="51"/>
+      <c r="K24" s="51"/>
+      <c r="L24" s="51" t="s">
+        <v>193</v>
+      </c>
+      <c r="M24" s="51"/>
+      <c r="N24" s="51"/>
+      <c r="O24" s="51"/>
+      <c r="P24" s="19"/>
+      <c r="Q24" s="19"/>
+    </row>
+    <row r="25" spans="2:29">
+      <c r="G25" s="19"/>
+      <c r="H25" t="s">
+        <v>112</v>
+      </c>
+      <c r="I25" t="s">
+        <v>113</v>
+      </c>
+      <c r="J25" t="s">
+        <v>114</v>
+      </c>
+      <c r="L25" t="s">
+        <v>112</v>
+      </c>
+      <c r="M25" t="s">
+        <v>113</v>
+      </c>
+      <c r="N25" t="s">
+        <v>114</v>
+      </c>
+      <c r="O25" s="19"/>
+      <c r="P25" s="19"/>
+      <c r="Q25" s="19"/>
+    </row>
+    <row r="26" spans="2:29">
+      <c r="G26" t="s">
+        <v>36</v>
+      </c>
+      <c r="H26" s="19">
+        <v>4.3</v>
+      </c>
+      <c r="I26" s="19">
+        <v>2.15</v>
+      </c>
+      <c r="J26" s="19">
+        <v>1.8805000000000001</v>
+      </c>
+      <c r="K26" t="s">
+        <v>36</v>
+      </c>
+      <c r="L26" s="19">
+        <v>4.3</v>
+      </c>
+      <c r="M26" s="19">
+        <v>2.15</v>
+      </c>
+      <c r="N26" s="19">
+        <v>1.8794999999999999</v>
+      </c>
+      <c r="O26" s="19"/>
+      <c r="P26" s="19">
+        <f>(H30-L30)/(J26-N26)</f>
+        <v>41.463000000016926</v>
+      </c>
+      <c r="Q26" s="19"/>
+    </row>
+    <row r="27" spans="2:29">
+      <c r="G27" t="s">
+        <v>37</v>
+      </c>
+      <c r="H27" s="19">
+        <v>0</v>
+      </c>
+      <c r="I27" s="19">
+        <v>3.7229999999999999</v>
+      </c>
+      <c r="J27" s="19">
+        <v>-1.1499999999999999</v>
+      </c>
+      <c r="K27" t="s">
+        <v>37</v>
+      </c>
+      <c r="L27" s="19">
+        <v>0</v>
+      </c>
+      <c r="M27" s="19">
+        <v>3.7229999999999999</v>
+      </c>
+      <c r="N27" s="19">
+        <v>-1.1499999999999999</v>
+      </c>
+      <c r="O27" s="19"/>
+      <c r="P27" s="19"/>
+      <c r="Q27" s="19"/>
+    </row>
+    <row r="28" spans="2:29">
+      <c r="G28" t="s">
+        <v>38</v>
+      </c>
+      <c r="H28" s="19">
+        <v>0</v>
+      </c>
+      <c r="I28" s="19">
+        <v>0</v>
+      </c>
+      <c r="J28" s="19">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="K28" t="s">
+        <v>38</v>
+      </c>
+      <c r="L28" s="19">
+        <v>0</v>
+      </c>
+      <c r="M28" s="19">
+        <v>0</v>
+      </c>
+      <c r="N28" s="19">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="O28" s="19"/>
+      <c r="P28" s="19"/>
+      <c r="Q28" s="19"/>
+    </row>
+    <row r="29" spans="2:29">
+      <c r="H29" s="19"/>
+      <c r="I29" s="43"/>
+      <c r="J29" s="43"/>
+      <c r="L29" s="43"/>
+      <c r="M29" s="43"/>
+      <c r="N29" s="19"/>
+      <c r="O29" s="19"/>
+      <c r="P29" s="19"/>
+      <c r="Q29" s="19"/>
+    </row>
+    <row r="30" spans="2:29">
+      <c r="G30" s="19"/>
+      <c r="H30" s="19">
+        <v>-276.54134399999998</v>
+      </c>
+      <c r="I30" s="19"/>
+      <c r="J30" s="19"/>
+      <c r="K30" s="19"/>
+      <c r="L30" s="19">
+        <v>-276.582807</v>
+      </c>
+      <c r="M30" s="19"/>
+      <c r="N30" s="19"/>
+      <c r="O30" s="19"/>
+      <c r="P30" s="19"/>
+    </row>
+    <row r="31" spans="2:29">
+      <c r="G31" s="19"/>
+      <c r="H31" s="51" t="s">
+        <v>194</v>
+      </c>
+      <c r="I31" s="51"/>
+      <c r="J31" s="51"/>
+      <c r="K31" s="51"/>
+      <c r="L31" s="51" t="s">
+        <v>195</v>
+      </c>
+      <c r="M31" s="51"/>
+      <c r="N31" s="51"/>
+      <c r="O31" s="51"/>
+      <c r="P31" s="19"/>
+    </row>
+    <row r="32" spans="2:29">
+      <c r="H32" t="s">
+        <v>112</v>
+      </c>
+      <c r="I32" t="s">
+        <v>113</v>
+      </c>
+      <c r="J32" t="s">
+        <v>114</v>
+      </c>
+      <c r="L32" t="s">
+        <v>112</v>
+      </c>
+      <c r="M32" t="s">
+        <v>113</v>
+      </c>
+      <c r="N32" t="s">
+        <v>114</v>
+      </c>
+      <c r="O32" s="19"/>
+      <c r="P32" s="19"/>
+    </row>
+    <row r="33" spans="3:29">
+      <c r="G33" t="s">
+        <v>36</v>
+      </c>
+      <c r="H33" s="19">
+        <v>4.3</v>
+      </c>
+      <c r="I33" s="19">
+        <v>2.15</v>
+      </c>
+      <c r="J33" s="19">
+        <v>1.88</v>
+      </c>
+      <c r="K33" t="s">
+        <v>36</v>
+      </c>
+      <c r="L33" s="19">
+        <v>4.3</v>
+      </c>
+      <c r="M33" s="19">
+        <v>2.15</v>
+      </c>
+      <c r="N33" s="19">
+        <v>1.88</v>
+      </c>
+      <c r="O33" s="19"/>
+      <c r="P33" s="19">
+        <f>(H37-L37)/(J34-N34)</f>
+        <v>0.65499999999466985</v>
+      </c>
+    </row>
+    <row r="34" spans="3:29">
+      <c r="G34" t="s">
+        <v>37</v>
+      </c>
+      <c r="H34" s="19">
+        <v>0</v>
+      </c>
+      <c r="I34" s="19">
+        <v>3.7229999999999999</v>
+      </c>
+      <c r="J34" s="19">
+        <v>-1.1495</v>
+      </c>
+      <c r="K34" t="s">
+        <v>37</v>
+      </c>
+      <c r="L34" s="19">
+        <v>0</v>
+      </c>
+      <c r="M34" s="19">
+        <v>3.7229999999999999</v>
+      </c>
+      <c r="N34" s="19">
+        <v>-1.1505000000000001</v>
+      </c>
+      <c r="O34" s="19"/>
+      <c r="P34" s="19"/>
+    </row>
+    <row r="35" spans="3:29">
+      <c r="G35" t="s">
+        <v>38</v>
+      </c>
+      <c r="H35" s="19">
+        <v>0</v>
+      </c>
+      <c r="I35" s="19">
+        <v>0</v>
+      </c>
+      <c r="J35" s="19">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="K35" t="s">
+        <v>38</v>
+      </c>
+      <c r="L35" s="19">
+        <v>0</v>
+      </c>
+      <c r="M35" s="19">
+        <v>0</v>
+      </c>
+      <c r="N35" s="19">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="O35" s="19"/>
+      <c r="P35" s="19"/>
+    </row>
+    <row r="36" spans="3:29">
+      <c r="H36" s="19"/>
+      <c r="I36" s="43"/>
+      <c r="J36" s="43"/>
+      <c r="L36" s="43"/>
+      <c r="M36" s="43"/>
+      <c r="N36" s="19"/>
+      <c r="O36" s="19"/>
+      <c r="P36" s="19"/>
+    </row>
+    <row r="37" spans="3:29">
+      <c r="G37" s="5"/>
+      <c r="H37" s="19">
+        <v>-276.56175100000002</v>
+      </c>
+      <c r="I37" s="19"/>
+      <c r="J37" s="19"/>
+      <c r="K37" s="19"/>
+      <c r="L37" s="19">
+        <v>-276.56240600000001</v>
+      </c>
+      <c r="M37" s="19"/>
+      <c r="N37" s="19"/>
+      <c r="O37" s="19"/>
+      <c r="P37" s="19"/>
+      <c r="Q37" s="19"/>
+      <c r="U37" s="19"/>
+      <c r="V37" s="19"/>
+      <c r="W37" s="19"/>
+      <c r="X37" s="19"/>
+      <c r="Y37" s="19"/>
+    </row>
+    <row r="38" spans="3:29">
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="51" t="s">
+        <v>196</v>
+      </c>
+      <c r="I38" s="51"/>
+      <c r="J38" s="51"/>
+      <c r="K38" s="51"/>
+      <c r="L38" s="51" t="s">
+        <v>197</v>
+      </c>
+      <c r="M38" s="51"/>
+      <c r="N38" s="51"/>
+      <c r="O38" s="51"/>
+      <c r="P38" s="19"/>
+      <c r="Q38" s="19"/>
+      <c r="U38" s="19"/>
+      <c r="V38" s="19"/>
+      <c r="W38" s="19"/>
+      <c r="X38" s="19"/>
+      <c r="Y38" s="19"/>
+    </row>
+    <row r="39" spans="3:29">
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="G39" s="19"/>
+      <c r="H39" t="s">
+        <v>112</v>
+      </c>
+      <c r="I39" t="s">
+        <v>113</v>
+      </c>
+      <c r="J39" t="s">
+        <v>114</v>
+      </c>
+      <c r="L39" t="s">
+        <v>112</v>
+      </c>
+      <c r="M39" t="s">
+        <v>113</v>
+      </c>
+      <c r="N39" t="s">
+        <v>114</v>
+      </c>
+      <c r="O39" s="19"/>
+      <c r="P39" s="19"/>
+      <c r="Q39" s="19"/>
+      <c r="U39" s="19"/>
+      <c r="V39" s="19"/>
+      <c r="W39" s="19"/>
+      <c r="X39" s="19"/>
+      <c r="Y39" s="19"/>
+    </row>
+    <row r="40" spans="3:29">
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="G40" t="s">
+        <v>36</v>
+      </c>
+      <c r="H40" s="19">
+        <v>4.3</v>
+      </c>
+      <c r="I40" s="19">
+        <v>2.15</v>
+      </c>
+      <c r="J40" s="19">
+        <v>1.88</v>
+      </c>
+      <c r="K40" t="s">
+        <v>36</v>
+      </c>
+      <c r="L40" s="19">
+        <v>4.3</v>
+      </c>
+      <c r="M40" s="19">
+        <v>2.15</v>
+      </c>
+      <c r="N40" s="19">
+        <v>1.88</v>
+      </c>
+      <c r="O40" s="19"/>
+      <c r="P40" s="19">
+        <f>(H44-L44)/(J42-N42)</f>
+        <v>79.861000000002761</v>
+      </c>
+      <c r="Q40" s="19"/>
+      <c r="U40" s="19"/>
+      <c r="V40" s="19"/>
+      <c r="W40" s="19"/>
+      <c r="X40" s="19"/>
+      <c r="Y40" s="19"/>
+    </row>
+    <row r="41" spans="3:29">
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="G41" t="s">
+        <v>37</v>
+      </c>
+      <c r="H41" s="19">
+        <v>0</v>
+      </c>
+      <c r="I41" s="19">
+        <v>3.7229999999999999</v>
+      </c>
+      <c r="J41" s="19">
+        <v>-1.1499999999999999</v>
+      </c>
+      <c r="K41" t="s">
+        <v>37</v>
+      </c>
+      <c r="L41" s="19">
+        <v>0</v>
+      </c>
+      <c r="M41" s="19">
+        <v>3.7229999999999999</v>
+      </c>
+      <c r="N41" s="19">
+        <v>-1.1499999999999999</v>
+      </c>
+      <c r="O41" s="19"/>
+      <c r="P41" s="19"/>
+      <c r="Q41" s="19"/>
+      <c r="U41" s="19"/>
+      <c r="V41" s="19"/>
+      <c r="W41" s="19"/>
+      <c r="X41" s="19"/>
+      <c r="Y41" s="19"/>
+      <c r="AA41" s="16"/>
+      <c r="AB41" s="16"/>
+      <c r="AC41" s="16"/>
+    </row>
+    <row r="42" spans="3:29">
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="44"/>
+      <c r="G42" t="s">
+        <v>38</v>
+      </c>
+      <c r="H42" s="19">
+        <v>0</v>
+      </c>
+      <c r="I42" s="19">
+        <v>0</v>
+      </c>
+      <c r="J42" s="19">
+        <v>2.3205</v>
+      </c>
+      <c r="K42" t="s">
+        <v>38</v>
+      </c>
+      <c r="L42" s="19">
+        <v>0</v>
+      </c>
+      <c r="M42" s="19">
+        <v>0</v>
+      </c>
+      <c r="N42" s="19">
+        <v>2.3195000000000001</v>
+      </c>
+      <c r="O42" s="19"/>
+      <c r="P42" s="19"/>
+      <c r="Q42" s="19"/>
+      <c r="U42" s="19"/>
+      <c r="V42" s="19"/>
+      <c r="W42" s="19"/>
+      <c r="X42" s="19"/>
+      <c r="Y42" s="19"/>
+      <c r="AA42" s="16"/>
+      <c r="AB42" s="16"/>
+      <c r="AC42" s="16"/>
+    </row>
+    <row r="43" spans="3:29">
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="44"/>
+      <c r="H43" s="19"/>
+      <c r="I43" s="43"/>
+      <c r="J43" s="43"/>
+      <c r="L43" s="43"/>
+      <c r="M43" s="43"/>
+      <c r="N43" s="19"/>
+      <c r="O43" s="19"/>
+      <c r="P43" s="19"/>
+      <c r="Q43" s="19"/>
+      <c r="U43" s="19"/>
+      <c r="V43" s="19"/>
+      <c r="W43" s="19"/>
+      <c r="X43" s="19"/>
+      <c r="Y43" s="19"/>
+      <c r="AA43" s="16"/>
+      <c r="AB43" s="16"/>
+      <c r="AC43" s="16"/>
+    </row>
+    <row r="44" spans="3:29">
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
+      <c r="G44" s="19"/>
+      <c r="H44" s="19">
+        <v>-276.52215699999999</v>
+      </c>
+      <c r="I44" s="19"/>
+      <c r="J44" s="19"/>
+      <c r="K44" s="19"/>
+      <c r="L44" s="19">
+        <v>-276.60201799999999</v>
+      </c>
+      <c r="M44" s="19"/>
+      <c r="N44" s="19"/>
+      <c r="O44" s="19"/>
+      <c r="P44" s="19"/>
+      <c r="Q44" s="19"/>
+      <c r="U44" s="19"/>
+      <c r="V44" s="19"/>
+      <c r="W44" s="19"/>
+      <c r="X44" s="19"/>
+      <c r="Y44" s="19"/>
+      <c r="AA44" s="16"/>
+      <c r="AB44" s="16"/>
+      <c r="AC44" s="16"/>
+    </row>
+    <row r="45" spans="3:29">
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="Q45" s="19"/>
+      <c r="U45" s="19"/>
+      <c r="V45" s="19"/>
+      <c r="W45" s="19"/>
+      <c r="X45" s="19"/>
+      <c r="Y45" s="19"/>
+      <c r="AA45" s="16"/>
+      <c r="AB45" s="16"/>
+      <c r="AC45" s="16"/>
+    </row>
+    <row r="46" spans="3:29">
+      <c r="C46" s="2"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="H46" s="19"/>
+      <c r="I46" s="19"/>
+      <c r="J46" s="6"/>
+      <c r="K46" s="6"/>
+      <c r="L46" s="6"/>
+      <c r="M46" s="6"/>
+      <c r="N46" s="19"/>
+      <c r="O46" s="19"/>
+      <c r="P46" s="19"/>
+      <c r="Q46" s="19"/>
+      <c r="U46" s="19"/>
+      <c r="V46" s="19"/>
+      <c r="W46" s="19"/>
+      <c r="X46" s="19"/>
+      <c r="Y46" s="19"/>
+      <c r="AA46" s="16"/>
+      <c r="AB46" s="16"/>
+      <c r="AC46" s="16"/>
+    </row>
+    <row r="47" spans="3:29">
+      <c r="C47" s="2"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="H47" s="19"/>
+      <c r="I47" s="19"/>
+      <c r="J47" s="6"/>
+      <c r="K47" s="6"/>
+      <c r="L47" s="6"/>
+      <c r="M47" s="6"/>
+      <c r="N47" s="19"/>
+      <c r="O47" s="19"/>
+      <c r="P47" s="19"/>
+      <c r="Q47" s="19"/>
+      <c r="U47" s="19"/>
+      <c r="V47" s="19"/>
+      <c r="W47" s="19"/>
+      <c r="X47" s="19"/>
+      <c r="Y47" s="19"/>
+      <c r="AA47" s="16"/>
+      <c r="AB47" s="16"/>
+      <c r="AC47" s="16"/>
+    </row>
+    <row r="48" spans="3:29">
+      <c r="C48" s="2"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="H48" s="19"/>
+      <c r="I48" s="19"/>
+      <c r="J48" s="6"/>
+      <c r="K48" s="6"/>
+      <c r="L48" s="6"/>
+      <c r="M48" s="6"/>
+      <c r="N48" s="19"/>
+      <c r="O48" s="19"/>
+      <c r="P48" s="19"/>
+      <c r="Q48" s="19"/>
+      <c r="U48" s="19"/>
+      <c r="V48" s="19"/>
+      <c r="W48" s="19"/>
+      <c r="X48" s="19"/>
+      <c r="Y48" s="19"/>
+      <c r="AA48" s="16"/>
+      <c r="AB48" s="16"/>
+      <c r="AC48" s="16"/>
+    </row>
+    <row r="49" spans="3:29">
+      <c r="C49" s="2"/>
+      <c r="H49" s="19"/>
+      <c r="I49" s="19"/>
+      <c r="J49" s="6"/>
+      <c r="K49" s="6"/>
+      <c r="L49" s="6"/>
+      <c r="M49" s="6"/>
+      <c r="N49" s="19"/>
+      <c r="O49" s="19"/>
+      <c r="P49" s="19"/>
+      <c r="Q49" s="19"/>
+      <c r="U49" s="19"/>
+      <c r="V49" s="19"/>
+      <c r="W49" s="19"/>
+      <c r="X49" s="19"/>
+      <c r="Y49" s="19"/>
+      <c r="AA49" s="16"/>
+      <c r="AB49" s="16"/>
+      <c r="AC49" s="16"/>
+    </row>
+    <row r="50" spans="3:29">
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="H50" s="19"/>
+      <c r="I50" s="19"/>
+      <c r="J50" s="6"/>
+      <c r="K50" s="6"/>
+      <c r="L50" s="6"/>
+      <c r="M50" s="6"/>
+      <c r="N50" s="19"/>
+      <c r="O50" s="19"/>
+      <c r="P50" s="19"/>
+      <c r="Q50" s="19"/>
+      <c r="U50" s="19"/>
+      <c r="V50" s="19"/>
+      <c r="W50" s="19"/>
+      <c r="X50" s="19"/>
+      <c r="Y50" s="19"/>
+      <c r="AA50" s="16"/>
+      <c r="AB50" s="16"/>
+      <c r="AC50" s="16"/>
+    </row>
+    <row r="51" spans="3:29">
+      <c r="C51" s="2"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+      <c r="H51" s="19"/>
+      <c r="I51" s="19"/>
+      <c r="J51" s="6"/>
+      <c r="K51" s="6"/>
+      <c r="L51" s="6"/>
+      <c r="M51" s="6"/>
+      <c r="N51" s="19"/>
+      <c r="O51" s="19"/>
+      <c r="P51" s="19"/>
+      <c r="Q51" s="19"/>
+      <c r="U51" s="19"/>
+      <c r="V51" s="19"/>
+      <c r="W51" s="19"/>
+      <c r="X51" s="19"/>
+      <c r="Y51" s="19"/>
+      <c r="AA51" s="16"/>
+      <c r="AB51" s="16"/>
+      <c r="AC51" s="16"/>
+    </row>
+    <row r="52" spans="3:29">
+      <c r="C52" s="2"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+      <c r="H52" s="19"/>
+      <c r="I52" s="19"/>
+      <c r="J52" s="6"/>
+      <c r="K52" s="6"/>
+      <c r="L52" s="6"/>
+      <c r="M52" s="6"/>
+      <c r="N52" s="19"/>
+      <c r="O52" s="19"/>
+      <c r="P52" s="19"/>
+      <c r="Q52" s="19"/>
+      <c r="U52" s="19"/>
+      <c r="V52" s="19"/>
+      <c r="W52" s="19"/>
+      <c r="X52" s="19"/>
+      <c r="Y52" s="19"/>
+      <c r="AA52" s="16"/>
+      <c r="AB52" s="16"/>
+      <c r="AC52" s="16"/>
+    </row>
+    <row r="53" spans="3:29">
+      <c r="C53" s="2"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4"/>
+      <c r="J53" s="6"/>
+      <c r="K53" s="6"/>
+      <c r="L53" s="6"/>
+      <c r="M53" s="6"/>
+      <c r="AA53" s="16"/>
+      <c r="AB53" s="16"/>
+      <c r="AC53" s="16"/>
+    </row>
+    <row r="54" spans="3:29">
+      <c r="D54" s="7"/>
+      <c r="E54" s="7"/>
+      <c r="J54" s="6"/>
+      <c r="K54" s="6"/>
+      <c r="L54" s="6"/>
+      <c r="M54" s="6"/>
+      <c r="AA54" s="16"/>
+      <c r="AB54" s="16"/>
+      <c r="AC54" s="16"/>
+    </row>
+    <row r="55" spans="3:29">
+      <c r="D55" s="7"/>
+      <c r="E55" s="7"/>
+      <c r="J55" s="6"/>
+      <c r="K55" s="6"/>
+      <c r="L55" s="6"/>
+      <c r="M55" s="6"/>
+      <c r="AA55" s="16"/>
+      <c r="AB55" s="16"/>
+      <c r="AC55" s="16"/>
+    </row>
+    <row r="56" spans="3:29">
+      <c r="D56" s="7"/>
+      <c r="E56" s="7"/>
+      <c r="J56" s="6"/>
+      <c r="K56" s="6"/>
+      <c r="L56" s="6"/>
+      <c r="M56" s="6"/>
+      <c r="AA56" s="16"/>
+      <c r="AB56" s="16"/>
+      <c r="AC56" s="16"/>
+    </row>
+    <row r="57" spans="3:29">
+      <c r="D57" s="7"/>
+      <c r="E57" s="7"/>
+    </row>
+    <row r="58" spans="3:29">
+      <c r="D58" s="7"/>
+      <c r="E58" s="7"/>
+    </row>
+    <row r="59" spans="3:29">
+      <c r="D59" s="7"/>
+      <c r="E59" s="7"/>
+    </row>
+    <row r="60" spans="3:29">
+      <c r="D60" s="7"/>
+      <c r="E60" s="7"/>
+    </row>
+    <row r="61" spans="3:29">
+      <c r="D61" s="7"/>
+      <c r="E61" s="7"/>
+    </row>
+    <row r="62" spans="3:29">
+      <c r="D62" s="7"/>
+      <c r="E62" s="7"/>
+    </row>
+    <row r="63" spans="3:29">
+      <c r="D63" s="7"/>
+      <c r="E63" s="7"/>
+    </row>
+    <row r="64" spans="3:29">
+      <c r="D64" s="7"/>
+      <c r="E64" s="7"/>
+    </row>
+    <row r="65" spans="4:6">
+      <c r="D65" s="7"/>
+      <c r="E65" s="7"/>
+      <c r="F65" s="44"/>
+    </row>
+    <row r="66" spans="4:6">
+      <c r="D66" s="7"/>
+      <c r="E66" s="7"/>
+      <c r="F66" s="44"/>
+    </row>
+    <row r="67" spans="4:6">
+      <c r="D67" s="7"/>
+      <c r="E67" s="7"/>
+      <c r="F67" s="44"/>
+    </row>
+    <row r="68" spans="4:6">
+      <c r="D68" s="7"/>
+      <c r="E68" s="7"/>
+      <c r="F68" s="44"/>
+    </row>
+    <row r="69" spans="4:6">
+      <c r="D69" s="7"/>
+      <c r="E69" s="7"/>
+      <c r="F69" s="44"/>
+    </row>
+    <row r="70" spans="4:6">
+      <c r="D70" s="7"/>
+      <c r="E70" s="7"/>
+      <c r="F70" s="44"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A62F5094-9E00-B644-8274-86789F7A2542}">
+  <dimension ref="C3:AC73"/>
+  <sheetViews>
+    <sheetView topLeftCell="C35" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="L58" sqref="L57:L58"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="4" max="5" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="11" bestFit="1" customWidth="1"/>
+    <col min="17" max="19" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:29">
+      <c r="C3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="5" spans="3:29">
+      <c r="C5" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="6" spans="3:29">
+      <c r="C6" t="s">
+        <v>144</v>
+      </c>
+      <c r="D6">
+        <v>5.89</v>
+      </c>
+      <c r="E6">
+        <v>4.3</v>
+      </c>
+      <c r="F6">
+        <v>3.2</v>
+      </c>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="19"/>
+      <c r="O6" s="19"/>
+      <c r="P6" s="19"/>
+      <c r="Q6" s="19"/>
+      <c r="R6" s="19"/>
+      <c r="S6" s="19"/>
+      <c r="T6" s="19"/>
+      <c r="U6" s="19"/>
+      <c r="V6" s="19"/>
+      <c r="W6" s="19"/>
+      <c r="X6" s="19"/>
+      <c r="Y6" s="19"/>
+    </row>
+    <row r="7" spans="3:29">
+      <c r="C7" t="s">
+        <v>143</v>
+      </c>
+      <c r="D7">
+        <v>88</v>
+      </c>
+      <c r="E7">
+        <v>54</v>
+      </c>
+      <c r="F7">
+        <v>60</v>
+      </c>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="19"/>
+      <c r="O7" s="19"/>
+      <c r="P7" s="19"/>
+      <c r="Q7" s="19"/>
+      <c r="R7" s="19"/>
+      <c r="S7" s="19"/>
+      <c r="T7" s="19"/>
+      <c r="U7" s="19"/>
+      <c r="V7" s="19"/>
+      <c r="W7" s="19"/>
+      <c r="X7" s="19"/>
+      <c r="Y7" s="19"/>
+    </row>
+    <row r="8" spans="3:29">
+      <c r="H8" s="43" t="s">
+        <v>149</v>
+      </c>
+      <c r="I8" s="43"/>
+      <c r="J8" s="43" t="s">
+        <v>150</v>
+      </c>
+      <c r="K8" s="43" t="s">
+        <v>153</v>
+      </c>
+      <c r="L8" s="43" t="s">
+        <v>152</v>
+      </c>
+      <c r="M8" s="19"/>
+      <c r="N8" s="19"/>
+      <c r="O8" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="P8" s="19"/>
+      <c r="Q8" s="19"/>
+      <c r="R8" s="19"/>
+      <c r="S8" s="19"/>
+      <c r="T8" s="19"/>
+      <c r="U8" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="V8" s="19"/>
+      <c r="W8" s="19"/>
+      <c r="X8" s="19"/>
+      <c r="Y8" s="19"/>
+      <c r="AA8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="3:29">
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" t="s">
+        <v>147</v>
+      </c>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="19"/>
+      <c r="N9" s="19"/>
+      <c r="O9" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="P9" s="19"/>
+      <c r="Q9" s="19"/>
+      <c r="R9" s="19"/>
+      <c r="S9" s="19"/>
+      <c r="T9" s="19"/>
+      <c r="U9" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="V9" s="19"/>
+      <c r="W9" s="19"/>
+      <c r="X9" s="19"/>
+      <c r="Y9" s="19"/>
+    </row>
+    <row r="10" spans="3:29">
+      <c r="C10" t="s">
+        <v>138</v>
+      </c>
+      <c r="D10">
+        <v>-67.988583379999994</v>
+      </c>
+      <c r="E10">
+        <v>-105.846295519519</v>
+      </c>
+      <c r="H10" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="I10" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="J10" s="19">
+        <v>0.05</v>
+      </c>
+      <c r="K10" s="19">
+        <v>0</v>
+      </c>
+      <c r="L10" s="19">
+        <v>0</v>
+      </c>
+      <c r="M10" s="19">
+        <v>2</v>
+      </c>
+      <c r="N10" s="19"/>
+      <c r="O10" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="P10" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q10" s="19">
+        <v>-2.1221169999999998</v>
+      </c>
+      <c r="R10" s="19">
+        <v>29.318014999999999</v>
+      </c>
+      <c r="S10" s="19">
+        <v>-33.788389000000002</v>
+      </c>
+      <c r="T10" s="19"/>
+      <c r="U10" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="V10" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="W10" s="19">
+        <v>-2.1221000000000001</v>
+      </c>
+      <c r="X10" s="19">
+        <v>29.317782000000001</v>
+      </c>
+      <c r="Y10" s="19">
+        <v>-33.788119999999999</v>
+      </c>
+      <c r="AA10" s="16">
+        <f t="shared" ref="AA10:AC21" si="0">(Q10-W10)/Q10</f>
+        <v>8.0108683921346896E-6</v>
+      </c>
+      <c r="AB10" s="16">
+        <f t="shared" si="0"/>
+        <v>7.9473320413380422E-6</v>
+      </c>
+      <c r="AC10" s="16">
+        <f t="shared" si="0"/>
+        <v>7.9613147582431737E-6</v>
+      </c>
+    </row>
+    <row r="11" spans="3:29">
+      <c r="C11" t="s">
+        <v>139</v>
+      </c>
+      <c r="D11">
+        <v>-205.47066222000001</v>
+      </c>
+      <c r="E11">
+        <v>-167.61077580654799</v>
+      </c>
+      <c r="H11" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="I11" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="J11" s="19">
+        <v>0.49</v>
+      </c>
+      <c r="K11" s="19">
+        <v>0.52</v>
+      </c>
+      <c r="L11" s="19">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="M11" s="19">
+        <v>2</v>
+      </c>
+      <c r="N11" s="19"/>
+      <c r="O11" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="P11" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q11" s="19">
+        <v>24.505184</v>
+      </c>
+      <c r="R11" s="19">
+        <v>24.302281000000001</v>
+      </c>
+      <c r="S11" s="19">
+        <v>-2.3867440000000002</v>
+      </c>
+      <c r="T11" s="19"/>
+      <c r="U11" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="V11" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="W11" s="19">
+        <v>24.504988999999998</v>
+      </c>
+      <c r="X11" s="19">
+        <v>24.302088000000001</v>
+      </c>
+      <c r="Y11" s="19">
+        <v>-2.3867250000000002</v>
+      </c>
+      <c r="AA11" s="16">
+        <f t="shared" si="0"/>
+        <v>7.9574999315042704E-6</v>
+      </c>
+      <c r="AB11" s="16">
+        <f t="shared" si="0"/>
+        <v>7.9416413627775765E-6</v>
+      </c>
+      <c r="AC11" s="16">
+        <f t="shared" si="0"/>
+        <v>7.9606359123522441E-6</v>
+      </c>
+    </row>
+    <row r="12" spans="3:29">
+      <c r="C12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D12">
+        <v>-273.45924560999998</v>
+      </c>
+      <c r="E12">
+        <v>-273.45707132606799</v>
+      </c>
+      <c r="F12" s="18">
+        <f>(D12-E12)/D12</f>
+        <v>7.951034630928544E-6</v>
+      </c>
+      <c r="H12" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="I12" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="J12" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="K12" s="19">
+        <v>0</v>
+      </c>
+      <c r="L12" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="M12" s="19">
+        <v>2</v>
+      </c>
+      <c r="N12" s="19"/>
+      <c r="O12" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="P12" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q12" s="19">
+        <v>-39.756037999999997</v>
+      </c>
+      <c r="R12" s="19">
+        <v>-28.327783</v>
+      </c>
+      <c r="S12" s="19">
+        <v>-21.779077999999998</v>
+      </c>
+      <c r="T12" s="19"/>
+      <c r="U12" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="V12" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="W12" s="19">
+        <v>-39.755721999999999</v>
+      </c>
+      <c r="X12" s="19">
+        <v>-28.327558</v>
+      </c>
+      <c r="Y12" s="19">
+        <v>-21.778905000000002</v>
+      </c>
+      <c r="AA12" s="16">
+        <f t="shared" si="0"/>
+        <v>7.9484781657061651E-6</v>
+      </c>
+      <c r="AB12" s="16">
+        <f t="shared" si="0"/>
+        <v>7.9427324051572905E-6</v>
+      </c>
+      <c r="AC12" s="16">
+        <f t="shared" si="0"/>
+        <v>7.9434032972675926E-6</v>
+      </c>
+    </row>
+    <row r="13" spans="3:29">
+      <c r="H13" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="I13" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="J13" s="19">
+        <v>0</v>
+      </c>
+      <c r="K13" s="19">
+        <v>0.52</v>
+      </c>
+      <c r="L13" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="M13" s="19">
+        <v>2</v>
+      </c>
+      <c r="N13" s="19"/>
+      <c r="O13" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="P13" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q13" s="19">
+        <v>-227.10598200000001</v>
+      </c>
+      <c r="R13" s="19">
+        <v>-112.411174</v>
+      </c>
+      <c r="S13" s="19">
+        <v>474.70942100000002</v>
+      </c>
+      <c r="T13" s="19"/>
+      <c r="U13" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="V13" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="W13" s="19">
+        <v>-227.104176</v>
+      </c>
+      <c r="X13" s="19">
+        <v>-112.410281</v>
+      </c>
+      <c r="Y13" s="19">
+        <v>474.705646</v>
+      </c>
+      <c r="AA13" s="16">
+        <f t="shared" si="0"/>
+        <v>7.9522343890359675E-6</v>
+      </c>
+      <c r="AB13" s="16">
+        <f t="shared" si="0"/>
+        <v>7.9440501173390259E-6</v>
+      </c>
+      <c r="AC13" s="16">
+        <f t="shared" si="0"/>
+        <v>7.9522331620604931E-6</v>
+      </c>
+    </row>
+    <row r="14" spans="3:29">
+      <c r="C14" s="2"/>
+      <c r="D14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H14" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="I14" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="J14" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="K14" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="L14" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="M14" s="19">
+        <v>1</v>
+      </c>
+      <c r="N14" s="19"/>
+      <c r="O14" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="P14" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q14" s="19">
+        <v>2.8440210000000001</v>
+      </c>
+      <c r="R14" s="19">
+        <v>15.025373</v>
+      </c>
+      <c r="S14" s="19">
+        <v>-6.0432689999999996</v>
+      </c>
+      <c r="T14" s="19"/>
+      <c r="U14" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="V14" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="W14" s="19">
+        <v>2.8439990000000002</v>
+      </c>
+      <c r="X14" s="19">
+        <v>15.025254</v>
+      </c>
+      <c r="Y14" s="19">
+        <v>-6.043221</v>
+      </c>
+      <c r="AA14" s="16">
+        <f t="shared" si="0"/>
+        <v>7.735526566071941E-6</v>
+      </c>
+      <c r="AB14" s="16">
+        <f t="shared" si="0"/>
+        <v>7.9199364967351014E-6</v>
+      </c>
+      <c r="AC14" s="16">
+        <f t="shared" si="0"/>
+        <v>7.942721066959608E-6</v>
+      </c>
+    </row>
+    <row r="15" spans="3:29">
+      <c r="C15" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="H15" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="I15" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="J15" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="K15" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="L15" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="M15" s="19">
+        <v>-3</v>
+      </c>
+      <c r="N15" s="19"/>
+      <c r="O15" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="P15" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q15" s="19">
+        <v>-8.8358969999999992</v>
+      </c>
+      <c r="R15" s="19">
+        <v>-17.968553</v>
+      </c>
+      <c r="S15" s="19">
+        <v>-7.1856369999999998</v>
+      </c>
+      <c r="T15" s="19"/>
+      <c r="U15" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="V15" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="W15" s="19">
+        <v>-8.8358270000000001</v>
+      </c>
+      <c r="X15" s="19">
+        <v>-17.968409999999999</v>
+      </c>
+      <c r="Y15" s="19">
+        <v>-7.1855789999999997</v>
+      </c>
+      <c r="AA15" s="16">
+        <f t="shared" si="0"/>
+        <v>7.9222290616477672E-6</v>
+      </c>
+      <c r="AB15" s="16">
+        <f t="shared" si="0"/>
+        <v>7.9583481208162117E-6</v>
+      </c>
+      <c r="AC15" s="16">
+        <f t="shared" si="0"/>
+        <v>8.0716573910028463E-6</v>
+      </c>
+    </row>
+    <row r="16" spans="3:29">
+      <c r="C16" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="H16" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="I16" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="J16" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="K16" s="19">
+        <v>0</v>
+      </c>
+      <c r="L16" s="19">
+        <v>-0.04</v>
+      </c>
+      <c r="M16" s="19">
+        <v>1</v>
+      </c>
+      <c r="N16" s="19"/>
+      <c r="O16" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="P16" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q16" s="19">
+        <v>-304.43766699999998</v>
+      </c>
+      <c r="R16" s="19">
+        <v>-198.73353599999999</v>
+      </c>
+      <c r="S16" s="19">
+        <v>173.36172999999999</v>
+      </c>
+      <c r="T16" s="19"/>
+      <c r="U16" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="V16" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="W16" s="19">
+        <v>-304.435247</v>
+      </c>
+      <c r="X16" s="19">
+        <v>-198.731956</v>
+      </c>
+      <c r="Y16" s="19">
+        <v>173.36035200000001</v>
+      </c>
+      <c r="AA16" s="16">
+        <f t="shared" si="0"/>
+        <v>7.949082069310213E-6</v>
+      </c>
+      <c r="AB16" s="16">
+        <f t="shared" si="0"/>
+        <v>7.9503441230468663E-6</v>
+      </c>
+      <c r="AC16" s="16">
+        <f t="shared" si="0"/>
+        <v>7.9486977892314129E-6</v>
+      </c>
+    </row>
+    <row r="17" spans="3:29">
+      <c r="C17" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="H17" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="I17" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="J17" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="K17" s="19">
+        <v>0</v>
+      </c>
+      <c r="L17" s="19">
+        <v>-0.03</v>
+      </c>
+      <c r="M17" s="19">
+        <v>-3</v>
+      </c>
+      <c r="N17" s="19"/>
+      <c r="O17" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="P17" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q17" s="19">
+        <v>0.49326399999999998</v>
+      </c>
+      <c r="R17" s="19">
+        <v>8.6332199999999997</v>
+      </c>
+      <c r="S17" s="19">
+        <v>-12.199964</v>
+      </c>
+      <c r="T17" s="19"/>
+      <c r="U17" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="V17" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="W17" s="19">
+        <v>0.49325999999999998</v>
+      </c>
+      <c r="X17" s="19">
+        <v>8.6331509999999998</v>
+      </c>
+      <c r="Y17" s="19">
+        <v>-12.199866999999999</v>
+      </c>
+      <c r="AA17" s="16">
+        <f t="shared" si="0"/>
+        <v>8.1092477861834645E-6</v>
+      </c>
+      <c r="AB17" s="16">
+        <f t="shared" si="0"/>
+        <v>7.9923829115758336E-6</v>
+      </c>
+      <c r="AC17" s="16">
+        <f t="shared" si="0"/>
+        <v>7.9508431336548037E-6</v>
+      </c>
+    </row>
+    <row r="18" spans="3:29">
+      <c r="C18" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="H18" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="I18" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="J18" s="19">
+        <v>0.1</v>
+      </c>
+      <c r="K18" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="L18" s="19">
+        <v>0.32</v>
+      </c>
+      <c r="M18" s="19">
+        <v>1</v>
+      </c>
+      <c r="N18" s="19"/>
+      <c r="O18" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="P18" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q18" s="19">
+        <v>-8.5320640000000001</v>
+      </c>
+      <c r="R18" s="19">
+        <v>-45.076118999999998</v>
+      </c>
+      <c r="S18" s="19">
+        <v>18.129808000000001</v>
+      </c>
+      <c r="T18" s="19"/>
+      <c r="U18" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="V18" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="W18" s="19">
+        <v>-8.5319959999999995</v>
+      </c>
+      <c r="X18" s="19">
+        <v>-45.075761</v>
+      </c>
+      <c r="Y18" s="19">
+        <v>18.129663999999998</v>
+      </c>
+      <c r="AA18" s="16">
+        <f t="shared" si="0"/>
+        <v>7.9699355279828093E-6</v>
+      </c>
+      <c r="AB18" s="16">
+        <f t="shared" si="0"/>
+        <v>7.94212119278783E-6</v>
+      </c>
+      <c r="AC18" s="16">
+        <f t="shared" si="0"/>
+        <v>7.9427206290526884E-6</v>
+      </c>
+    </row>
+    <row r="19" spans="3:29">
+      <c r="C19" s="2"/>
+      <c r="D19" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="H19" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="I19" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="J19" s="19">
+        <v>0.1</v>
+      </c>
+      <c r="K19" s="19">
+        <v>0.48</v>
+      </c>
+      <c r="L19" s="19">
+        <v>0.3</v>
+      </c>
+      <c r="M19" s="19">
+        <v>-3</v>
+      </c>
+      <c r="N19" s="19"/>
+      <c r="O19" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="P19" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q19" s="19">
+        <v>18.362038999999999</v>
+      </c>
+      <c r="R19" s="19">
+        <v>53.082394000000001</v>
+      </c>
+      <c r="S19" s="19">
+        <v>13.903905</v>
+      </c>
+      <c r="T19" s="19"/>
+      <c r="U19" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="V19" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="W19" s="19">
+        <v>18.361892999999998</v>
+      </c>
+      <c r="X19" s="19">
+        <v>53.081972</v>
+      </c>
+      <c r="Y19" s="19">
+        <v>13.903795000000001</v>
+      </c>
+      <c r="AA19" s="16">
+        <f t="shared" si="0"/>
+        <v>7.9511866847068377E-6</v>
+      </c>
+      <c r="AB19" s="16">
+        <f t="shared" si="0"/>
+        <v>7.9499051983293462E-6</v>
+      </c>
+      <c r="AC19" s="16">
+        <f t="shared" si="0"/>
+        <v>7.9114464605007266E-6</v>
+      </c>
+    </row>
+    <row r="20" spans="3:29">
+      <c r="C20" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="H20" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="I20" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="J20" s="19">
+        <v>0</v>
+      </c>
+      <c r="K20" s="19">
+        <v>0</v>
+      </c>
+      <c r="L20" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="M20" s="19">
+        <v>1</v>
+      </c>
+      <c r="N20" s="19"/>
+      <c r="O20" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="P20" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q20" s="19">
+        <v>546.06504800000005</v>
+      </c>
+      <c r="R20" s="19">
+        <v>298.055543</v>
+      </c>
+      <c r="S20" s="19">
+        <v>-633.32167500000003</v>
+      </c>
+      <c r="T20" s="19"/>
+      <c r="U20" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="V20" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="W20" s="19">
+        <v>546.06070599999998</v>
+      </c>
+      <c r="X20" s="19">
+        <v>298.05317300000002</v>
+      </c>
+      <c r="Y20" s="19">
+        <v>-633.31663900000001</v>
+      </c>
+      <c r="AA20" s="16">
+        <f t="shared" si="0"/>
+        <v>7.9514336542285465E-6</v>
+      </c>
+      <c r="AB20" s="16">
+        <f t="shared" si="0"/>
+        <v>7.9515380795480936E-6</v>
+      </c>
+      <c r="AC20" s="16">
+        <f t="shared" si="0"/>
+        <v>7.9517253219199357E-6</v>
+      </c>
+    </row>
+    <row r="21" spans="3:29">
+      <c r="C21" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="H21" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="I21" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="J21" s="19">
+        <v>0</v>
+      </c>
+      <c r="K21" s="19">
+        <v>0</v>
+      </c>
+      <c r="L21" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="M21" s="19">
+        <v>-3</v>
+      </c>
+      <c r="N21" s="19"/>
+      <c r="O21" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="P21" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q21" s="19">
+        <v>-1.4797910000000001</v>
+      </c>
+      <c r="R21" s="19">
+        <v>-25.899660000000001</v>
+      </c>
+      <c r="S21" s="19">
+        <v>36.599891999999997</v>
+      </c>
+      <c r="T21" s="19"/>
+      <c r="U21" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="V21" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="W21" s="19">
+        <v>-1.479779</v>
+      </c>
+      <c r="X21" s="19">
+        <v>-25.899453999999999</v>
+      </c>
+      <c r="Y21" s="19">
+        <v>36.599601</v>
+      </c>
+      <c r="AA21" s="16">
+        <f t="shared" si="0"/>
+        <v>8.1092532662538313E-6</v>
+      </c>
+      <c r="AB21" s="16">
+        <f t="shared" si="0"/>
+        <v>7.9537723662066954E-6</v>
+      </c>
+      <c r="AC21" s="16">
+        <f t="shared" si="0"/>
+        <v>7.9508431335577355E-6</v>
+      </c>
+    </row>
+    <row r="22" spans="3:29">
+      <c r="C22" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+    </row>
+    <row r="36" spans="3:29">
+      <c r="C36" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="37" spans="3:29">
+      <c r="C37" t="s">
+        <v>144</v>
+      </c>
+      <c r="D37" s="19">
+        <v>4.3250999999999999</v>
+      </c>
+      <c r="E37" s="19">
+        <v>7.0718860000000001</v>
+      </c>
+      <c r="F37" s="19">
+        <v>3.2063899999999999</v>
+      </c>
+      <c r="H37" s="19"/>
+      <c r="I37" s="19"/>
+      <c r="J37" s="19"/>
+      <c r="K37" s="19"/>
+      <c r="L37" s="19"/>
+      <c r="M37" s="19"/>
+      <c r="N37" s="19"/>
+      <c r="O37" s="19"/>
+      <c r="P37" s="19"/>
+      <c r="Q37" s="19"/>
+      <c r="R37" s="19"/>
+      <c r="S37" s="19"/>
+      <c r="T37" s="19"/>
+      <c r="U37" s="19"/>
+      <c r="V37" s="19"/>
+      <c r="W37" s="19"/>
+      <c r="X37" s="19"/>
+      <c r="Y37" s="19"/>
+    </row>
+    <row r="38" spans="3:29">
+      <c r="C38" t="s">
+        <v>143</v>
+      </c>
+      <c r="D38" s="19">
+        <v>86.915747999999994</v>
+      </c>
+      <c r="E38" s="19">
+        <v>53.990470999999999</v>
+      </c>
+      <c r="F38" s="19">
+        <v>54.026533999999998</v>
+      </c>
+      <c r="H38" s="19"/>
+      <c r="I38" s="19"/>
+      <c r="J38" s="19"/>
+      <c r="K38" s="19"/>
+      <c r="L38" s="19"/>
+      <c r="M38" s="19"/>
+      <c r="N38" s="19"/>
+      <c r="O38" s="19"/>
+      <c r="P38" s="19"/>
+      <c r="Q38" s="19"/>
+      <c r="R38" s="19"/>
+      <c r="S38" s="19"/>
+      <c r="T38" s="19"/>
+      <c r="U38" s="19"/>
+      <c r="V38" s="19"/>
+      <c r="W38" s="19"/>
+      <c r="X38" s="19"/>
+      <c r="Y38" s="19"/>
+    </row>
+    <row r="39" spans="3:29">
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="H39" s="43" t="s">
+        <v>149</v>
+      </c>
+      <c r="I39" s="43"/>
+      <c r="J39" s="43" t="s">
+        <v>150</v>
+      </c>
+      <c r="K39" s="43" t="s">
+        <v>153</v>
+      </c>
+      <c r="L39" s="43" t="s">
+        <v>152</v>
+      </c>
+      <c r="M39" s="19"/>
+      <c r="N39" s="19"/>
+      <c r="O39" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="P39" s="19"/>
+      <c r="Q39" s="19"/>
+      <c r="R39" s="19"/>
+      <c r="S39" s="19"/>
+      <c r="T39" s="19"/>
+      <c r="U39" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="V39" s="19"/>
+      <c r="W39" s="19"/>
+      <c r="X39" s="19"/>
+      <c r="Y39" s="19"/>
+      <c r="AA39" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="40" spans="3:29">
+      <c r="C40" t="s">
+        <v>16</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="H40" s="19"/>
+      <c r="I40" s="19"/>
+      <c r="J40" s="19"/>
+      <c r="K40" s="19"/>
+      <c r="L40" s="19"/>
+      <c r="M40" s="19"/>
+      <c r="N40" s="19"/>
+      <c r="O40" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="P40" s="19"/>
+      <c r="Q40" s="19"/>
+      <c r="R40" s="19"/>
+      <c r="S40" s="19"/>
+      <c r="T40" s="19"/>
+      <c r="U40" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="V40" s="19"/>
+      <c r="W40" s="19"/>
+      <c r="X40" s="19"/>
+      <c r="Y40" s="19"/>
+    </row>
+    <row r="41" spans="3:29">
+      <c r="C41" t="s">
+        <v>138</v>
+      </c>
+      <c r="D41" s="7">
+        <v>-59.872340919999999</v>
+      </c>
+      <c r="E41" s="7">
+        <v>-163.48763143594701</v>
+      </c>
+      <c r="H41" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="I41" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="J41" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="K41" s="6">
+        <v>0</v>
+      </c>
+      <c r="L41" s="6">
+        <v>0</v>
+      </c>
+      <c r="M41" s="6">
+        <v>1.8</v>
+      </c>
+      <c r="N41" s="19"/>
+      <c r="O41" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="P41" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q41" s="19">
+        <v>-12.071759999999999</v>
+      </c>
+      <c r="R41" s="19">
+        <v>-1.6646270000000001</v>
+      </c>
+      <c r="S41" s="19">
+        <v>-36.293734000000001</v>
+      </c>
+      <c r="T41" s="19"/>
+      <c r="U41" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="V41" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="W41" s="19">
+        <v>-12.071657999999999</v>
+      </c>
+      <c r="X41" s="19">
+        <v>-1.664604</v>
+      </c>
+      <c r="Y41" s="19">
+        <v>-36.293444999999998</v>
+      </c>
+      <c r="AA41" s="16">
+        <f t="shared" ref="AA41:AC56" si="1">(Q41-W41)/Q41</f>
+        <v>8.4494721565079576E-6</v>
+      </c>
+      <c r="AB41" s="16">
+        <f t="shared" si="1"/>
+        <v>1.3816909133461291E-5</v>
+      </c>
+      <c r="AC41" s="16">
+        <f t="shared" si="1"/>
+        <v>7.9628070234438851E-6</v>
+      </c>
+    </row>
+    <row r="42" spans="3:29">
+      <c r="C42" t="s">
+        <v>139</v>
+      </c>
+      <c r="D42" s="7">
+        <v>-194.58773232999999</v>
+      </c>
+      <c r="E42" s="7">
+        <v>-90.970443020176901</v>
+      </c>
+      <c r="F42" s="44"/>
+      <c r="H42" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="I42" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="J42" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="K42" s="6">
+        <v>0</v>
+      </c>
+      <c r="L42" s="6">
+        <v>-0.15</v>
+      </c>
+      <c r="M42" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="N42" s="19"/>
+      <c r="O42" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="P42" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q42" s="19">
+        <v>22.427219999999998</v>
+      </c>
+      <c r="R42" s="19">
+        <v>64.553954000000004</v>
+      </c>
+      <c r="S42" s="19">
+        <v>-2.1120109999999999</v>
+      </c>
+      <c r="T42" s="19"/>
+      <c r="U42" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="V42" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="W42" s="19">
+        <v>22.427040999999999</v>
+      </c>
+      <c r="X42" s="19">
+        <v>64.553437000000002</v>
+      </c>
+      <c r="Y42" s="19">
+        <v>-2.1119949999999998</v>
+      </c>
+      <c r="AA42" s="16">
+        <f t="shared" si="1"/>
+        <v>7.9813726355412357E-6</v>
+      </c>
+      <c r="AB42" s="16">
+        <f t="shared" si="1"/>
+        <v>8.0088045420439941E-6</v>
+      </c>
+      <c r="AC42" s="16">
+        <f t="shared" si="1"/>
+        <v>7.5757181188999497E-6</v>
+      </c>
+    </row>
+    <row r="43" spans="3:29">
+      <c r="C43" t="s">
+        <v>140</v>
+      </c>
+      <c r="D43" s="7">
+        <v>-254.46007324999999</v>
+      </c>
+      <c r="E43" s="7">
+        <v>-254.458074456124</v>
+      </c>
+      <c r="F43" s="44">
+        <f>(D43-E43)/D43</f>
+        <v>7.8550393013306159E-6</v>
+      </c>
+      <c r="H43" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="I43" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="J43" s="6">
+        <v>0.49</v>
+      </c>
+      <c r="K43" s="6">
+        <v>0.52</v>
+      </c>
+      <c r="L43" s="6">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="M43" s="6">
+        <v>1.8</v>
+      </c>
+      <c r="N43" s="19"/>
+      <c r="O43" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="P43" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q43" s="19">
+        <v>-26.257494000000001</v>
+      </c>
+      <c r="R43" s="19">
+        <v>-45.205646999999999</v>
+      </c>
+      <c r="S43" s="19">
+        <v>-6.3928989999999999</v>
+      </c>
+      <c r="T43" s="19"/>
+      <c r="U43" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="V43" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="W43" s="19">
+        <v>-26.257292</v>
+      </c>
+      <c r="X43" s="19">
+        <v>-45.205289999999998</v>
+      </c>
+      <c r="Y43" s="19">
+        <v>-6.3928510000000003</v>
+      </c>
+      <c r="AA43" s="16">
+        <f t="shared" si="1"/>
+        <v>7.6930418417534362E-6</v>
+      </c>
+      <c r="AB43" s="16">
+        <f t="shared" si="1"/>
+        <v>7.8972434572399983E-6</v>
+      </c>
+      <c r="AC43" s="16">
+        <f t="shared" si="1"/>
+        <v>7.5083307275156253E-6</v>
+      </c>
+    </row>
+    <row r="44" spans="3:29">
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
+      <c r="H44" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="I44" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="J44" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="K44" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="L44" s="6">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="M44" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="N44" s="19"/>
+      <c r="O44" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="P44" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q44" s="19">
+        <v>347.98682100000002</v>
+      </c>
+      <c r="R44" s="19">
+        <v>519.73378600000001</v>
+      </c>
+      <c r="S44" s="19">
+        <v>557.99215000000004</v>
+      </c>
+      <c r="T44" s="19"/>
+      <c r="U44" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="V44" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="W44" s="19">
+        <v>347.98406599999998</v>
+      </c>
+      <c r="X44" s="19">
+        <v>519.72965499999998</v>
+      </c>
+      <c r="Y44" s="19">
+        <v>557.98777700000005</v>
+      </c>
+      <c r="AA44" s="16">
+        <f t="shared" si="1"/>
+        <v>7.9169664877510809E-6</v>
+      </c>
+      <c r="AB44" s="16">
+        <f t="shared" si="1"/>
+        <v>7.9482999014218734E-6</v>
+      </c>
+      <c r="AC44" s="16">
+        <f t="shared" si="1"/>
+        <v>7.8370278147942755E-6</v>
+      </c>
+    </row>
+    <row r="45" spans="3:29">
+      <c r="C45" s="2"/>
+      <c r="D45" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H45" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="I45" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="J45" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="K45" s="6">
+        <v>0</v>
+      </c>
+      <c r="L45" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="M45" s="6">
+        <v>1.8</v>
+      </c>
+      <c r="N45" s="19"/>
+      <c r="O45" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="P45" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q45" s="19">
+        <v>-7.9482790000000003</v>
+      </c>
+      <c r="R45" s="19">
+        <v>14.389754</v>
+      </c>
+      <c r="S45" s="19">
+        <v>-11.582163</v>
+      </c>
+      <c r="T45" s="19"/>
+      <c r="U45" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="V45" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="W45" s="19">
+        <v>-7.9482119999999998</v>
+      </c>
+      <c r="X45" s="19">
+        <v>14.389644000000001</v>
+      </c>
+      <c r="Y45" s="19">
+        <v>-11.58207</v>
+      </c>
+      <c r="AA45" s="16">
+        <f t="shared" si="1"/>
+        <v>8.4294977567449928E-6</v>
+      </c>
+      <c r="AB45" s="16">
+        <f t="shared" si="1"/>
+        <v>7.6443280405897398E-6</v>
+      </c>
+      <c r="AC45" s="16">
+        <f t="shared" si="1"/>
+        <v>8.0295882556372835E-6</v>
+      </c>
+    </row>
+    <row r="46" spans="3:29">
+      <c r="C46" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D46" s="4">
+        <v>4.3</v>
+      </c>
+      <c r="E46" s="4">
+        <v>0</v>
+      </c>
+      <c r="F46" s="4">
+        <v>0</v>
+      </c>
+      <c r="H46" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="I46" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="J46" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="K46" s="6">
+        <v>0</v>
+      </c>
+      <c r="L46" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="M46" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="N46" s="19"/>
+      <c r="O46" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="P46" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q46" s="19">
+        <v>-26.10783</v>
+      </c>
+      <c r="R46" s="19">
+        <v>-31.742621</v>
+      </c>
+      <c r="S46" s="19">
+        <v>-18.657153999999998</v>
+      </c>
+      <c r="T46" s="19"/>
+      <c r="U46" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="V46" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="W46" s="19">
+        <v>-26.107623</v>
+      </c>
+      <c r="X46" s="19">
+        <v>-31.742367000000002</v>
+      </c>
+      <c r="Y46" s="19">
+        <v>-18.657005000000002</v>
+      </c>
+      <c r="AA46" s="16">
+        <f t="shared" si="1"/>
+        <v>7.9286558859784272E-6</v>
+      </c>
+      <c r="AB46" s="16">
+        <f t="shared" si="1"/>
+        <v>8.0018597077475151E-6</v>
+      </c>
+      <c r="AC46" s="16">
+        <f t="shared" si="1"/>
+        <v>7.9862126880040829E-6</v>
+      </c>
+    </row>
+    <row r="47" spans="3:29">
+      <c r="C47" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D47" s="4">
+        <v>2.15</v>
+      </c>
+      <c r="E47" s="4">
+        <v>3.7229999999999999</v>
+      </c>
+      <c r="F47" s="4">
+        <v>0</v>
+      </c>
+      <c r="H47" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="I47" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="J47" s="6">
+        <v>0</v>
+      </c>
+      <c r="K47" s="6">
+        <v>0.52</v>
+      </c>
+      <c r="L47" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="M47" s="6">
+        <v>1.8</v>
+      </c>
+      <c r="N47" s="19"/>
+      <c r="O47" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="P47" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q47" s="19">
+        <v>4.53918</v>
+      </c>
+      <c r="R47" s="19">
+        <v>-170.82925700000001</v>
+      </c>
+      <c r="S47" s="19">
+        <v>386.98229600000002</v>
+      </c>
+      <c r="T47" s="19"/>
+      <c r="U47" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="V47" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="W47" s="19">
+        <v>4.5390860000000002</v>
+      </c>
+      <c r="X47" s="19">
+        <v>-170.82797600000001</v>
+      </c>
+      <c r="Y47" s="19">
+        <v>386.97922299999999</v>
+      </c>
+      <c r="AA47" s="16">
+        <f t="shared" si="1"/>
+        <v>2.0708586132256587E-5</v>
+      </c>
+      <c r="AB47" s="16">
+        <f t="shared" si="1"/>
+        <v>7.4987155157260956E-6</v>
+      </c>
+      <c r="AC47" s="16">
+        <f t="shared" si="1"/>
+        <v>7.9409317475054954E-6</v>
+      </c>
+    </row>
+    <row r="48" spans="3:29">
+      <c r="C48" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D48" s="4">
+        <v>1.88</v>
+      </c>
+      <c r="E48" s="4">
+        <v>-1.1499999999999999</v>
+      </c>
+      <c r="F48" s="4">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="H48" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="I48" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="J48" s="6">
+        <v>0</v>
+      </c>
+      <c r="K48" s="6">
+        <v>0.52</v>
+      </c>
+      <c r="L48" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="M48" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="N48" s="19"/>
+      <c r="O48" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="P48" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q48" s="19">
+        <v>3.5102820000000001</v>
+      </c>
+      <c r="R48" s="19">
+        <v>-2.569604</v>
+      </c>
+      <c r="S48" s="19">
+        <v>-6.5022710000000004</v>
+      </c>
+      <c r="T48" s="19"/>
+      <c r="U48" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="V48" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="W48" s="19">
+        <v>3.5102549999999999</v>
+      </c>
+      <c r="X48" s="19">
+        <v>-2.569582</v>
+      </c>
+      <c r="Y48" s="19">
+        <v>-6.5022200000000003</v>
+      </c>
+      <c r="AA48" s="16">
+        <f t="shared" si="1"/>
+        <v>7.6916897275550193E-6</v>
+      </c>
+      <c r="AB48" s="16">
+        <f t="shared" si="1"/>
+        <v>8.5616305080341139E-6</v>
+      </c>
+      <c r="AC48" s="16">
+        <f t="shared" si="1"/>
+        <v>7.8434134781560541E-6</v>
+      </c>
+    </row>
+    <row r="49" spans="3:29">
+      <c r="C49" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="H49" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="I49" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="J49" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="K49" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="L49" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="M49" s="6">
+        <v>1</v>
+      </c>
+      <c r="N49" s="19"/>
+      <c r="O49" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="P49" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q49" s="19">
+        <v>10.610374999999999</v>
+      </c>
+      <c r="R49" s="19">
+        <v>6.3760130000000004</v>
+      </c>
+      <c r="S49" s="19">
+        <v>6.9431370000000001</v>
+      </c>
+      <c r="T49" s="19"/>
+      <c r="U49" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="V49" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="W49" s="19">
+        <v>10.610291</v>
+      </c>
+      <c r="X49" s="19">
+        <v>6.3759610000000002</v>
+      </c>
+      <c r="Y49" s="19">
+        <v>6.9430820000000004</v>
+      </c>
+      <c r="AA49" s="16">
+        <f t="shared" si="1"/>
+        <v>7.9167795671035992E-6</v>
+      </c>
+      <c r="AB49" s="16">
+        <f t="shared" si="1"/>
+        <v>8.1555668095662632E-6</v>
+      </c>
+      <c r="AC49" s="16">
+        <f t="shared" si="1"/>
+        <v>7.9214913949838781E-6</v>
+      </c>
+    </row>
+    <row r="50" spans="3:29">
+      <c r="C50" s="2"/>
+      <c r="D50" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="H50" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="I50" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="J50" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="K50" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="L50" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="M50" s="6">
+        <v>-3</v>
+      </c>
+      <c r="N50" s="19"/>
+      <c r="O50" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="P50" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q50" s="19">
+        <v>2.0956459999999999</v>
+      </c>
+      <c r="R50" s="19">
+        <v>5.4947889999999999</v>
+      </c>
+      <c r="S50" s="19">
+        <v>-0.14544899999999999</v>
+      </c>
+      <c r="T50" s="19"/>
+      <c r="U50" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="V50" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="W50" s="19">
+        <v>2.0956290000000002</v>
+      </c>
+      <c r="X50" s="19">
+        <v>5.494745</v>
+      </c>
+      <c r="Y50" s="19">
+        <v>-0.14544799999999999</v>
+      </c>
+      <c r="AA50" s="16">
+        <f t="shared" si="1"/>
+        <v>8.1120570934746094E-6</v>
+      </c>
+      <c r="AB50" s="16">
+        <f t="shared" si="1"/>
+        <v>8.0075868245228309E-6</v>
+      </c>
+      <c r="AC50" s="16">
+        <f t="shared" si="1"/>
+        <v>6.8752621193751767E-6</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29">
+      <c r="C51" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D51" s="4">
+        <v>4.3</v>
+      </c>
+      <c r="E51" s="4">
+        <v>2.15</v>
+      </c>
+      <c r="F51" s="4">
+        <v>1.88</v>
+      </c>
+      <c r="H51" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="I51" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="J51" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="K51" s="6">
+        <v>0</v>
+      </c>
+      <c r="L51" s="6">
+        <v>-0.04</v>
+      </c>
+      <c r="M51" s="6">
+        <v>1</v>
+      </c>
+      <c r="N51" s="19"/>
+      <c r="O51" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="P51" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q51" s="19">
+        <v>-2.9174989999999998</v>
+      </c>
+      <c r="R51" s="19">
+        <v>-5.02285</v>
+      </c>
+      <c r="S51" s="19">
+        <v>-0.71032200000000001</v>
+      </c>
+      <c r="T51" s="19"/>
+      <c r="U51" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="V51" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="W51" s="19">
+        <v>-2.9174769999999999</v>
+      </c>
+      <c r="X51" s="19">
+        <v>-5.0228099999999998</v>
+      </c>
+      <c r="Y51" s="19">
+        <v>-0.71031699999999998</v>
+      </c>
+      <c r="AA51" s="16">
+        <f t="shared" si="1"/>
+        <v>7.5407052410185885E-6</v>
+      </c>
+      <c r="AB51" s="16">
+        <f t="shared" si="1"/>
+        <v>7.9636063191737858E-6</v>
+      </c>
+      <c r="AC51" s="16">
+        <f t="shared" si="1"/>
+        <v>7.0390611582250812E-6</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29">
+      <c r="C52" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D52" s="4">
+        <v>0</v>
+      </c>
+      <c r="E52" s="4">
+        <v>3.7229999999999999</v>
+      </c>
+      <c r="F52" s="4">
+        <v>-1.1499999999999999</v>
+      </c>
+      <c r="H52" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="I52" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="J52" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="K52" s="6">
+        <v>0</v>
+      </c>
+      <c r="L52" s="6">
+        <v>-0.03</v>
+      </c>
+      <c r="M52" s="6">
+        <v>-3</v>
+      </c>
+      <c r="N52" s="19"/>
+      <c r="O52" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="P52" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q52" s="19">
+        <v>38.665202000000001</v>
+      </c>
+      <c r="R52" s="19">
+        <v>57.748198000000002</v>
+      </c>
+      <c r="S52" s="19">
+        <v>61.999127999999999</v>
+      </c>
+      <c r="T52" s="19"/>
+      <c r="U52" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="V52" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="W52" s="19">
+        <v>38.664895999999999</v>
+      </c>
+      <c r="X52" s="19">
+        <v>57.747739000000003</v>
+      </c>
+      <c r="Y52" s="19">
+        <v>61.998641999999997</v>
+      </c>
+      <c r="AA52" s="16">
+        <f t="shared" si="1"/>
+        <v>7.9140928838782697E-6</v>
+      </c>
+      <c r="AB52" s="16">
+        <f t="shared" si="1"/>
+        <v>7.948299962525602E-6</v>
+      </c>
+      <c r="AC52" s="16">
+        <f t="shared" si="1"/>
+        <v>7.8388199266642414E-6</v>
+      </c>
+    </row>
+    <row r="53" spans="3:29">
+      <c r="C53" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D53" s="4">
+        <v>0</v>
+      </c>
+      <c r="E53" s="4">
+        <v>0</v>
+      </c>
+      <c r="F53" s="4">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="H53" t="s">
+        <v>132</v>
+      </c>
+      <c r="I53" t="s">
+        <v>133</v>
+      </c>
+      <c r="J53" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="K53" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="L53" s="6">
+        <v>0.32</v>
+      </c>
+      <c r="M53" s="6">
+        <v>1</v>
+      </c>
+      <c r="O53" t="s">
+        <v>162</v>
+      </c>
+      <c r="P53" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q53">
+        <v>23.844836000000001</v>
+      </c>
+      <c r="R53">
+        <v>-43.169260999999999</v>
+      </c>
+      <c r="S53">
+        <v>34.746488999999997</v>
+      </c>
+      <c r="U53" t="s">
+        <v>162</v>
+      </c>
+      <c r="V53" t="s">
+        <v>164</v>
+      </c>
+      <c r="W53">
+        <v>23.844636000000001</v>
+      </c>
+      <c r="X53">
+        <v>-43.168931000000001</v>
+      </c>
+      <c r="Y53">
+        <v>34.746211000000002</v>
+      </c>
+      <c r="AA53" s="16">
+        <f t="shared" si="1"/>
+        <v>8.3875603086359612E-6</v>
+      </c>
+      <c r="AB53" s="16">
+        <f t="shared" si="1"/>
+        <v>7.6443282176677779E-6</v>
+      </c>
+      <c r="AC53" s="16">
+        <f t="shared" si="1"/>
+        <v>8.0008083692844302E-6</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29">
+      <c r="D54" s="7"/>
+      <c r="E54" s="7"/>
+      <c r="H54" t="s">
+        <v>132</v>
+      </c>
+      <c r="I54" t="s">
+        <v>142</v>
+      </c>
+      <c r="J54" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="K54" s="6">
+        <v>0.48</v>
+      </c>
+      <c r="L54" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="M54" s="6">
+        <v>-3</v>
+      </c>
+      <c r="O54" t="s">
+        <v>162</v>
+      </c>
+      <c r="P54" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q54">
+        <v>66.952747000000002</v>
+      </c>
+      <c r="R54">
+        <v>89.251249999999999</v>
+      </c>
+      <c r="S54">
+        <v>45.265728000000003</v>
+      </c>
+      <c r="U54" t="s">
+        <v>162</v>
+      </c>
+      <c r="V54" t="s">
+        <v>164</v>
+      </c>
+      <c r="W54">
+        <v>66.952214999999995</v>
+      </c>
+      <c r="X54">
+        <v>89.250535999999997</v>
+      </c>
+      <c r="Y54">
+        <v>45.265366</v>
+      </c>
+      <c r="AA54" s="16">
+        <f t="shared" si="1"/>
+        <v>7.9459025035501571E-6</v>
+      </c>
+      <c r="AB54" s="16">
+        <f t="shared" si="1"/>
+        <v>7.9998879567748566E-6</v>
+      </c>
+      <c r="AC54" s="16">
+        <f t="shared" si="1"/>
+        <v>7.9972203253339472E-6</v>
+      </c>
+    </row>
+    <row r="55" spans="3:29">
+      <c r="D55" s="7"/>
+      <c r="E55" s="7"/>
+      <c r="H55" t="s">
+        <v>132</v>
+      </c>
+      <c r="I55" t="s">
+        <v>133</v>
+      </c>
+      <c r="J55" s="6">
+        <v>0</v>
+      </c>
+      <c r="K55" s="6">
+        <v>0</v>
+      </c>
+      <c r="L55" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="M55" s="6">
+        <v>1</v>
+      </c>
+      <c r="O55" t="s">
+        <v>162</v>
+      </c>
+      <c r="P55" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q55">
+        <v>-434.79860000000002</v>
+      </c>
+      <c r="R55">
+        <v>-465.05268999999998</v>
+      </c>
+      <c r="S55">
+        <v>-1031.0397370000001</v>
+      </c>
+      <c r="U55" t="s">
+        <v>162</v>
+      </c>
+      <c r="V55" t="s">
+        <v>164</v>
+      </c>
+      <c r="W55">
+        <v>-434.79508900000002</v>
+      </c>
+      <c r="X55">
+        <v>-465.04890499999999</v>
+      </c>
+      <c r="Y55">
+        <v>-1031.0316089999999</v>
+      </c>
+      <c r="AA55" s="16">
+        <f t="shared" si="1"/>
+        <v>8.0750030013968535E-6</v>
+      </c>
+      <c r="AB55" s="16">
+        <f t="shared" si="1"/>
+        <v>8.1388627168106224E-6</v>
+      </c>
+      <c r="AC55" s="16">
+        <f t="shared" si="1"/>
+        <v>7.883304307765761E-6</v>
+      </c>
+    </row>
+    <row r="56" spans="3:29">
+      <c r="D56" s="7"/>
+      <c r="E56" s="7"/>
+      <c r="H56" t="s">
+        <v>132</v>
+      </c>
+      <c r="I56" t="s">
+        <v>142</v>
+      </c>
+      <c r="J56" s="6">
+        <v>0</v>
+      </c>
+      <c r="K56" s="6">
+        <v>0</v>
+      </c>
+      <c r="L56" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="M56" s="6">
+        <v>-3</v>
+      </c>
+      <c r="O56" t="s">
+        <v>162</v>
+      </c>
+      <c r="P56" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q56">
+        <v>-10.530847</v>
+      </c>
+      <c r="R56">
+        <v>7.7088130000000001</v>
+      </c>
+      <c r="S56">
+        <v>19.506813000000001</v>
+      </c>
+      <c r="U56" t="s">
+        <v>162</v>
+      </c>
+      <c r="V56" t="s">
+        <v>164</v>
+      </c>
+      <c r="W56">
+        <v>-10.530766</v>
+      </c>
+      <c r="X56">
+        <v>7.7087469999999998</v>
+      </c>
+      <c r="Y56">
+        <v>19.50666</v>
+      </c>
+      <c r="AA56" s="16">
+        <f t="shared" si="1"/>
+        <v>7.6916889970745662E-6</v>
+      </c>
+      <c r="AB56" s="16">
+        <f t="shared" si="1"/>
+        <v>8.5616293974628215E-6</v>
+      </c>
+      <c r="AC56" s="16">
+        <f t="shared" si="1"/>
+        <v>7.8434134782015855E-6</v>
+      </c>
+    </row>
+    <row r="57" spans="3:29">
+      <c r="D57" s="7"/>
+      <c r="E57" s="7"/>
+    </row>
+    <row r="58" spans="3:29">
+      <c r="D58" s="7"/>
+      <c r="E58" s="7"/>
+    </row>
+    <row r="59" spans="3:29">
+      <c r="D59" s="7"/>
+      <c r="E59" s="7"/>
+    </row>
+    <row r="60" spans="3:29">
+      <c r="D60" s="7"/>
+      <c r="E60" s="7"/>
+    </row>
+    <row r="61" spans="3:29">
+      <c r="D61" s="7"/>
+      <c r="E61" s="7"/>
+    </row>
+    <row r="62" spans="3:29">
+      <c r="D62" s="7"/>
+      <c r="E62" s="7"/>
+    </row>
+    <row r="63" spans="3:29">
+      <c r="D63" s="7"/>
+      <c r="E63" s="7"/>
+    </row>
+    <row r="64" spans="3:29">
+      <c r="D64" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E64" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="H64" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="65" spans="3:15">
+      <c r="C65" t="s">
+        <v>27</v>
+      </c>
+      <c r="D65" s="7">
+        <v>78.295659000000001</v>
+      </c>
+      <c r="E65" s="7">
+        <f>H65</f>
+        <v>78.295016000000004</v>
+      </c>
+      <c r="F65" s="44">
+        <f>(D65-E65)/D65</f>
+        <v>8.2124604123533657E-6</v>
+      </c>
+      <c r="H65">
+        <v>78.295016000000004</v>
+      </c>
+      <c r="I65">
+        <v>-38.438657999999997</v>
+      </c>
+      <c r="J65">
+        <v>150.42814000000001</v>
+      </c>
+      <c r="N65">
+        <v>-0.84362800000000004</v>
+      </c>
+      <c r="O65">
+        <f>N65*N65</f>
+        <v>0.71170820238400012</v>
+      </c>
+    </row>
+    <row r="66" spans="3:15">
+      <c r="C66" t="s">
+        <v>28</v>
+      </c>
+      <c r="D66" s="7">
+        <v>6.7656169999999998</v>
+      </c>
+      <c r="E66" s="7">
+        <f>I66</f>
+        <v>6.7655709999999996</v>
+      </c>
+      <c r="F66" s="44">
+        <f t="shared" ref="F66:F70" si="2">(D66-E66)/D66</f>
+        <v>6.7990842520663734E-6</v>
+      </c>
+      <c r="H66">
+        <v>-38.438657999999997</v>
+      </c>
+      <c r="I66">
+        <v>6.7655709999999996</v>
+      </c>
+      <c r="J66">
+        <v>-3.9566249999999998</v>
+      </c>
+      <c r="N66">
+        <v>1.6872549999999999</v>
+      </c>
+      <c r="O66">
+        <f t="shared" ref="O66:O67" si="3">N66*N66</f>
+        <v>2.8468294350249996</v>
+      </c>
+    </row>
+    <row r="67" spans="3:15">
+      <c r="C67" t="s">
+        <v>29</v>
+      </c>
+      <c r="D67" s="7">
+        <v>169.398797</v>
+      </c>
+      <c r="E67" s="7">
+        <f>J67</f>
+        <v>169.397482</v>
+      </c>
+      <c r="F67" s="44">
+        <f t="shared" si="2"/>
+        <v>7.7627469810501904E-6</v>
+      </c>
+      <c r="H67">
+        <v>150.42814000000001</v>
+      </c>
+      <c r="I67">
+        <v>-3.9566249999999998</v>
+      </c>
+      <c r="J67">
+        <v>169.397482</v>
+      </c>
+      <c r="N67">
+        <v>0</v>
+      </c>
+      <c r="O67">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="3:15">
+      <c r="C68" t="s">
+        <v>30</v>
+      </c>
+      <c r="D68" s="7">
+        <v>-3.9566530000000002</v>
+      </c>
+      <c r="E68" s="7">
+        <f>J66</f>
+        <v>-3.9566249999999998</v>
+      </c>
+      <c r="F68" s="44">
+        <f t="shared" si="2"/>
+        <v>7.0766883020474801E-6</v>
+      </c>
+      <c r="O68">
+        <f>SQRT(SUM(O65:O67))</f>
+        <v>1.8864086612950546</v>
+      </c>
+    </row>
+    <row r="69" spans="3:15">
+      <c r="C69" t="s">
+        <v>31</v>
+      </c>
+      <c r="D69" s="7">
+        <v>150.42934199999999</v>
+      </c>
+      <c r="E69" s="7">
+        <f>J65</f>
+        <v>150.42814000000001</v>
+      </c>
+      <c r="F69" s="44">
+        <f t="shared" si="2"/>
+        <v>7.9904623924895113E-6</v>
+      </c>
+    </row>
+    <row r="70" spans="3:15">
+      <c r="C70" t="s">
+        <v>32</v>
+      </c>
+      <c r="D70" s="7">
+        <v>-38.438961999999997</v>
+      </c>
+      <c r="E70" s="7">
+        <f>I65</f>
+        <v>-38.438657999999997</v>
+      </c>
+      <c r="F70" s="44">
+        <f t="shared" si="2"/>
+        <v>7.9086422781099028E-6</v>
+      </c>
+    </row>
+    <row r="72" spans="3:15">
+      <c r="O72">
+        <v>3.939981</v>
+      </c>
+    </row>
+    <row r="73" spans="3:15">
+      <c r="O73">
+        <f>O72/O68</f>
+        <v>2.0886147741153445</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A820870-40C5-8548-B01E-75B2F0C04C79}">
+  <dimension ref="B1:AC70"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="3" max="4" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="22.83203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.33203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.83203125" style="20"/>
+    <col min="23" max="24" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:29">
+      <c r="C1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D1">
+        <v>37.140647999999999</v>
+      </c>
+    </row>
+    <row r="2" spans="2:29">
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+    </row>
+    <row r="3" spans="2:29">
+      <c r="C3" t="s">
+        <v>185</v>
+      </c>
+      <c r="G3" s="19"/>
+      <c r="H3" s="43" t="s">
+        <v>186</v>
+      </c>
+      <c r="I3" s="43"/>
+      <c r="J3" s="43"/>
+      <c r="K3" s="43"/>
+      <c r="L3" s="43" t="s">
+        <v>187</v>
+      </c>
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="19"/>
+      <c r="Q3" s="19"/>
+    </row>
+    <row r="4" spans="2:29">
+      <c r="C4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D4" t="s">
+        <v>113</v>
+      </c>
+      <c r="E4" t="s">
+        <v>114</v>
+      </c>
+      <c r="G4" s="19"/>
+      <c r="H4" t="s">
+        <v>112</v>
+      </c>
+      <c r="I4" t="s">
+        <v>113</v>
+      </c>
+      <c r="J4" t="s">
+        <v>114</v>
+      </c>
+      <c r="L4" t="s">
+        <v>112</v>
+      </c>
+      <c r="M4" t="s">
+        <v>113</v>
+      </c>
+      <c r="N4" t="s">
+        <v>114</v>
+      </c>
+      <c r="O4" s="19"/>
+      <c r="P4" s="19"/>
+      <c r="Q4" s="19"/>
+    </row>
+    <row r="5" spans="2:29">
+      <c r="B5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="19">
+        <v>4.3250999999999999</v>
+      </c>
+      <c r="D5" s="19">
+        <v>4.1540999999999997</v>
+      </c>
+      <c r="E5" s="19">
+        <v>1.8851</v>
+      </c>
+      <c r="G5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H5" s="19">
+        <v>4.3251499999999998</v>
+      </c>
+      <c r="I5" s="19">
+        <v>4.1540999999999997</v>
+      </c>
+      <c r="J5" s="19">
+        <v>1.8851</v>
+      </c>
+      <c r="K5" t="s">
+        <v>36</v>
+      </c>
+      <c r="L5" s="19">
+        <v>4.3250500000000001</v>
+      </c>
+      <c r="M5" s="19">
+        <v>4.1540999999999997</v>
+      </c>
+      <c r="N5" s="19">
+        <v>1.8851</v>
+      </c>
+      <c r="O5" s="19"/>
+      <c r="P5" s="19">
+        <f>(H9-L9)/(H5-L5)</f>
+        <v>-16.235858939846008</v>
+      </c>
+      <c r="Q5" s="19"/>
+    </row>
+    <row r="6" spans="2:29">
+      <c r="B6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="19">
+        <v>0</v>
+      </c>
+      <c r="D6" s="19">
+        <v>5.7232000000000003</v>
+      </c>
+      <c r="E6" s="19">
+        <v>-1.1551</v>
+      </c>
+      <c r="G6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6" s="19">
+        <v>0</v>
+      </c>
+      <c r="I6" s="19">
+        <v>5.7232000000000003</v>
+      </c>
+      <c r="J6" s="19">
+        <v>-1.1551</v>
+      </c>
+      <c r="K6" t="s">
+        <v>37</v>
+      </c>
+      <c r="L6" s="19">
+        <v>0</v>
+      </c>
+      <c r="M6" s="19">
+        <v>5.7232000000000003</v>
+      </c>
+      <c r="N6" s="19">
+        <v>-1.1551</v>
+      </c>
+      <c r="O6" s="19"/>
+      <c r="P6" s="19"/>
+      <c r="Q6" s="19"/>
+    </row>
+    <row r="7" spans="2:29">
+      <c r="B7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="19">
+        <v>0</v>
+      </c>
+      <c r="D7" s="19">
+        <v>0</v>
+      </c>
+      <c r="E7" s="19">
+        <v>2.3222999999999998</v>
+      </c>
+      <c r="G7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" s="19">
+        <v>0</v>
+      </c>
+      <c r="I7" s="19">
+        <v>0</v>
+      </c>
+      <c r="J7" s="19">
+        <v>2.3222999999999998</v>
+      </c>
+      <c r="K7" t="s">
+        <v>38</v>
+      </c>
+      <c r="L7" s="19">
+        <v>0</v>
+      </c>
+      <c r="M7" s="19">
+        <v>0</v>
+      </c>
+      <c r="N7" s="19">
+        <v>2.3222999999999998</v>
+      </c>
+      <c r="O7" s="19"/>
+      <c r="P7" s="19"/>
+      <c r="Q7" s="19"/>
+    </row>
+    <row r="8" spans="2:29">
+      <c r="H8" s="19"/>
+      <c r="I8" s="43"/>
+      <c r="J8" s="43"/>
+      <c r="L8" s="43"/>
+      <c r="M8" s="43"/>
+      <c r="N8" s="19"/>
+      <c r="O8" s="19"/>
+      <c r="P8" s="19"/>
+      <c r="Q8" s="19"/>
+    </row>
+    <row r="9" spans="2:29">
+      <c r="C9" t="s">
+        <v>199</v>
+      </c>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19">
+        <v>-254.45888624804999</v>
+      </c>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19">
+        <v>-254.45726266215601</v>
+      </c>
+      <c r="M9" s="19"/>
+      <c r="N9" s="19"/>
+      <c r="O9" s="19"/>
+      <c r="P9" s="19"/>
+      <c r="Q9" s="19"/>
+    </row>
+    <row r="10" spans="2:29">
+      <c r="C10" t="s">
+        <v>112</v>
+      </c>
+      <c r="D10" t="s">
+        <v>113</v>
+      </c>
+      <c r="E10" t="s">
+        <v>114</v>
+      </c>
+      <c r="G10" s="19"/>
+      <c r="H10" s="50" t="s">
+        <v>188</v>
+      </c>
+      <c r="I10" s="50"/>
+      <c r="J10" s="50"/>
+      <c r="K10" s="50"/>
+      <c r="L10" s="50" t="s">
+        <v>189</v>
+      </c>
+      <c r="M10" s="19"/>
+      <c r="N10" s="19"/>
+      <c r="O10" s="19"/>
+      <c r="P10" s="19"/>
+      <c r="Q10" s="19"/>
+      <c r="AB10" s="16"/>
+      <c r="AC10" s="16"/>
+    </row>
+    <row r="11" spans="2:29">
+      <c r="B11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="43">
+        <v>-16.235859000000001</v>
+      </c>
+      <c r="D11" s="50">
+        <v>6.3571989999999996</v>
+      </c>
+      <c r="E11" s="58">
+        <v>64.775497999999999</v>
+      </c>
+      <c r="H11" t="s">
+        <v>112</v>
+      </c>
+      <c r="I11" t="s">
+        <v>113</v>
+      </c>
+      <c r="J11" t="s">
+        <v>114</v>
+      </c>
+      <c r="L11" t="s">
+        <v>112</v>
+      </c>
+      <c r="M11" t="s">
+        <v>113</v>
+      </c>
+      <c r="N11" t="s">
+        <v>114</v>
+      </c>
+      <c r="O11" s="19"/>
+      <c r="P11" s="19"/>
+      <c r="Q11" s="19"/>
+      <c r="AB11" s="16"/>
+      <c r="AC11" s="16"/>
+    </row>
+    <row r="12" spans="2:29">
+      <c r="B12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="19">
+        <v>-8.9498870000000004</v>
+      </c>
+      <c r="D12" s="50">
+        <v>0.83826599999999996</v>
+      </c>
+      <c r="E12" s="58">
+        <v>-1.7037530000000001</v>
+      </c>
+      <c r="G12" t="s">
+        <v>36</v>
+      </c>
+      <c r="H12" s="19">
+        <v>4.3250999999999999</v>
+      </c>
+      <c r="I12" s="19">
+        <v>4.1541499999999996</v>
+      </c>
+      <c r="J12" s="19">
+        <v>1.8851</v>
+      </c>
+      <c r="K12" t="s">
+        <v>36</v>
+      </c>
+      <c r="L12" s="19">
+        <v>4.3250999999999999</v>
+      </c>
+      <c r="M12" s="19">
+        <v>4.1540499999999998</v>
+      </c>
+      <c r="N12" s="19">
+        <v>1.8851</v>
+      </c>
+      <c r="O12" s="19"/>
+      <c r="P12" s="19">
+        <f>(H16-L16)/(I12-M12)</f>
+        <v>6.357198720096485</v>
+      </c>
+      <c r="Q12" s="19"/>
+      <c r="AB12" s="16"/>
+      <c r="AC12" s="16"/>
+    </row>
+    <row r="13" spans="2:29">
+      <c r="B13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="19">
+        <v>-10.488415</v>
+      </c>
+      <c r="D13" s="19">
+        <v>14.030753000000001</v>
+      </c>
+      <c r="E13" s="58">
+        <v>72.943841000000006</v>
+      </c>
+      <c r="G13" t="s">
+        <v>37</v>
+      </c>
+      <c r="H13" s="19">
+        <v>0</v>
+      </c>
+      <c r="I13" s="19">
+        <v>5.7232000000000003</v>
+      </c>
+      <c r="J13" s="19">
+        <v>-1.1551</v>
+      </c>
+      <c r="K13" t="s">
+        <v>37</v>
+      </c>
+      <c r="L13" s="19">
+        <v>0</v>
+      </c>
+      <c r="M13" s="19">
+        <v>5.7232000000000003</v>
+      </c>
+      <c r="N13" s="19">
+        <v>-1.1551</v>
+      </c>
+      <c r="O13" s="19"/>
+      <c r="P13" s="19"/>
+      <c r="Q13" s="19"/>
+      <c r="AB13" s="16"/>
+      <c r="AC13" s="16"/>
+    </row>
+    <row r="14" spans="2:29">
+      <c r="G14" t="s">
+        <v>38</v>
+      </c>
+      <c r="H14" s="19">
+        <v>0</v>
+      </c>
+      <c r="I14" s="19">
+        <v>0</v>
+      </c>
+      <c r="J14" s="19">
+        <v>2.3222999999999998</v>
+      </c>
+      <c r="K14" t="s">
+        <v>38</v>
+      </c>
+      <c r="L14" s="19">
+        <v>0</v>
+      </c>
+      <c r="M14" s="19">
+        <v>0</v>
+      </c>
+      <c r="N14" s="19">
+        <v>2.3222999999999998</v>
+      </c>
+      <c r="O14" s="19"/>
+      <c r="P14" s="19"/>
+      <c r="Q14" s="19"/>
+      <c r="AB14" s="16"/>
+      <c r="AC14" s="16"/>
+    </row>
+    <row r="15" spans="2:29">
+      <c r="C15" t="s">
+        <v>198</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="43"/>
+      <c r="J15" s="43"/>
+      <c r="L15" s="43"/>
+      <c r="M15" s="43"/>
+      <c r="N15" s="19"/>
+      <c r="O15" s="19"/>
+      <c r="P15" s="19"/>
+      <c r="Q15" s="19"/>
+      <c r="AB15" s="16"/>
+      <c r="AC15" s="16"/>
+    </row>
+    <row r="16" spans="2:29">
+      <c r="C16" t="s">
+        <v>112</v>
+      </c>
+      <c r="D16" t="s">
+        <v>113</v>
+      </c>
+      <c r="E16" t="s">
+        <v>114</v>
+      </c>
+      <c r="G16" s="5"/>
+      <c r="H16" s="19">
+        <v>-254.45775659448699</v>
+      </c>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="19">
+        <v>-254.458392314359</v>
+      </c>
+      <c r="M16" s="19"/>
+      <c r="N16" s="19"/>
+      <c r="O16" s="19"/>
+      <c r="P16" s="19"/>
+      <c r="Q16" s="19"/>
+      <c r="AB16" s="16"/>
+      <c r="AC16" s="16"/>
+    </row>
+    <row r="17" spans="2:29">
+      <c r="B17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="54">
+        <f>P5</f>
+        <v>-16.235858939846008</v>
+      </c>
+      <c r="D17" s="52">
+        <f>P12</f>
+        <v>6.357198720096485</v>
+      </c>
+      <c r="E17" s="53">
+        <f>P26</f>
+        <v>64.775498400001382</v>
+      </c>
+      <c r="G17" s="5"/>
+      <c r="H17" s="50" t="s">
+        <v>190</v>
+      </c>
+      <c r="I17" s="50"/>
+      <c r="J17" s="50"/>
+      <c r="K17" s="50"/>
+      <c r="L17" s="50" t="s">
+        <v>191</v>
+      </c>
+      <c r="M17" s="19"/>
+      <c r="N17" s="19"/>
+      <c r="O17" s="19"/>
+      <c r="P17" s="19"/>
+      <c r="Q17" s="19"/>
+      <c r="AB17" s="16"/>
+      <c r="AC17" s="16"/>
+    </row>
+    <row r="18" spans="2:29">
+      <c r="B18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="52">
+        <f>P19</f>
+        <v>0.83826675990135124</v>
+      </c>
+      <c r="E18" s="53">
+        <f>P33</f>
+        <v>-1.7037528598964002</v>
+      </c>
+      <c r="G18" s="19"/>
+      <c r="H18" t="s">
+        <v>112</v>
+      </c>
+      <c r="I18" t="s">
+        <v>113</v>
+      </c>
+      <c r="J18" t="s">
+        <v>114</v>
+      </c>
+      <c r="L18" t="s">
+        <v>112</v>
+      </c>
+      <c r="M18" t="s">
+        <v>113</v>
+      </c>
+      <c r="N18" t="s">
+        <v>114</v>
+      </c>
+      <c r="O18" s="19"/>
+      <c r="P18" s="19"/>
+      <c r="Q18" s="19"/>
+      <c r="AB18" s="16"/>
+      <c r="AC18" s="16"/>
+    </row>
+    <row r="19" spans="2:29">
+      <c r="B19" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="53">
+        <f>P40</f>
+        <v>72.943841719978309</v>
+      </c>
+      <c r="G19" t="s">
+        <v>36</v>
+      </c>
+      <c r="H19" s="19">
+        <v>4.3250999999999999</v>
+      </c>
+      <c r="I19" s="19">
+        <v>4.1540999999999997</v>
+      </c>
+      <c r="J19" s="19">
+        <v>1.8851</v>
+      </c>
+      <c r="K19" t="s">
+        <v>36</v>
+      </c>
+      <c r="L19" s="19">
+        <v>4.3250999999999999</v>
+      </c>
+      <c r="M19" s="19">
+        <v>4.1540999999999997</v>
+      </c>
+      <c r="N19" s="19">
+        <v>1.8851</v>
+      </c>
+      <c r="O19" s="19"/>
+      <c r="P19" s="19">
+        <f>(H23-L23)/(I20-M20)</f>
+        <v>0.83826675990135124</v>
+      </c>
+      <c r="Q19" s="19"/>
+      <c r="AB19" s="16"/>
+      <c r="AC19" s="16"/>
+    </row>
+    <row r="20" spans="2:29">
+      <c r="C20" s="2"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="G20" t="s">
+        <v>37</v>
+      </c>
+      <c r="H20" s="19">
+        <v>0</v>
+      </c>
+      <c r="I20" s="19">
+        <v>5.7232500000000002</v>
+      </c>
+      <c r="J20" s="19">
+        <v>-1.1551</v>
+      </c>
+      <c r="K20" t="s">
+        <v>37</v>
+      </c>
+      <c r="L20" s="19">
+        <v>0</v>
+      </c>
+      <c r="M20" s="19">
+        <v>5.7231500000000004</v>
+      </c>
+      <c r="N20" s="19">
+        <v>-1.1551</v>
+      </c>
+      <c r="O20" s="19"/>
+      <c r="P20" s="19"/>
+      <c r="Q20" s="19"/>
+      <c r="AB20" s="16"/>
+      <c r="AC20" s="16"/>
+    </row>
+    <row r="21" spans="2:29">
+      <c r="B21" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21" s="59">
+        <f>(C17-C11)/C17</f>
+        <v>-3.7050084020184726E-9</v>
+      </c>
+      <c r="D21" s="60">
+        <f t="shared" ref="D21:E23" si="0">(D17-D11)/D17</f>
+        <v>-4.4029379434618258E-8</v>
+      </c>
+      <c r="E21" s="61">
+        <f t="shared" si="0"/>
+        <v>6.1751957608609892E-9</v>
+      </c>
+      <c r="G21" t="s">
+        <v>38</v>
+      </c>
+      <c r="H21" s="19">
+        <v>0</v>
+      </c>
+      <c r="I21" s="19">
+        <v>0</v>
+      </c>
+      <c r="J21" s="19">
+        <v>2.3222999999999998</v>
+      </c>
+      <c r="K21" t="s">
+        <v>38</v>
+      </c>
+      <c r="L21" s="19">
+        <v>0</v>
+      </c>
+      <c r="M21" s="19">
+        <v>0</v>
+      </c>
+      <c r="N21" s="19">
+        <v>2.3222999999999998</v>
+      </c>
+      <c r="O21" s="19"/>
+      <c r="P21" s="19"/>
+      <c r="Q21" s="19"/>
+      <c r="AB21" s="16"/>
+      <c r="AC21" s="16"/>
+    </row>
+    <row r="22" spans="2:29">
+      <c r="C22" s="62"/>
+      <c r="D22" s="60">
+        <f t="shared" si="0"/>
+        <v>9.0651495160997981E-7</v>
+      </c>
+      <c r="E22" s="61">
+        <f t="shared" si="0"/>
+        <v>-8.2232349028168796E-8</v>
+      </c>
+      <c r="H22" s="19"/>
+      <c r="I22" s="43"/>
+      <c r="J22" s="43"/>
+      <c r="L22" s="43"/>
+      <c r="M22" s="43"/>
+      <c r="N22" s="19"/>
+      <c r="O22" s="19"/>
+      <c r="P22" s="19"/>
+      <c r="Q22" s="19"/>
+    </row>
+    <row r="23" spans="2:29">
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="61">
+        <f t="shared" si="0"/>
+        <v>9.8703096214537062E-9</v>
+      </c>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19">
+        <v>-254.458032539898</v>
+      </c>
+      <c r="I23" s="19"/>
+      <c r="J23" s="19"/>
+      <c r="K23" s="19"/>
+      <c r="L23" s="19">
+        <v>-254.45811636657399</v>
+      </c>
+      <c r="M23" s="19"/>
+      <c r="N23" s="19"/>
+      <c r="O23" s="19"/>
+      <c r="P23" s="19"/>
+      <c r="Q23" s="19"/>
+    </row>
+    <row r="24" spans="2:29">
+      <c r="G24" s="19"/>
+      <c r="H24" s="51" t="s">
+        <v>192</v>
+      </c>
+      <c r="I24" s="51"/>
+      <c r="J24" s="51"/>
+      <c r="K24" s="51"/>
+      <c r="L24" s="51" t="s">
+        <v>193</v>
+      </c>
+      <c r="M24" s="51"/>
+      <c r="N24" s="51"/>
+      <c r="O24" s="51"/>
+      <c r="P24" s="19"/>
+      <c r="Q24" s="19"/>
+    </row>
+    <row r="25" spans="2:29">
+      <c r="G25" s="19"/>
+      <c r="H25" t="s">
+        <v>112</v>
+      </c>
+      <c r="I25" t="s">
+        <v>113</v>
+      </c>
+      <c r="J25" t="s">
+        <v>114</v>
+      </c>
+      <c r="L25" t="s">
+        <v>112</v>
+      </c>
+      <c r="M25" t="s">
+        <v>113</v>
+      </c>
+      <c r="N25" t="s">
+        <v>114</v>
+      </c>
+      <c r="O25" s="19"/>
+      <c r="P25" s="19"/>
+      <c r="Q25" s="19"/>
+    </row>
+    <row r="26" spans="2:29">
+      <c r="G26" t="s">
+        <v>36</v>
+      </c>
+      <c r="H26" s="19">
+        <v>4.3250999999999999</v>
+      </c>
+      <c r="I26" s="19">
+        <v>4.1540999999999997</v>
+      </c>
+      <c r="J26" s="19">
+        <v>1.8851500000000001</v>
+      </c>
+      <c r="K26" t="s">
+        <v>36</v>
+      </c>
+      <c r="L26" s="19">
+        <v>4.3250999999999999</v>
+      </c>
+      <c r="M26" s="19">
+        <v>4.1540999999999997</v>
+      </c>
+      <c r="N26" s="19">
+        <v>1.8850499999999999</v>
+      </c>
+      <c r="O26" s="19"/>
+      <c r="P26" s="19">
+        <f>(H30-L30)/(J26-N26)</f>
+        <v>64.775498400001382</v>
+      </c>
+      <c r="Q26" s="19"/>
+    </row>
+    <row r="27" spans="2:29">
+      <c r="G27" t="s">
+        <v>37</v>
+      </c>
+      <c r="H27" s="19">
+        <v>0</v>
+      </c>
+      <c r="I27" s="19">
+        <v>5.7232000000000003</v>
+      </c>
+      <c r="J27" s="19">
+        <v>-1.1551</v>
+      </c>
+      <c r="K27" t="s">
+        <v>37</v>
+      </c>
+      <c r="L27" s="19">
+        <v>0</v>
+      </c>
+      <c r="M27" s="19">
+        <v>5.7232000000000003</v>
+      </c>
+      <c r="N27" s="19">
+        <v>-1.1551</v>
+      </c>
+      <c r="O27" s="19"/>
+      <c r="P27" s="19"/>
+      <c r="Q27" s="19"/>
+    </row>
+    <row r="28" spans="2:29">
+      <c r="G28" t="s">
+        <v>38</v>
+      </c>
+      <c r="H28" s="19">
+        <v>0</v>
+      </c>
+      <c r="I28" s="19">
+        <v>0</v>
+      </c>
+      <c r="J28" s="19">
+        <v>2.3222999999999998</v>
+      </c>
+      <c r="K28" t="s">
+        <v>38</v>
+      </c>
+      <c r="L28" s="19">
+        <v>0</v>
+      </c>
+      <c r="M28" s="19">
+        <v>0</v>
+      </c>
+      <c r="N28" s="19">
+        <v>2.3222999999999998</v>
+      </c>
+      <c r="O28" s="19"/>
+      <c r="P28" s="19"/>
+      <c r="Q28" s="19"/>
+    </row>
+    <row r="29" spans="2:29">
+      <c r="H29" s="19"/>
+      <c r="I29" s="43"/>
+      <c r="J29" s="43"/>
+      <c r="L29" s="43"/>
+      <c r="M29" s="43"/>
+      <c r="N29" s="19"/>
+      <c r="O29" s="19"/>
+      <c r="P29" s="19"/>
+      <c r="Q29" s="19"/>
+    </row>
+    <row r="30" spans="2:29">
+      <c r="G30" s="19"/>
+      <c r="H30" s="19">
+        <v>-254.45483563577099</v>
+      </c>
+      <c r="I30" s="19"/>
+      <c r="J30" s="19"/>
+      <c r="K30" s="19"/>
+      <c r="L30" s="19">
+        <v>-254.461313185611</v>
+      </c>
+      <c r="M30" s="19"/>
+      <c r="N30" s="19"/>
+      <c r="O30" s="19"/>
+      <c r="P30" s="19"/>
+    </row>
+    <row r="31" spans="2:29">
+      <c r="G31" s="19"/>
+      <c r="H31" s="51" t="s">
+        <v>194</v>
+      </c>
+      <c r="I31" s="51"/>
+      <c r="J31" s="51"/>
+      <c r="K31" s="51"/>
+      <c r="L31" s="51" t="s">
+        <v>195</v>
+      </c>
+      <c r="M31" s="51"/>
+      <c r="N31" s="51"/>
+      <c r="O31" s="51"/>
+      <c r="P31" s="19"/>
+    </row>
+    <row r="32" spans="2:29">
+      <c r="H32" t="s">
+        <v>112</v>
+      </c>
+      <c r="I32" t="s">
+        <v>113</v>
+      </c>
+      <c r="J32" t="s">
+        <v>114</v>
+      </c>
+      <c r="L32" t="s">
+        <v>112</v>
+      </c>
+      <c r="M32" t="s">
+        <v>113</v>
+      </c>
+      <c r="N32" t="s">
+        <v>114</v>
+      </c>
+      <c r="O32" s="19"/>
+      <c r="P32" s="19"/>
+    </row>
+    <row r="33" spans="3:29">
+      <c r="G33" t="s">
+        <v>36</v>
+      </c>
+      <c r="H33" s="19">
+        <v>4.3250999999999999</v>
+      </c>
+      <c r="I33" s="19">
+        <v>4.1540999999999997</v>
+      </c>
+      <c r="J33" s="19">
+        <v>1.8851</v>
+      </c>
+      <c r="K33" t="s">
+        <v>36</v>
+      </c>
+      <c r="L33" s="19">
+        <v>4.3250999999999999</v>
+      </c>
+      <c r="M33" s="19">
+        <v>4.1540999999999997</v>
+      </c>
+      <c r="N33" s="19">
+        <v>1.8851</v>
+      </c>
+      <c r="O33" s="19"/>
+      <c r="P33" s="19">
+        <f>(H37-L37)/(J34-N34)</f>
+        <v>-1.7037528598964002</v>
+      </c>
+    </row>
+    <row r="34" spans="3:29">
+      <c r="G34" t="s">
+        <v>37</v>
+      </c>
+      <c r="H34" s="19">
+        <v>0</v>
+      </c>
+      <c r="I34" s="19">
+        <v>5.7232000000000003</v>
+      </c>
+      <c r="J34" s="19">
+        <v>-1.1550499999999999</v>
+      </c>
+      <c r="K34" t="s">
+        <v>37</v>
+      </c>
+      <c r="L34" s="19">
+        <v>0</v>
+      </c>
+      <c r="M34" s="19">
+        <v>5.7232000000000003</v>
+      </c>
+      <c r="N34" s="19">
+        <v>-1.1551499999999999</v>
+      </c>
+      <c r="O34" s="19"/>
+      <c r="P34" s="19"/>
+    </row>
+    <row r="35" spans="3:29">
+      <c r="G35" t="s">
+        <v>38</v>
+      </c>
+      <c r="H35" s="19">
+        <v>0</v>
+      </c>
+      <c r="I35" s="19">
+        <v>0</v>
+      </c>
+      <c r="J35" s="19">
+        <v>2.3222999999999998</v>
+      </c>
+      <c r="K35" t="s">
+        <v>38</v>
+      </c>
+      <c r="L35" s="19">
+        <v>0</v>
+      </c>
+      <c r="M35" s="19">
+        <v>0</v>
+      </c>
+      <c r="N35" s="19">
+        <v>2.3222999999999998</v>
+      </c>
+      <c r="O35" s="19"/>
+      <c r="P35" s="19"/>
+    </row>
+    <row r="36" spans="3:29">
+      <c r="H36" s="19"/>
+      <c r="I36" s="43"/>
+      <c r="J36" s="43"/>
+      <c r="L36" s="43"/>
+      <c r="M36" s="43"/>
+      <c r="N36" s="19"/>
+      <c r="O36" s="19"/>
+      <c r="P36" s="19"/>
+    </row>
+    <row r="37" spans="3:29">
+      <c r="G37" s="5"/>
+      <c r="H37" s="19">
+        <v>-254.458159617831</v>
+      </c>
+      <c r="I37" s="19"/>
+      <c r="J37" s="19"/>
+      <c r="K37" s="19"/>
+      <c r="L37" s="19">
+        <v>-254.45798924254501</v>
+      </c>
+      <c r="M37" s="19"/>
+      <c r="N37" s="19"/>
+      <c r="O37" s="19"/>
+      <c r="P37" s="19"/>
+      <c r="Q37" s="19"/>
+      <c r="U37" s="19"/>
+      <c r="V37" s="19"/>
+      <c r="W37" s="19"/>
+      <c r="X37" s="19"/>
+      <c r="Y37" s="19"/>
+    </row>
+    <row r="38" spans="3:29">
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="51" t="s">
+        <v>196</v>
+      </c>
+      <c r="I38" s="51"/>
+      <c r="J38" s="51"/>
+      <c r="K38" s="51"/>
+      <c r="L38" s="51" t="s">
+        <v>197</v>
+      </c>
+      <c r="M38" s="51"/>
+      <c r="N38" s="51"/>
+      <c r="O38" s="51"/>
+      <c r="P38" s="19"/>
+      <c r="Q38" s="19"/>
+      <c r="U38" s="19"/>
+      <c r="V38" s="19"/>
+      <c r="W38" s="19"/>
+      <c r="X38" s="19"/>
+      <c r="Y38" s="19"/>
+    </row>
+    <row r="39" spans="3:29">
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="G39" s="19"/>
+      <c r="H39" t="s">
+        <v>112</v>
+      </c>
+      <c r="I39" t="s">
+        <v>113</v>
+      </c>
+      <c r="J39" t="s">
+        <v>114</v>
+      </c>
+      <c r="L39" t="s">
+        <v>112</v>
+      </c>
+      <c r="M39" t="s">
+        <v>113</v>
+      </c>
+      <c r="N39" t="s">
+        <v>114</v>
+      </c>
+      <c r="O39" s="19"/>
+      <c r="P39" s="19"/>
+      <c r="Q39" s="19"/>
+      <c r="U39" s="19"/>
+      <c r="V39" s="19"/>
+      <c r="W39" s="19"/>
+      <c r="X39" s="19"/>
+      <c r="Y39" s="19"/>
+    </row>
+    <row r="40" spans="3:29">
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="G40" t="s">
+        <v>36</v>
+      </c>
+      <c r="H40" s="19">
+        <v>4.3250999999999999</v>
+      </c>
+      <c r="I40" s="19">
+        <v>4.1540999999999997</v>
+      </c>
+      <c r="J40" s="19">
+        <v>1.8851</v>
+      </c>
+      <c r="K40" t="s">
+        <v>36</v>
+      </c>
+      <c r="L40" s="19">
+        <v>4.3250999999999999</v>
+      </c>
+      <c r="M40" s="19">
+        <v>4.1540999999999997</v>
+      </c>
+      <c r="N40" s="19">
+        <v>1.8851</v>
+      </c>
+      <c r="O40" s="19"/>
+      <c r="P40" s="19">
+        <f>(H44-L44)/(J42-N42)</f>
+        <v>72.943841719978309</v>
+      </c>
+      <c r="Q40" s="19"/>
+      <c r="U40" s="19"/>
+      <c r="V40" s="19"/>
+      <c r="W40" s="19"/>
+      <c r="X40" s="19"/>
+      <c r="Y40" s="19"/>
+    </row>
+    <row r="41" spans="3:29">
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="G41" t="s">
+        <v>37</v>
+      </c>
+      <c r="H41" s="19">
+        <v>0</v>
+      </c>
+      <c r="I41" s="19">
+        <v>5.7232000000000003</v>
+      </c>
+      <c r="J41" s="19">
+        <v>-1.1551</v>
+      </c>
+      <c r="K41" t="s">
+        <v>37</v>
+      </c>
+      <c r="L41" s="19">
+        <v>0</v>
+      </c>
+      <c r="M41" s="19">
+        <v>5.7232000000000003</v>
+      </c>
+      <c r="N41" s="19">
+        <v>-1.1551</v>
+      </c>
+      <c r="O41" s="19"/>
+      <c r="P41" s="19"/>
+      <c r="Q41" s="19"/>
+      <c r="U41" s="19"/>
+      <c r="V41" s="19"/>
+      <c r="W41" s="19"/>
+      <c r="X41" s="19"/>
+      <c r="Y41" s="19"/>
+      <c r="AA41" s="16"/>
+      <c r="AB41" s="16"/>
+      <c r="AC41" s="16"/>
+    </row>
+    <row r="42" spans="3:29">
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="44"/>
+      <c r="G42" t="s">
+        <v>38</v>
+      </c>
+      <c r="H42" s="19">
+        <v>0</v>
+      </c>
+      <c r="I42" s="19">
+        <v>0</v>
+      </c>
+      <c r="J42" s="19">
+        <v>2.3223500000000001</v>
+      </c>
+      <c r="K42" t="s">
+        <v>38</v>
+      </c>
+      <c r="L42" s="19">
+        <v>0</v>
+      </c>
+      <c r="M42" s="19">
+        <v>0</v>
+      </c>
+      <c r="N42" s="19">
+        <v>2.3222499999999999</v>
+      </c>
+      <c r="O42" s="19"/>
+      <c r="P42" s="19"/>
+      <c r="Q42" s="19"/>
+      <c r="U42" s="19"/>
+      <c r="V42" s="19"/>
+      <c r="W42" s="19"/>
+      <c r="X42" s="19"/>
+      <c r="Y42" s="19"/>
+      <c r="AA42" s="16"/>
+      <c r="AB42" s="16"/>
+      <c r="AC42" s="16"/>
+    </row>
+    <row r="43" spans="3:29">
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="44"/>
+      <c r="H43" s="19"/>
+      <c r="I43" s="43"/>
+      <c r="J43" s="43"/>
+      <c r="L43" s="43"/>
+      <c r="M43" s="43"/>
+      <c r="N43" s="19"/>
+      <c r="O43" s="19"/>
+      <c r="P43" s="19"/>
+      <c r="Q43" s="19"/>
+      <c r="U43" s="19"/>
+      <c r="V43" s="19"/>
+      <c r="W43" s="19"/>
+      <c r="X43" s="19"/>
+      <c r="Y43" s="19"/>
+      <c r="AA43" s="16"/>
+      <c r="AB43" s="16"/>
+      <c r="AC43" s="16"/>
+    </row>
+    <row r="44" spans="3:29">
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
+      <c r="G44" s="19"/>
+      <c r="H44" s="19">
+        <v>-254.45442733540699</v>
+      </c>
+      <c r="I44" s="19"/>
+      <c r="J44" s="19"/>
+      <c r="K44" s="19"/>
+      <c r="L44" s="19">
+        <v>-254.461721719579</v>
+      </c>
+      <c r="M44" s="19"/>
+      <c r="N44" s="19"/>
+      <c r="O44" s="19"/>
+      <c r="P44" s="19"/>
+      <c r="Q44" s="19"/>
+      <c r="U44" s="19"/>
+      <c r="V44" s="19"/>
+      <c r="W44" s="19"/>
+      <c r="X44" s="19"/>
+      <c r="Y44" s="19"/>
+      <c r="AA44" s="16"/>
+      <c r="AB44" s="16"/>
+      <c r="AC44" s="16"/>
+    </row>
+    <row r="45" spans="3:29">
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="Q45" s="19"/>
+      <c r="U45" s="19"/>
+      <c r="V45" s="19"/>
+      <c r="W45" s="19"/>
+      <c r="X45" s="19"/>
+      <c r="Y45" s="19"/>
+      <c r="AA45" s="16"/>
+      <c r="AB45" s="16"/>
+      <c r="AC45" s="16"/>
+    </row>
+    <row r="46" spans="3:29">
+      <c r="C46" s="2"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="H46" s="19"/>
+      <c r="I46" s="19"/>
+      <c r="J46" s="6"/>
+      <c r="K46" s="6"/>
+      <c r="L46" s="6"/>
+      <c r="M46" s="6"/>
+      <c r="N46" s="19"/>
+      <c r="O46" s="19"/>
+      <c r="P46" s="19"/>
+      <c r="Q46" s="19"/>
+      <c r="U46" s="19"/>
+      <c r="V46" s="19"/>
+      <c r="W46" s="19"/>
+      <c r="X46" s="19"/>
+      <c r="Y46" s="19"/>
+      <c r="AA46" s="16"/>
+      <c r="AB46" s="16"/>
+      <c r="AC46" s="16"/>
+    </row>
+    <row r="47" spans="3:29">
+      <c r="C47" s="2"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="H47" s="19"/>
+      <c r="I47" s="19"/>
+      <c r="J47" s="6"/>
+      <c r="K47" s="6"/>
+      <c r="L47" s="6"/>
+      <c r="M47" s="6"/>
+      <c r="N47" s="19"/>
+      <c r="O47" s="19"/>
+      <c r="P47" s="19"/>
+      <c r="Q47" s="19"/>
+      <c r="U47" s="19"/>
+      <c r="V47" s="19"/>
+      <c r="W47" s="19"/>
+      <c r="X47" s="19"/>
+      <c r="Y47" s="19"/>
+      <c r="AA47" s="16"/>
+      <c r="AB47" s="16"/>
+      <c r="AC47" s="16"/>
+    </row>
+    <row r="48" spans="3:29">
+      <c r="C48" s="2"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="H48" s="19"/>
+      <c r="I48" s="19"/>
+      <c r="J48" s="6"/>
+      <c r="K48" s="6"/>
+      <c r="L48" s="6"/>
+      <c r="M48" s="6"/>
+      <c r="N48" s="19"/>
+      <c r="O48" s="19"/>
+      <c r="P48" s="19"/>
+      <c r="Q48" s="19"/>
+      <c r="U48" s="19"/>
+      <c r="V48" s="19"/>
+      <c r="W48" s="19"/>
+      <c r="X48" s="19"/>
+      <c r="Y48" s="19"/>
+      <c r="AA48" s="16"/>
+      <c r="AB48" s="16"/>
+      <c r="AC48" s="16"/>
+    </row>
+    <row r="49" spans="3:29">
+      <c r="C49" s="2"/>
+      <c r="H49" s="19"/>
+      <c r="I49" s="19"/>
+      <c r="J49" s="6"/>
+      <c r="K49" s="6"/>
+      <c r="L49" s="6"/>
+      <c r="M49" s="6"/>
+      <c r="N49" s="19"/>
+      <c r="O49" s="19"/>
+      <c r="P49" s="19"/>
+      <c r="Q49" s="19"/>
+      <c r="U49" s="19"/>
+      <c r="V49" s="19"/>
+      <c r="W49" s="19"/>
+      <c r="X49" s="19"/>
+      <c r="Y49" s="19"/>
+      <c r="AA49" s="16"/>
+      <c r="AB49" s="16"/>
+      <c r="AC49" s="16"/>
+    </row>
+    <row r="50" spans="3:29">
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="H50" s="19"/>
+      <c r="I50" s="19"/>
+      <c r="J50" s="6"/>
+      <c r="K50" s="6"/>
+      <c r="L50" s="6"/>
+      <c r="M50" s="6"/>
+      <c r="N50" s="19"/>
+      <c r="O50" s="19"/>
+      <c r="P50" s="19"/>
+      <c r="Q50" s="19"/>
+      <c r="U50" s="19"/>
+      <c r="V50" s="19"/>
+      <c r="W50" s="19"/>
+      <c r="X50" s="19"/>
+      <c r="Y50" s="19"/>
+      <c r="AA50" s="16"/>
+      <c r="AB50" s="16"/>
+      <c r="AC50" s="16"/>
+    </row>
+    <row r="51" spans="3:29">
+      <c r="C51" s="2"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+      <c r="H51" s="19"/>
+      <c r="I51" s="19"/>
+      <c r="J51" s="6"/>
+      <c r="K51" s="6"/>
+      <c r="L51" s="6"/>
+      <c r="M51" s="6"/>
+      <c r="N51" s="19"/>
+      <c r="O51" s="19"/>
+      <c r="P51" s="19"/>
+      <c r="Q51" s="19"/>
+      <c r="U51" s="19"/>
+      <c r="V51" s="19"/>
+      <c r="W51" s="19"/>
+      <c r="X51" s="19"/>
+      <c r="Y51" s="19"/>
+      <c r="AA51" s="16"/>
+      <c r="AB51" s="16"/>
+      <c r="AC51" s="16"/>
+    </row>
+    <row r="52" spans="3:29">
+      <c r="C52" s="2"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+      <c r="H52" s="19"/>
+      <c r="I52" s="19"/>
+      <c r="J52" s="6"/>
+      <c r="K52" s="6"/>
+      <c r="L52" s="6"/>
+      <c r="M52" s="6"/>
+      <c r="N52" s="19"/>
+      <c r="O52" s="19"/>
+      <c r="P52" s="19"/>
+      <c r="Q52" s="19"/>
+      <c r="U52" s="19"/>
+      <c r="V52" s="19"/>
+      <c r="W52" s="19"/>
+      <c r="X52" s="19"/>
+      <c r="Y52" s="19"/>
+      <c r="AA52" s="16"/>
+      <c r="AB52" s="16"/>
+      <c r="AC52" s="16"/>
+    </row>
+    <row r="53" spans="3:29">
+      <c r="C53" s="2"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4"/>
+      <c r="J53" s="6"/>
+      <c r="K53" s="6"/>
+      <c r="L53" s="6"/>
+      <c r="M53" s="6"/>
+      <c r="AA53" s="16"/>
+      <c r="AB53" s="16"/>
+      <c r="AC53" s="16"/>
+    </row>
+    <row r="54" spans="3:29">
+      <c r="D54" s="7"/>
+      <c r="E54" s="7"/>
+      <c r="J54" s="6"/>
+      <c r="K54" s="6"/>
+      <c r="L54" s="6"/>
+      <c r="M54" s="6"/>
+      <c r="AA54" s="16"/>
+      <c r="AB54" s="16"/>
+      <c r="AC54" s="16"/>
+    </row>
+    <row r="55" spans="3:29">
+      <c r="D55" s="7"/>
+      <c r="E55" s="7"/>
+      <c r="J55" s="6"/>
+      <c r="K55" s="6"/>
+      <c r="L55" s="6"/>
+      <c r="M55" s="6"/>
+      <c r="AA55" s="16"/>
+      <c r="AB55" s="16"/>
+      <c r="AC55" s="16"/>
+    </row>
+    <row r="56" spans="3:29">
+      <c r="D56" s="7"/>
+      <c r="E56" s="7"/>
+      <c r="J56" s="6"/>
+      <c r="K56" s="6"/>
+      <c r="L56" s="6"/>
+      <c r="M56" s="6"/>
+      <c r="AA56" s="16"/>
+      <c r="AB56" s="16"/>
+      <c r="AC56" s="16"/>
+    </row>
+    <row r="57" spans="3:29">
+      <c r="D57" s="7"/>
+      <c r="E57" s="7"/>
+    </row>
+    <row r="58" spans="3:29">
+      <c r="D58" s="7"/>
+      <c r="E58" s="7"/>
+    </row>
+    <row r="59" spans="3:29">
+      <c r="D59" s="7"/>
+      <c r="E59" s="7"/>
+    </row>
+    <row r="60" spans="3:29">
+      <c r="D60" s="7"/>
+      <c r="E60" s="7"/>
+    </row>
+    <row r="61" spans="3:29">
+      <c r="D61" s="7"/>
+      <c r="E61" s="7"/>
+    </row>
+    <row r="62" spans="3:29">
+      <c r="D62" s="7"/>
+      <c r="E62" s="7"/>
+    </row>
+    <row r="63" spans="3:29">
+      <c r="D63" s="7"/>
+      <c r="E63" s="7"/>
+    </row>
+    <row r="64" spans="3:29">
+      <c r="D64" s="7"/>
+      <c r="E64" s="7"/>
+    </row>
+    <row r="65" spans="4:6">
+      <c r="D65" s="7"/>
+      <c r="E65" s="7"/>
+      <c r="F65" s="44"/>
+    </row>
+    <row r="66" spans="4:6">
+      <c r="D66" s="7"/>
+      <c r="E66" s="7"/>
+      <c r="F66" s="44"/>
+    </row>
+    <row r="67" spans="4:6">
+      <c r="D67" s="7"/>
+      <c r="E67" s="7"/>
+      <c r="F67" s="44"/>
+    </row>
+    <row r="68" spans="4:6">
+      <c r="D68" s="7"/>
+      <c r="E68" s="7"/>
+      <c r="F68" s="44"/>
+    </row>
+    <row r="69" spans="4:6">
+      <c r="D69" s="7"/>
+      <c r="E69" s="7"/>
+      <c r="F69" s="44"/>
+    </row>
+    <row r="70" spans="4:6">
+      <c r="D70" s="7"/>
+      <c r="E70" s="7"/>
+      <c r="F70" s="44"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68943BD1-0AAE-FD49-A208-8D79B6BD1192}">
   <dimension ref="B2:Y87"/>
   <sheetViews>
@@ -3744,43 +11992,43 @@
     </row>
     <row r="15" spans="2:12">
       <c r="C15">
-        <f>SUM(C11:C14)</f>
+        <f t="shared" ref="C15:L15" si="0">SUM(C11:C14)</f>
         <v>2.9901</v>
       </c>
       <c r="D15">
-        <f>SUM(D11:D14)</f>
+        <f t="shared" si="0"/>
         <v>3.1962999999999999</v>
       </c>
       <c r="E15">
-        <f>SUM(E11:E14)</f>
+        <f t="shared" si="0"/>
         <v>3.4677000000000002</v>
       </c>
       <c r="F15">
-        <f>SUM(F11:F14)</f>
+        <f t="shared" si="0"/>
         <v>3.6032999999999999</v>
       </c>
       <c r="G15">
-        <f>SUM(G11:G14)</f>
+        <f t="shared" si="0"/>
         <v>3.4919000000000002</v>
       </c>
       <c r="H15">
-        <f>SUM(H11:H14)</f>
+        <f t="shared" si="0"/>
         <v>4.0877999999999997</v>
       </c>
       <c r="I15">
-        <f>SUM(I11:I14)</f>
+        <f t="shared" si="0"/>
         <v>3.4079000000000002</v>
       </c>
       <c r="J15">
-        <f>SUM(J11:J14)</f>
+        <f t="shared" si="0"/>
         <v>3.5076000000000001</v>
       </c>
       <c r="K15">
-        <f>SUM(K11:K14)</f>
+        <f t="shared" si="0"/>
         <v>3.6786000000000003</v>
       </c>
       <c r="L15">
-        <f>SUM(L11:L14)</f>
+        <f t="shared" si="0"/>
         <v>4.4705000000000004</v>
       </c>
     </row>
@@ -3963,43 +12211,43 @@
     </row>
     <row r="23" spans="2:12">
       <c r="C23">
-        <f>SUM(C19:C22)</f>
+        <f t="shared" ref="C23:L23" si="1">SUM(C19:C22)</f>
         <v>2.0266999999999999</v>
       </c>
       <c r="D23">
-        <f>SUM(D19:D22)</f>
+        <f t="shared" si="1"/>
         <v>2.0564</v>
       </c>
       <c r="E23">
-        <f>SUM(E19:E22)</f>
+        <f t="shared" si="1"/>
         <v>2.0646</v>
       </c>
       <c r="F23">
-        <f>SUM(F19:F22)</f>
+        <f t="shared" si="1"/>
         <v>2.2006999999999999</v>
       </c>
       <c r="G23">
-        <f>SUM(G19:G22)</f>
+        <f t="shared" si="1"/>
         <v>2.0821000000000001</v>
       </c>
       <c r="H23">
-        <f>SUM(H19:H22)</f>
+        <f t="shared" si="1"/>
         <v>2.2828999999999997</v>
       </c>
       <c r="I23">
-        <f>SUM(I19:I22)</f>
+        <f t="shared" si="1"/>
         <v>2.3233000000000001</v>
       </c>
       <c r="J23">
-        <f>SUM(J19:J22)</f>
+        <f t="shared" si="1"/>
         <v>2.4314999999999998</v>
       </c>
       <c r="K23">
-        <f>SUM(K19:K22)</f>
+        <f t="shared" si="1"/>
         <v>2.4543999999999997</v>
       </c>
       <c r="L23">
-        <f>SUM(L19:L22)</f>
+        <f t="shared" si="1"/>
         <v>2.3866000000000001</v>
       </c>
     </row>
@@ -4198,19 +12446,19 @@
         <v>2.0720000000000001</v>
       </c>
       <c r="G39" s="20">
-        <f t="shared" ref="G39:J39" si="0">SUM(G35:G38)</f>
+        <f t="shared" ref="G39:J39" si="2">SUM(G35:G38)</f>
         <v>2.2980999999999998</v>
       </c>
       <c r="H39" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.2837999999999998</v>
       </c>
       <c r="I39" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.5933000000000002</v>
       </c>
       <c r="J39" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.4260000000000002</v>
       </c>
       <c r="M39" s="20">
@@ -4394,19 +12642,19 @@
         <v>2.4093999999999998</v>
       </c>
       <c r="G47" s="20">
-        <f t="shared" ref="G47" si="1">SUM(G43:G46)</f>
+        <f t="shared" ref="G47" si="3">SUM(G43:G46)</f>
         <v>2.4900000000000002</v>
       </c>
       <c r="H47" s="20">
-        <f t="shared" ref="H47" si="2">SUM(H43:H46)</f>
+        <f t="shared" ref="H47" si="4">SUM(H43:H46)</f>
         <v>2.2141000000000002</v>
       </c>
       <c r="I47" s="20">
-        <f t="shared" ref="I47" si="3">SUM(I43:I46)</f>
+        <f t="shared" ref="I47" si="5">SUM(I43:I46)</f>
         <v>2.8045999999999998</v>
       </c>
       <c r="J47" s="20">
-        <f t="shared" ref="J47" si="4">SUM(J43:J46)</f>
+        <f t="shared" ref="J47" si="6">SUM(J43:J46)</f>
         <v>2.8343999999999996</v>
       </c>
     </row>
@@ -4529,19 +12777,19 @@
         <v>1.9176000000000002</v>
       </c>
       <c r="G55" s="20">
-        <f t="shared" ref="G55" si="5">SUM(G51:G54)</f>
+        <f t="shared" ref="G55" si="7">SUM(G51:G54)</f>
         <v>2.0103999999999997</v>
       </c>
       <c r="H55" s="20">
-        <f t="shared" ref="H55" si="6">SUM(H51:H54)</f>
+        <f t="shared" ref="H55" si="8">SUM(H51:H54)</f>
         <v>2.0876000000000001</v>
       </c>
       <c r="I55" s="20">
-        <f t="shared" ref="I55" si="7">SUM(I51:I54)</f>
+        <f t="shared" ref="I55" si="9">SUM(I51:I54)</f>
         <v>2.2080000000000002</v>
       </c>
       <c r="J55" s="20">
-        <f t="shared" ref="J55" si="8">SUM(J51:J54)</f>
+        <f t="shared" ref="J55" si="10">SUM(J51:J54)</f>
         <v>2.2808000000000002</v>
       </c>
     </row>
@@ -4618,19 +12866,19 @@
         <v>0</v>
       </c>
       <c r="G63" s="20">
-        <f t="shared" ref="G63" si="9">SUM(G59:G62)</f>
+        <f t="shared" ref="G63" si="11">SUM(G59:G62)</f>
         <v>0</v>
       </c>
       <c r="H63" s="20">
-        <f t="shared" ref="H63" si="10">SUM(H59:H62)</f>
+        <f t="shared" ref="H63" si="12">SUM(H59:H62)</f>
         <v>0</v>
       </c>
       <c r="I63" s="20">
-        <f t="shared" ref="I63" si="11">SUM(I59:I62)</f>
+        <f t="shared" ref="I63" si="13">SUM(I59:I62)</f>
         <v>0</v>
       </c>
       <c r="J63" s="20">
-        <f t="shared" ref="J63" si="12">SUM(J59:J62)</f>
+        <f t="shared" ref="J63" si="14">SUM(J59:J62)</f>
         <v>0</v>
       </c>
     </row>
@@ -4753,19 +13001,19 @@
         <v>2.0333000000000001</v>
       </c>
       <c r="G70" s="20">
-        <f t="shared" ref="G70" si="13">SUM(G66:G69)</f>
+        <f t="shared" ref="G70" si="15">SUM(G66:G69)</f>
         <v>2.2479</v>
       </c>
       <c r="H70" s="20">
-        <f t="shared" ref="H70" si="14">SUM(H66:H69)</f>
+        <f t="shared" ref="H70" si="16">SUM(H66:H69)</f>
         <v>2.089</v>
       </c>
       <c r="I70" s="20">
-        <f t="shared" ref="I70" si="15">SUM(I66:I69)</f>
+        <f t="shared" ref="I70" si="17">SUM(I66:I69)</f>
         <v>2.1736</v>
       </c>
       <c r="J70" s="20">
-        <f t="shared" ref="J70" si="16">SUM(J66:J69)</f>
+        <f t="shared" ref="J70" si="18">SUM(J66:J69)</f>
         <v>2.3339999999999996</v>
       </c>
     </row>
@@ -4888,19 +13136,19 @@
         <v>2.7731000000000003</v>
       </c>
       <c r="G78" s="20">
-        <f t="shared" ref="G78" si="17">SUM(G74:G77)</f>
+        <f t="shared" ref="G78" si="19">SUM(G74:G77)</f>
         <v>2.4288000000000003</v>
       </c>
       <c r="H78" s="20">
-        <f t="shared" ref="H78" si="18">SUM(H74:H77)</f>
+        <f t="shared" ref="H78" si="20">SUM(H74:H77)</f>
         <v>2.5971000000000002</v>
       </c>
       <c r="I78" s="20">
-        <f t="shared" ref="I78" si="19">SUM(I74:I77)</f>
+        <f t="shared" ref="I78" si="21">SUM(I74:I77)</f>
         <v>3.036</v>
       </c>
       <c r="J78" s="20">
-        <f t="shared" ref="J78" si="20">SUM(J74:J77)</f>
+        <f t="shared" ref="J78" si="22">SUM(J74:J77)</f>
         <v>2.5543999999999998</v>
       </c>
     </row>
@@ -5023,19 +13271,19 @@
         <v>2.8418000000000001</v>
       </c>
       <c r="G87" s="20">
-        <f t="shared" ref="G87" si="21">SUM(G83:G86)</f>
+        <f t="shared" ref="G87" si="23">SUM(G83:G86)</f>
         <v>2.7342999999999997</v>
       </c>
       <c r="H87" s="20">
-        <f t="shared" ref="H87" si="22">SUM(H83:H86)</f>
+        <f t="shared" ref="H87" si="24">SUM(H83:H86)</f>
         <v>2.8071000000000002</v>
       </c>
       <c r="I87" s="20">
-        <f t="shared" ref="I87" si="23">SUM(I83:I86)</f>
+        <f t="shared" ref="I87" si="25">SUM(I83:I86)</f>
         <v>3.4571000000000001</v>
       </c>
       <c r="J87" s="20">
-        <f t="shared" ref="J87" si="24">SUM(J83:J86)</f>
+        <f t="shared" ref="J87" si="26">SUM(J83:J86)</f>
         <v>2.8841000000000001</v>
       </c>
     </row>
@@ -13803,8 +22051,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A746DE6B-3206-3B41-B1E5-37F386A4C258}">
   <dimension ref="C3:AC73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="R35" sqref="R35"/>
+    <sheetView topLeftCell="A31" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H65" sqref="H65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -14247,6 +22495,16 @@
       </c>
     </row>
     <row r="14" spans="3:29">
+      <c r="C14" s="2"/>
+      <c r="D14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="H14" s="19" t="s">
         <v>132</v>
       </c>
@@ -14311,6 +22569,12 @@
       </c>
     </row>
     <row r="15" spans="3:29">
+      <c r="C15" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
       <c r="H15" s="19" t="s">
         <v>132</v>
       </c>
@@ -14375,6 +22639,12 @@
       </c>
     </row>
     <row r="16" spans="3:29">
+      <c r="C16" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
       <c r="H16" s="19" t="s">
         <v>132</v>
       </c>
@@ -14438,7 +22708,13 @@
         <v>7.9486977892314129E-6</v>
       </c>
     </row>
-    <row r="17" spans="6:29">
+    <row r="17" spans="3:29">
+      <c r="C17" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
       <c r="H17" s="19" t="s">
         <v>132</v>
       </c>
@@ -14502,7 +22778,10 @@
         <v>7.9508431336548037E-6</v>
       </c>
     </row>
-    <row r="18" spans="6:29">
+    <row r="18" spans="3:29">
+      <c r="C18" s="2" t="s">
+        <v>184</v>
+      </c>
       <c r="H18" s="19" t="s">
         <v>132</v>
       </c>
@@ -14566,7 +22845,17 @@
         <v>7.9427206290526884E-6</v>
       </c>
     </row>
-    <row r="19" spans="6:29">
+    <row r="19" spans="3:29">
+      <c r="C19" s="2"/>
+      <c r="D19" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>114</v>
+      </c>
       <c r="H19" s="19" t="s">
         <v>132</v>
       </c>
@@ -14630,7 +22919,13 @@
         <v>7.9114464605007266E-6</v>
       </c>
     </row>
-    <row r="20" spans="6:29">
+    <row r="20" spans="3:29">
+      <c r="C20" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
       <c r="H20" s="19" t="s">
         <v>132</v>
       </c>
@@ -14694,8 +22989,13 @@
         <v>7.9517253219199357E-6</v>
       </c>
     </row>
-    <row r="21" spans="6:29">
-      <c r="F21" s="18"/>
+    <row r="21" spans="3:29">
+      <c r="C21" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
       <c r="H21" s="19" t="s">
         <v>132</v>
       </c>
@@ -14758,6 +23058,14 @@
         <f t="shared" si="2"/>
         <v>7.9508431335577355E-6</v>
       </c>
+    </row>
+    <row r="22" spans="3:29">
+      <c r="C22" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
     </row>
     <row r="36" spans="3:29">
       <c r="C36" t="s">
@@ -14906,7 +23214,7 @@
         <v>-51.455429530000004</v>
       </c>
       <c r="E41" s="7">
-        <v>-129.29063499690801</v>
+        <v>-171.31902843107301</v>
       </c>
       <c r="H41" s="19" t="s">
         <v>131</v>
@@ -14979,7 +23287,7 @@
         <v>-225.12605854</v>
       </c>
       <c r="E42" s="7">
-        <v>-147.28865398144799</v>
+        <v>-105.260260503476</v>
       </c>
       <c r="F42" s="44"/>
       <c r="H42" s="19" t="s">
@@ -15053,11 +23361,11 @@
         <v>-276.58148806999998</v>
       </c>
       <c r="E43" s="7">
-        <v>-276.579288978357</v>
+        <v>-276.57928893454903</v>
       </c>
       <c r="F43" s="44">
         <f>(D43-E43)/D43</f>
-        <v>7.9509719118368237E-6</v>
+        <v>7.9511303026700878E-6</v>
       </c>
       <c r="H43" s="19" t="s">
         <v>131</v>
@@ -15189,8 +23497,16 @@
       </c>
     </row>
     <row r="45" spans="3:29">
-      <c r="D45" s="7"/>
-      <c r="E45" s="7"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="H45" s="19" t="s">
         <v>131</v>
       </c>
@@ -15255,8 +23571,18 @@
       </c>
     </row>
     <row r="46" spans="3:29">
-      <c r="D46" s="7"/>
-      <c r="E46" s="7"/>
+      <c r="C46" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D46" s="4">
+        <v>4.3</v>
+      </c>
+      <c r="E46" s="4">
+        <v>0</v>
+      </c>
+      <c r="F46" s="4">
+        <v>0</v>
+      </c>
       <c r="H46" s="19" t="s">
         <v>131</v>
       </c>
@@ -15321,8 +23647,18 @@
       </c>
     </row>
     <row r="47" spans="3:29">
-      <c r="D47" s="7"/>
-      <c r="E47" s="7"/>
+      <c r="C47" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D47" s="4">
+        <v>2.15</v>
+      </c>
+      <c r="E47" s="4">
+        <v>3.7239089999999999</v>
+      </c>
+      <c r="F47" s="4">
+        <v>0</v>
+      </c>
       <c r="H47" s="19" t="s">
         <v>131</v>
       </c>
@@ -15387,8 +23723,18 @@
       </c>
     </row>
     <row r="48" spans="3:29">
-      <c r="D48" s="7"/>
-      <c r="E48" s="7"/>
+      <c r="C48" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D48" s="4">
+        <v>1.8809130000000001</v>
+      </c>
+      <c r="E48" s="4">
+        <v>-1.150433</v>
+      </c>
+      <c r="F48" s="4">
+        <v>2.3191959999999998</v>
+      </c>
       <c r="H48" s="19" t="s">
         <v>131</v>
       </c>
@@ -15452,9 +23798,10 @@
         <v>7.6213703223723558E-6</v>
       </c>
     </row>
-    <row r="49" spans="4:29">
-      <c r="D49" s="7"/>
-      <c r="E49" s="7"/>
+    <row r="49" spans="3:29">
+      <c r="C49" s="2" t="s">
+        <v>184</v>
+      </c>
       <c r="H49" s="19" t="s">
         <v>132</v>
       </c>
@@ -15518,9 +23865,17 @@
         <v>8.0628237307050334E-6</v>
       </c>
     </row>
-    <row r="50" spans="4:29">
-      <c r="D50" s="7"/>
-      <c r="E50" s="7"/>
+    <row r="50" spans="3:29">
+      <c r="C50" s="2"/>
+      <c r="D50" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>114</v>
+      </c>
       <c r="H50" s="19" t="s">
         <v>132</v>
       </c>
@@ -15584,9 +23939,19 @@
         <v>7.8289836804913477E-6</v>
       </c>
     </row>
-    <row r="51" spans="4:29">
-      <c r="D51" s="7"/>
-      <c r="E51" s="7"/>
+    <row r="51" spans="3:29">
+      <c r="C51" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D51" s="4">
+        <v>4.3</v>
+      </c>
+      <c r="E51" s="4">
+        <v>2.15</v>
+      </c>
+      <c r="F51" s="4">
+        <v>1.8809130000000001</v>
+      </c>
       <c r="H51" s="19" t="s">
         <v>132</v>
       </c>
@@ -15650,10 +24015,19 @@
         <v>8.3051551284086667E-6</v>
       </c>
     </row>
-    <row r="52" spans="4:29">
-      <c r="D52" s="7"/>
-      <c r="E52" s="7"/>
-      <c r="F52" s="18"/>
+    <row r="52" spans="3:29">
+      <c r="C52" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D52" s="4">
+        <v>0</v>
+      </c>
+      <c r="E52" s="4">
+        <v>3.7239089999999999</v>
+      </c>
+      <c r="F52" s="4">
+        <v>-1.150433</v>
+      </c>
       <c r="H52" s="19" t="s">
         <v>132</v>
       </c>
@@ -15717,9 +24091,19 @@
         <v>7.9488572065154164E-6</v>
       </c>
     </row>
-    <row r="53" spans="4:29">
-      <c r="D53" s="7"/>
-      <c r="E53" s="7"/>
+    <row r="53" spans="3:29">
+      <c r="C53" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D53" s="4">
+        <v>0</v>
+      </c>
+      <c r="E53" s="4">
+        <v>0</v>
+      </c>
+      <c r="F53" s="4">
+        <v>2.3191959999999998</v>
+      </c>
       <c r="H53" t="s">
         <v>132</v>
       </c>
@@ -15781,7 +24165,7 @@
         <v>7.9469635236747831E-6</v>
       </c>
     </row>
-    <row r="54" spans="4:29">
+    <row r="54" spans="3:29">
       <c r="D54" s="7"/>
       <c r="E54" s="7"/>
       <c r="H54" t="s">
@@ -15845,7 +24229,7 @@
         <v>7.9504785654331248E-6</v>
       </c>
     </row>
-    <row r="55" spans="4:29">
+    <row r="55" spans="3:29">
       <c r="D55" s="7"/>
       <c r="E55" s="7"/>
       <c r="H55" t="s">
@@ -15909,7 +24293,7 @@
         <v>7.9505800868504216E-6</v>
       </c>
     </row>
-    <row r="56" spans="4:29">
+    <row r="56" spans="3:29">
       <c r="D56" s="7"/>
       <c r="E56" s="7"/>
       <c r="H56" t="s">
@@ -15973,35 +24357,35 @@
         <v>7.8523200313315377E-6</v>
       </c>
     </row>
-    <row r="57" spans="4:29">
+    <row r="57" spans="3:29">
       <c r="D57" s="7"/>
       <c r="E57" s="7"/>
     </row>
-    <row r="58" spans="4:29">
+    <row r="58" spans="3:29">
       <c r="D58" s="7"/>
       <c r="E58" s="7"/>
     </row>
-    <row r="59" spans="4:29">
+    <row r="59" spans="3:29">
       <c r="D59" s="7"/>
       <c r="E59" s="7"/>
     </row>
-    <row r="60" spans="4:29">
+    <row r="60" spans="3:29">
       <c r="D60" s="7"/>
       <c r="E60" s="7"/>
     </row>
-    <row r="61" spans="4:29">
+    <row r="61" spans="3:29">
       <c r="D61" s="7"/>
       <c r="E61" s="7"/>
     </row>
-    <row r="62" spans="4:29">
+    <row r="62" spans="3:29">
       <c r="D62" s="7"/>
       <c r="E62" s="7"/>
     </row>
-    <row r="63" spans="4:29">
+    <row r="63" spans="3:29">
       <c r="D63" s="7"/>
       <c r="E63" s="7"/>
     </row>
-    <row r="64" spans="4:29">
+    <row r="64" spans="3:29">
       <c r="D64" s="7" t="s">
         <v>0</v>
       </c>
@@ -16173,5 +24557,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/SLAM_Ext_Framwork/validation/EwaldTestValidation.xlsx
+++ b/SLAM_Ext_Framwork/validation/EwaldTestValidation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/woongkyujee/Desktop/ProjectPAX/SLAM Extension Reference/SLAM-3D-Extension/SLAM_Ext_Framwork/validation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDC0DAEC-EDF9-4842-88BC-69265741942E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{156DFAE1-4B8A-3E40-827A-FAD991C7C591}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6240" yWindow="1780" windowWidth="47980" windowHeight="25400" firstSheet="1" activeTab="12" xr2:uid="{ED569559-3BE8-BA43-B08A-1C36884B8A7F}"/>
+    <workbookView xWindow="20860" yWindow="960" windowWidth="47360" windowHeight="25400" firstSheet="4" activeTab="12" xr2:uid="{ED569559-3BE8-BA43-B08A-1C36884B8A7F}"/>
   </bookViews>
   <sheets>
     <sheet name="CubicTegragonalCell" sheetId="1" r:id="rId1"/>
@@ -25,8 +25,11 @@
     <sheet name="LatticeVec_derivative_Sub" sheetId="14" r:id="rId10"/>
     <sheet name="LatticeVec_derivative_FDM" sheetId="13" r:id="rId11"/>
     <sheet name="LatticeVec_derivative_Sub (2)" sheetId="16" r:id="rId12"/>
-    <sheet name="LatticeVec_derivative_FDM (2)" sheetId="15" r:id="rId13"/>
-    <sheet name="LatticeSum OPtimisation" sheetId="12" r:id="rId14"/>
+    <sheet name="Sheet1" sheetId="19" r:id="rId13"/>
+    <sheet name="LatticeVec_derivative_FDM (2)" sheetId="15" r:id="rId14"/>
+    <sheet name="LatticeVec_derivative_Sub (3)" sheetId="17" r:id="rId15"/>
+    <sheet name="LatticeVec_derivative_FDM (3)" sheetId="18" r:id="rId16"/>
+    <sheet name="LatticeSum OPtimisation" sheetId="12" r:id="rId17"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -126,7 +129,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1432" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1525" uniqueCount="201">
   <si>
     <t>GULP</t>
   </si>
@@ -726,6 +729,9 @@
   </si>
   <si>
     <t>Lattice Derivative Analytical</t>
+  </si>
+  <si>
+    <t>LP CORE</t>
   </si>
 </sst>
 </file>
@@ -7683,10 +7689,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A62F5094-9E00-B644-8274-86789F7A2542}">
-  <dimension ref="C3:AC73"/>
+  <dimension ref="C6:AC73"/>
   <sheetViews>
-    <sheetView topLeftCell="C35" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L58" sqref="L57:L58"/>
+    <sheetView topLeftCell="A27" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J61" sqref="J61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -7699,29 +7705,7 @@
     <col min="25" max="25" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:29">
-      <c r="C3" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="5" spans="3:29">
-      <c r="C5" t="s">
-        <v>146</v>
-      </c>
-    </row>
     <row r="6" spans="3:29">
-      <c r="C6" t="s">
-        <v>144</v>
-      </c>
-      <c r="D6">
-        <v>5.89</v>
-      </c>
-      <c r="E6">
-        <v>4.3</v>
-      </c>
-      <c r="F6">
-        <v>3.2</v>
-      </c>
       <c r="H6" s="19"/>
       <c r="I6" s="19"/>
       <c r="J6" s="19"/>
@@ -7742,18 +7726,6 @@
       <c r="Y6" s="19"/>
     </row>
     <row r="7" spans="3:29">
-      <c r="C7" t="s">
-        <v>143</v>
-      </c>
-      <c r="D7">
-        <v>88</v>
-      </c>
-      <c r="E7">
-        <v>54</v>
-      </c>
-      <c r="F7">
-        <v>60</v>
-      </c>
       <c r="H7" s="19"/>
       <c r="I7" s="19"/>
       <c r="J7" s="19"/>
@@ -7774,50 +7746,26 @@
       <c r="Y7" s="19"/>
     </row>
     <row r="8" spans="3:29">
-      <c r="H8" s="43" t="s">
-        <v>149</v>
-      </c>
+      <c r="H8" s="43"/>
       <c r="I8" s="43"/>
-      <c r="J8" s="43" t="s">
-        <v>150</v>
-      </c>
-      <c r="K8" s="43" t="s">
-        <v>153</v>
-      </c>
-      <c r="L8" s="43" t="s">
-        <v>152</v>
-      </c>
+      <c r="J8" s="43"/>
+      <c r="K8" s="43"/>
+      <c r="L8" s="43"/>
       <c r="M8" s="19"/>
       <c r="N8" s="19"/>
-      <c r="O8" s="19" t="s">
-        <v>0</v>
-      </c>
+      <c r="O8" s="19"/>
       <c r="P8" s="19"/>
       <c r="Q8" s="19"/>
       <c r="R8" s="19"/>
       <c r="S8" s="19"/>
       <c r="T8" s="19"/>
-      <c r="U8" s="19" t="s">
-        <v>147</v>
-      </c>
+      <c r="U8" s="19"/>
       <c r="V8" s="19"/>
       <c r="W8" s="19"/>
       <c r="X8" s="19"/>
       <c r="Y8" s="19"/>
-      <c r="AA8" t="s">
-        <v>56</v>
-      </c>
     </row>
     <row r="9" spans="3:29">
-      <c r="C9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" t="s">
-        <v>0</v>
-      </c>
-      <c r="E9" t="s">
-        <v>147</v>
-      </c>
       <c r="H9" s="19"/>
       <c r="I9" s="19"/>
       <c r="J9" s="19"/>
@@ -7825,878 +7773,326 @@
       <c r="L9" s="19"/>
       <c r="M9" s="19"/>
       <c r="N9" s="19"/>
-      <c r="O9" s="19" t="s">
-        <v>148</v>
-      </c>
+      <c r="O9" s="19"/>
       <c r="P9" s="19"/>
       <c r="Q9" s="19"/>
       <c r="R9" s="19"/>
       <c r="S9" s="19"/>
       <c r="T9" s="19"/>
-      <c r="U9" s="19" t="s">
-        <v>148</v>
-      </c>
+      <c r="U9" s="19"/>
       <c r="V9" s="19"/>
       <c r="W9" s="19"/>
       <c r="X9" s="19"/>
       <c r="Y9" s="19"/>
     </row>
     <row r="10" spans="3:29">
-      <c r="C10" t="s">
-        <v>138</v>
-      </c>
-      <c r="D10">
-        <v>-67.988583379999994</v>
-      </c>
-      <c r="E10">
-        <v>-105.846295519519</v>
-      </c>
-      <c r="H10" s="19" t="s">
-        <v>131</v>
-      </c>
-      <c r="I10" s="19" t="s">
-        <v>133</v>
-      </c>
-      <c r="J10" s="19">
-        <v>0.05</v>
-      </c>
-      <c r="K10" s="19">
-        <v>0</v>
-      </c>
-      <c r="L10" s="19">
-        <v>0</v>
-      </c>
-      <c r="M10" s="19">
-        <v>2</v>
-      </c>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="19"/>
       <c r="N10" s="19"/>
-      <c r="O10" s="19" t="s">
-        <v>131</v>
-      </c>
-      <c r="P10" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q10" s="19">
-        <v>-2.1221169999999998</v>
-      </c>
-      <c r="R10" s="19">
-        <v>29.318014999999999</v>
-      </c>
-      <c r="S10" s="19">
-        <v>-33.788389000000002</v>
-      </c>
+      <c r="O10" s="19"/>
+      <c r="P10" s="19"/>
+      <c r="Q10" s="19"/>
+      <c r="R10" s="19"/>
+      <c r="S10" s="19"/>
       <c r="T10" s="19"/>
-      <c r="U10" s="19" t="s">
-        <v>131</v>
-      </c>
-      <c r="V10" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="W10" s="19">
-        <v>-2.1221000000000001</v>
-      </c>
-      <c r="X10" s="19">
-        <v>29.317782000000001</v>
-      </c>
-      <c r="Y10" s="19">
-        <v>-33.788119999999999</v>
-      </c>
-      <c r="AA10" s="16">
-        <f t="shared" ref="AA10:AC21" si="0">(Q10-W10)/Q10</f>
-        <v>8.0108683921346896E-6</v>
-      </c>
-      <c r="AB10" s="16">
-        <f t="shared" si="0"/>
-        <v>7.9473320413380422E-6</v>
-      </c>
-      <c r="AC10" s="16">
-        <f t="shared" si="0"/>
-        <v>7.9613147582431737E-6</v>
-      </c>
+      <c r="U10" s="19"/>
+      <c r="V10" s="19"/>
+      <c r="W10" s="19"/>
+      <c r="X10" s="19"/>
+      <c r="Y10" s="19"/>
+      <c r="AA10" s="16"/>
+      <c r="AB10" s="16"/>
+      <c r="AC10" s="16"/>
     </row>
     <row r="11" spans="3:29">
-      <c r="C11" t="s">
-        <v>139</v>
-      </c>
-      <c r="D11">
-        <v>-205.47066222000001</v>
-      </c>
-      <c r="E11">
-        <v>-167.61077580654799</v>
-      </c>
-      <c r="H11" s="19" t="s">
-        <v>131</v>
-      </c>
-      <c r="I11" s="19" t="s">
-        <v>133</v>
-      </c>
-      <c r="J11" s="19">
-        <v>0.49</v>
-      </c>
-      <c r="K11" s="19">
-        <v>0.52</v>
-      </c>
-      <c r="L11" s="19">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="M11" s="19">
-        <v>2</v>
-      </c>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="19"/>
       <c r="N11" s="19"/>
-      <c r="O11" s="19" t="s">
-        <v>131</v>
-      </c>
-      <c r="P11" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q11" s="19">
-        <v>24.505184</v>
-      </c>
-      <c r="R11" s="19">
-        <v>24.302281000000001</v>
-      </c>
-      <c r="S11" s="19">
-        <v>-2.3867440000000002</v>
-      </c>
+      <c r="O11" s="19"/>
+      <c r="P11" s="19"/>
+      <c r="Q11" s="19"/>
+      <c r="R11" s="19"/>
+      <c r="S11" s="19"/>
       <c r="T11" s="19"/>
-      <c r="U11" s="19" t="s">
-        <v>131</v>
-      </c>
-      <c r="V11" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="W11" s="19">
-        <v>24.504988999999998</v>
-      </c>
-      <c r="X11" s="19">
-        <v>24.302088000000001</v>
-      </c>
-      <c r="Y11" s="19">
-        <v>-2.3867250000000002</v>
-      </c>
-      <c r="AA11" s="16">
-        <f t="shared" si="0"/>
-        <v>7.9574999315042704E-6</v>
-      </c>
-      <c r="AB11" s="16">
-        <f t="shared" si="0"/>
-        <v>7.9416413627775765E-6</v>
-      </c>
-      <c r="AC11" s="16">
-        <f t="shared" si="0"/>
-        <v>7.9606359123522441E-6</v>
-      </c>
+      <c r="U11" s="19"/>
+      <c r="V11" s="19"/>
+      <c r="W11" s="19"/>
+      <c r="X11" s="19"/>
+      <c r="Y11" s="19"/>
+      <c r="AA11" s="16"/>
+      <c r="AB11" s="16"/>
+      <c r="AC11" s="16"/>
     </row>
     <row r="12" spans="3:29">
-      <c r="C12" t="s">
-        <v>140</v>
-      </c>
-      <c r="D12">
-        <v>-273.45924560999998</v>
-      </c>
-      <c r="E12">
-        <v>-273.45707132606799</v>
-      </c>
-      <c r="F12" s="18">
-        <f>(D12-E12)/D12</f>
-        <v>7.951034630928544E-6</v>
-      </c>
-      <c r="H12" s="19" t="s">
-        <v>131</v>
-      </c>
-      <c r="I12" s="19" t="s">
-        <v>133</v>
-      </c>
-      <c r="J12" s="19">
-        <v>0.5</v>
-      </c>
-      <c r="K12" s="19">
-        <v>0</v>
-      </c>
-      <c r="L12" s="19">
-        <v>0.5</v>
-      </c>
-      <c r="M12" s="19">
-        <v>2</v>
-      </c>
+      <c r="F12" s="18"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="19"/>
       <c r="N12" s="19"/>
-      <c r="O12" s="19" t="s">
-        <v>131</v>
-      </c>
-      <c r="P12" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q12" s="19">
-        <v>-39.756037999999997</v>
-      </c>
-      <c r="R12" s="19">
-        <v>-28.327783</v>
-      </c>
-      <c r="S12" s="19">
-        <v>-21.779077999999998</v>
-      </c>
+      <c r="O12" s="19"/>
+      <c r="P12" s="19"/>
+      <c r="Q12" s="19"/>
+      <c r="R12" s="19"/>
+      <c r="S12" s="19"/>
       <c r="T12" s="19"/>
-      <c r="U12" s="19" t="s">
-        <v>131</v>
-      </c>
-      <c r="V12" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="W12" s="19">
-        <v>-39.755721999999999</v>
-      </c>
-      <c r="X12" s="19">
-        <v>-28.327558</v>
-      </c>
-      <c r="Y12" s="19">
-        <v>-21.778905000000002</v>
-      </c>
-      <c r="AA12" s="16">
-        <f t="shared" si="0"/>
-        <v>7.9484781657061651E-6</v>
-      </c>
-      <c r="AB12" s="16">
-        <f t="shared" si="0"/>
-        <v>7.9427324051572905E-6</v>
-      </c>
-      <c r="AC12" s="16">
-        <f t="shared" si="0"/>
-        <v>7.9434032972675926E-6</v>
-      </c>
+      <c r="U12" s="19"/>
+      <c r="V12" s="19"/>
+      <c r="W12" s="19"/>
+      <c r="X12" s="19"/>
+      <c r="Y12" s="19"/>
+      <c r="AA12" s="16"/>
+      <c r="AB12" s="16"/>
+      <c r="AC12" s="16"/>
     </row>
     <row r="13" spans="3:29">
-      <c r="H13" s="19" t="s">
-        <v>131</v>
-      </c>
-      <c r="I13" s="19" t="s">
-        <v>133</v>
-      </c>
-      <c r="J13" s="19">
-        <v>0</v>
-      </c>
-      <c r="K13" s="19">
-        <v>0.52</v>
-      </c>
-      <c r="L13" s="19">
-        <v>0.5</v>
-      </c>
-      <c r="M13" s="19">
-        <v>2</v>
-      </c>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="19"/>
       <c r="N13" s="19"/>
-      <c r="O13" s="19" t="s">
-        <v>131</v>
-      </c>
-      <c r="P13" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q13" s="19">
-        <v>-227.10598200000001</v>
-      </c>
-      <c r="R13" s="19">
-        <v>-112.411174</v>
-      </c>
-      <c r="S13" s="19">
-        <v>474.70942100000002</v>
-      </c>
+      <c r="O13" s="19"/>
+      <c r="P13" s="19"/>
+      <c r="Q13" s="19"/>
+      <c r="R13" s="19"/>
+      <c r="S13" s="19"/>
       <c r="T13" s="19"/>
-      <c r="U13" s="19" t="s">
-        <v>131</v>
-      </c>
-      <c r="V13" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="W13" s="19">
-        <v>-227.104176</v>
-      </c>
-      <c r="X13" s="19">
-        <v>-112.410281</v>
-      </c>
-      <c r="Y13" s="19">
-        <v>474.705646</v>
-      </c>
-      <c r="AA13" s="16">
-        <f t="shared" si="0"/>
-        <v>7.9522343890359675E-6</v>
-      </c>
-      <c r="AB13" s="16">
-        <f t="shared" si="0"/>
-        <v>7.9440501173390259E-6</v>
-      </c>
-      <c r="AC13" s="16">
-        <f t="shared" si="0"/>
-        <v>7.9522331620604931E-6</v>
-      </c>
+      <c r="U13" s="19"/>
+      <c r="V13" s="19"/>
+      <c r="W13" s="19"/>
+      <c r="X13" s="19"/>
+      <c r="Y13" s="19"/>
+      <c r="AA13" s="16"/>
+      <c r="AB13" s="16"/>
+      <c r="AC13" s="16"/>
     </row>
     <row r="14" spans="3:29">
       <c r="C14" s="2"/>
-      <c r="D14" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H14" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="I14" s="19" t="s">
-        <v>133</v>
-      </c>
-      <c r="J14" s="19">
-        <v>0.5</v>
-      </c>
-      <c r="K14" s="19">
-        <v>0.5</v>
-      </c>
-      <c r="L14" s="19">
-        <v>0.5</v>
-      </c>
-      <c r="M14" s="19">
-        <v>1</v>
-      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="19"/>
+      <c r="M14" s="19"/>
       <c r="N14" s="19"/>
-      <c r="O14" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="P14" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q14" s="19">
-        <v>2.8440210000000001</v>
-      </c>
-      <c r="R14" s="19">
-        <v>15.025373</v>
-      </c>
-      <c r="S14" s="19">
-        <v>-6.0432689999999996</v>
-      </c>
+      <c r="O14" s="19"/>
+      <c r="P14" s="19"/>
+      <c r="Q14" s="19"/>
+      <c r="R14" s="19"/>
+      <c r="S14" s="19"/>
       <c r="T14" s="19"/>
-      <c r="U14" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="V14" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="W14" s="19">
-        <v>2.8439990000000002</v>
-      </c>
-      <c r="X14" s="19">
-        <v>15.025254</v>
-      </c>
-      <c r="Y14" s="19">
-        <v>-6.043221</v>
-      </c>
-      <c r="AA14" s="16">
-        <f t="shared" si="0"/>
-        <v>7.735526566071941E-6</v>
-      </c>
-      <c r="AB14" s="16">
-        <f t="shared" si="0"/>
-        <v>7.9199364967351014E-6</v>
-      </c>
-      <c r="AC14" s="16">
-        <f t="shared" si="0"/>
-        <v>7.942721066959608E-6</v>
-      </c>
+      <c r="U14" s="19"/>
+      <c r="V14" s="19"/>
+      <c r="W14" s="19"/>
+      <c r="X14" s="19"/>
+      <c r="Y14" s="19"/>
+      <c r="AA14" s="16"/>
+      <c r="AB14" s="16"/>
+      <c r="AC14" s="16"/>
     </row>
     <row r="15" spans="3:29">
-      <c r="C15" s="2" t="s">
-        <v>112</v>
-      </c>
+      <c r="C15" s="2"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
-      <c r="H15" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="I15" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="J15" s="19">
-        <v>0.5</v>
-      </c>
-      <c r="K15" s="19">
-        <v>0.5</v>
-      </c>
-      <c r="L15" s="19">
-        <v>0.5</v>
-      </c>
-      <c r="M15" s="19">
-        <v>-3</v>
-      </c>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="19"/>
+      <c r="M15" s="19"/>
       <c r="N15" s="19"/>
-      <c r="O15" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="P15" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q15" s="19">
-        <v>-8.8358969999999992</v>
-      </c>
-      <c r="R15" s="19">
-        <v>-17.968553</v>
-      </c>
-      <c r="S15" s="19">
-        <v>-7.1856369999999998</v>
-      </c>
+      <c r="O15" s="19"/>
+      <c r="P15" s="19"/>
+      <c r="Q15" s="19"/>
+      <c r="R15" s="19"/>
+      <c r="S15" s="19"/>
       <c r="T15" s="19"/>
-      <c r="U15" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="V15" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="W15" s="19">
-        <v>-8.8358270000000001</v>
-      </c>
-      <c r="X15" s="19">
-        <v>-17.968409999999999</v>
-      </c>
-      <c r="Y15" s="19">
-        <v>-7.1855789999999997</v>
-      </c>
-      <c r="AA15" s="16">
-        <f t="shared" si="0"/>
-        <v>7.9222290616477672E-6</v>
-      </c>
-      <c r="AB15" s="16">
-        <f t="shared" si="0"/>
-        <v>7.9583481208162117E-6</v>
-      </c>
-      <c r="AC15" s="16">
-        <f t="shared" si="0"/>
-        <v>8.0716573910028463E-6</v>
-      </c>
+      <c r="U15" s="19"/>
+      <c r="V15" s="19"/>
+      <c r="W15" s="19"/>
+      <c r="X15" s="19"/>
+      <c r="Y15" s="19"/>
+      <c r="AA15" s="16"/>
+      <c r="AB15" s="16"/>
+      <c r="AC15" s="16"/>
     </row>
     <row r="16" spans="3:29">
-      <c r="C16" s="2" t="s">
-        <v>113</v>
-      </c>
+      <c r="C16" s="2"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
-      <c r="H16" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="I16" s="19" t="s">
-        <v>133</v>
-      </c>
-      <c r="J16" s="19">
-        <v>0.5</v>
-      </c>
-      <c r="K16" s="19">
-        <v>0</v>
-      </c>
-      <c r="L16" s="19">
-        <v>-0.04</v>
-      </c>
-      <c r="M16" s="19">
-        <v>1</v>
-      </c>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="19"/>
+      <c r="M16" s="19"/>
       <c r="N16" s="19"/>
-      <c r="O16" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="P16" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q16" s="19">
-        <v>-304.43766699999998</v>
-      </c>
-      <c r="R16" s="19">
-        <v>-198.73353599999999</v>
-      </c>
-      <c r="S16" s="19">
-        <v>173.36172999999999</v>
-      </c>
+      <c r="O16" s="19"/>
+      <c r="P16" s="19"/>
+      <c r="Q16" s="19"/>
+      <c r="R16" s="19"/>
+      <c r="S16" s="19"/>
       <c r="T16" s="19"/>
-      <c r="U16" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="V16" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="W16" s="19">
-        <v>-304.435247</v>
-      </c>
-      <c r="X16" s="19">
-        <v>-198.731956</v>
-      </c>
-      <c r="Y16" s="19">
-        <v>173.36035200000001</v>
-      </c>
-      <c r="AA16" s="16">
-        <f t="shared" si="0"/>
-        <v>7.949082069310213E-6</v>
-      </c>
-      <c r="AB16" s="16">
-        <f t="shared" si="0"/>
-        <v>7.9503441230468663E-6</v>
-      </c>
-      <c r="AC16" s="16">
-        <f t="shared" si="0"/>
-        <v>7.9486977892314129E-6</v>
-      </c>
+      <c r="U16" s="19"/>
+      <c r="V16" s="19"/>
+      <c r="W16" s="19"/>
+      <c r="X16" s="19"/>
+      <c r="Y16" s="19"/>
+      <c r="AA16" s="16"/>
+      <c r="AB16" s="16"/>
+      <c r="AC16" s="16"/>
     </row>
     <row r="17" spans="3:29">
-      <c r="C17" s="2" t="s">
-        <v>114</v>
-      </c>
+      <c r="C17" s="2"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
-      <c r="H17" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="I17" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="J17" s="19">
-        <v>0.5</v>
-      </c>
-      <c r="K17" s="19">
-        <v>0</v>
-      </c>
-      <c r="L17" s="19">
-        <v>-0.03</v>
-      </c>
-      <c r="M17" s="19">
-        <v>-3</v>
-      </c>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="19"/>
+      <c r="L17" s="19"/>
+      <c r="M17" s="19"/>
       <c r="N17" s="19"/>
-      <c r="O17" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="P17" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q17" s="19">
-        <v>0.49326399999999998</v>
-      </c>
-      <c r="R17" s="19">
-        <v>8.6332199999999997</v>
-      </c>
-      <c r="S17" s="19">
-        <v>-12.199964</v>
-      </c>
+      <c r="O17" s="19"/>
+      <c r="P17" s="19"/>
+      <c r="Q17" s="19"/>
+      <c r="R17" s="19"/>
+      <c r="S17" s="19"/>
       <c r="T17" s="19"/>
-      <c r="U17" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="V17" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="W17" s="19">
-        <v>0.49325999999999998</v>
-      </c>
-      <c r="X17" s="19">
-        <v>8.6331509999999998</v>
-      </c>
-      <c r="Y17" s="19">
-        <v>-12.199866999999999</v>
-      </c>
-      <c r="AA17" s="16">
-        <f t="shared" si="0"/>
-        <v>8.1092477861834645E-6</v>
-      </c>
-      <c r="AB17" s="16">
-        <f t="shared" si="0"/>
-        <v>7.9923829115758336E-6</v>
-      </c>
-      <c r="AC17" s="16">
-        <f t="shared" si="0"/>
-        <v>7.9508431336548037E-6</v>
-      </c>
+      <c r="U17" s="19"/>
+      <c r="V17" s="19"/>
+      <c r="W17" s="19"/>
+      <c r="X17" s="19"/>
+      <c r="Y17" s="19"/>
+      <c r="AA17" s="16"/>
+      <c r="AB17" s="16"/>
+      <c r="AC17" s="16"/>
     </row>
     <row r="18" spans="3:29">
-      <c r="C18" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="H18" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="I18" s="19" t="s">
-        <v>133</v>
-      </c>
-      <c r="J18" s="19">
-        <v>0.1</v>
-      </c>
-      <c r="K18" s="19">
-        <v>0.5</v>
-      </c>
-      <c r="L18" s="19">
-        <v>0.32</v>
-      </c>
-      <c r="M18" s="19">
-        <v>1</v>
-      </c>
+      <c r="C18" s="2"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="19"/>
+      <c r="L18" s="19"/>
+      <c r="M18" s="19"/>
       <c r="N18" s="19"/>
-      <c r="O18" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="P18" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q18" s="19">
-        <v>-8.5320640000000001</v>
-      </c>
-      <c r="R18" s="19">
-        <v>-45.076118999999998</v>
-      </c>
-      <c r="S18" s="19">
-        <v>18.129808000000001</v>
-      </c>
+      <c r="O18" s="19"/>
+      <c r="P18" s="19"/>
+      <c r="Q18" s="19"/>
+      <c r="R18" s="19"/>
+      <c r="S18" s="19"/>
       <c r="T18" s="19"/>
-      <c r="U18" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="V18" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="W18" s="19">
-        <v>-8.5319959999999995</v>
-      </c>
-      <c r="X18" s="19">
-        <v>-45.075761</v>
-      </c>
-      <c r="Y18" s="19">
-        <v>18.129663999999998</v>
-      </c>
-      <c r="AA18" s="16">
-        <f t="shared" si="0"/>
-        <v>7.9699355279828093E-6</v>
-      </c>
-      <c r="AB18" s="16">
-        <f t="shared" si="0"/>
-        <v>7.94212119278783E-6</v>
-      </c>
-      <c r="AC18" s="16">
-        <f t="shared" si="0"/>
-        <v>7.9427206290526884E-6</v>
-      </c>
+      <c r="U18" s="19"/>
+      <c r="V18" s="19"/>
+      <c r="W18" s="19"/>
+      <c r="X18" s="19"/>
+      <c r="Y18" s="19"/>
+      <c r="AA18" s="16"/>
+      <c r="AB18" s="16"/>
+      <c r="AC18" s="16"/>
     </row>
     <row r="19" spans="3:29">
       <c r="C19" s="2"/>
-      <c r="D19" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="H19" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="I19" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="J19" s="19">
-        <v>0.1</v>
-      </c>
-      <c r="K19" s="19">
-        <v>0.48</v>
-      </c>
-      <c r="L19" s="19">
-        <v>0.3</v>
-      </c>
-      <c r="M19" s="19">
-        <v>-3</v>
-      </c>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="19"/>
+      <c r="M19" s="19"/>
       <c r="N19" s="19"/>
-      <c r="O19" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="P19" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q19" s="19">
-        <v>18.362038999999999</v>
-      </c>
-      <c r="R19" s="19">
-        <v>53.082394000000001</v>
-      </c>
-      <c r="S19" s="19">
-        <v>13.903905</v>
-      </c>
+      <c r="O19" s="19"/>
+      <c r="P19" s="19"/>
+      <c r="Q19" s="19"/>
+      <c r="R19" s="19"/>
+      <c r="S19" s="19"/>
       <c r="T19" s="19"/>
-      <c r="U19" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="V19" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="W19" s="19">
-        <v>18.361892999999998</v>
-      </c>
-      <c r="X19" s="19">
-        <v>53.081972</v>
-      </c>
-      <c r="Y19" s="19">
-        <v>13.903795000000001</v>
-      </c>
-      <c r="AA19" s="16">
-        <f t="shared" si="0"/>
-        <v>7.9511866847068377E-6</v>
-      </c>
-      <c r="AB19" s="16">
-        <f t="shared" si="0"/>
-        <v>7.9499051983293462E-6</v>
-      </c>
-      <c r="AC19" s="16">
-        <f t="shared" si="0"/>
-        <v>7.9114464605007266E-6</v>
-      </c>
+      <c r="U19" s="19"/>
+      <c r="V19" s="19"/>
+      <c r="W19" s="19"/>
+      <c r="X19" s="19"/>
+      <c r="Y19" s="19"/>
+      <c r="AA19" s="16"/>
+      <c r="AB19" s="16"/>
+      <c r="AC19" s="16"/>
     </row>
     <row r="20" spans="3:29">
-      <c r="C20" s="2" t="s">
-        <v>36</v>
-      </c>
+      <c r="C20" s="2"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
-      <c r="H20" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="I20" s="19" t="s">
-        <v>133</v>
-      </c>
-      <c r="J20" s="19">
-        <v>0</v>
-      </c>
-      <c r="K20" s="19">
-        <v>0</v>
-      </c>
-      <c r="L20" s="19">
-        <v>0.5</v>
-      </c>
-      <c r="M20" s="19">
-        <v>1</v>
-      </c>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="19"/>
+      <c r="K20" s="19"/>
+      <c r="L20" s="19"/>
+      <c r="M20" s="19"/>
       <c r="N20" s="19"/>
-      <c r="O20" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="P20" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q20" s="19">
-        <v>546.06504800000005</v>
-      </c>
-      <c r="R20" s="19">
-        <v>298.055543</v>
-      </c>
-      <c r="S20" s="19">
-        <v>-633.32167500000003</v>
-      </c>
+      <c r="O20" s="19"/>
+      <c r="P20" s="19"/>
+      <c r="Q20" s="19"/>
+      <c r="R20" s="19"/>
+      <c r="S20" s="19"/>
       <c r="T20" s="19"/>
-      <c r="U20" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="V20" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="W20" s="19">
-        <v>546.06070599999998</v>
-      </c>
-      <c r="X20" s="19">
-        <v>298.05317300000002</v>
-      </c>
-      <c r="Y20" s="19">
-        <v>-633.31663900000001</v>
-      </c>
-      <c r="AA20" s="16">
-        <f t="shared" si="0"/>
-        <v>7.9514336542285465E-6</v>
-      </c>
-      <c r="AB20" s="16">
-        <f t="shared" si="0"/>
-        <v>7.9515380795480936E-6</v>
-      </c>
-      <c r="AC20" s="16">
-        <f t="shared" si="0"/>
-        <v>7.9517253219199357E-6</v>
-      </c>
+      <c r="U20" s="19"/>
+      <c r="V20" s="19"/>
+      <c r="W20" s="19"/>
+      <c r="X20" s="19"/>
+      <c r="Y20" s="19"/>
+      <c r="AA20" s="16"/>
+      <c r="AB20" s="16"/>
+      <c r="AC20" s="16"/>
     </row>
     <row r="21" spans="3:29">
-      <c r="C21" s="2" t="s">
-        <v>37</v>
-      </c>
+      <c r="C21" s="2"/>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
-      <c r="H21" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="I21" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="J21" s="19">
-        <v>0</v>
-      </c>
-      <c r="K21" s="19">
-        <v>0</v>
-      </c>
-      <c r="L21" s="19">
-        <v>0.5</v>
-      </c>
-      <c r="M21" s="19">
-        <v>-3</v>
-      </c>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="19"/>
+      <c r="L21" s="19"/>
+      <c r="M21" s="19"/>
       <c r="N21" s="19"/>
-      <c r="O21" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="P21" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q21" s="19">
-        <v>-1.4797910000000001</v>
-      </c>
-      <c r="R21" s="19">
-        <v>-25.899660000000001</v>
-      </c>
-      <c r="S21" s="19">
-        <v>36.599891999999997</v>
-      </c>
+      <c r="O21" s="19"/>
+      <c r="P21" s="19"/>
+      <c r="Q21" s="19"/>
+      <c r="R21" s="19"/>
+      <c r="S21" s="19"/>
       <c r="T21" s="19"/>
-      <c r="U21" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="V21" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="W21" s="19">
-        <v>-1.479779</v>
-      </c>
-      <c r="X21" s="19">
-        <v>-25.899453999999999</v>
-      </c>
-      <c r="Y21" s="19">
-        <v>36.599601</v>
-      </c>
-      <c r="AA21" s="16">
-        <f t="shared" si="0"/>
-        <v>8.1092532662538313E-6</v>
-      </c>
-      <c r="AB21" s="16">
-        <f t="shared" si="0"/>
-        <v>7.9537723662066954E-6</v>
-      </c>
-      <c r="AC21" s="16">
-        <f t="shared" si="0"/>
-        <v>7.9508431335577355E-6</v>
-      </c>
+      <c r="U21" s="19"/>
+      <c r="V21" s="19"/>
+      <c r="W21" s="19"/>
+      <c r="X21" s="19"/>
+      <c r="Y21" s="19"/>
+      <c r="AA21" s="16"/>
+      <c r="AB21" s="16"/>
+      <c r="AC21" s="16"/>
     </row>
     <row r="22" spans="3:29">
-      <c r="C22" s="2" t="s">
-        <v>38</v>
-      </c>
+      <c r="C22" s="2"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
@@ -8901,15 +8297,15 @@
         <v>-36.293444999999998</v>
       </c>
       <c r="AA41" s="16">
-        <f t="shared" ref="AA41:AC56" si="1">(Q41-W41)/Q41</f>
+        <f t="shared" ref="AA41:AC56" si="0">(Q41-W41)/Q41</f>
         <v>8.4494721565079576E-6</v>
       </c>
       <c r="AB41" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.3816909133461291E-5</v>
       </c>
       <c r="AC41" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>7.9628070234438851E-6</v>
       </c>
     </row>
@@ -8975,15 +8371,15 @@
         <v>-2.1119949999999998</v>
       </c>
       <c r="AA42" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>7.9813726355412357E-6</v>
       </c>
       <c r="AB42" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>8.0088045420439941E-6</v>
       </c>
       <c r="AC42" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>7.5757181188999497E-6</v>
       </c>
     </row>
@@ -9052,15 +8448,15 @@
         <v>-6.3928510000000003</v>
       </c>
       <c r="AA43" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>7.6930418417534362E-6</v>
       </c>
       <c r="AB43" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>7.8972434572399983E-6</v>
       </c>
       <c r="AC43" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>7.5083307275156253E-6</v>
       </c>
     </row>
@@ -9118,15 +8514,15 @@
         <v>557.98777700000005</v>
       </c>
       <c r="AA44" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>7.9169664877510809E-6</v>
       </c>
       <c r="AB44" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>7.9482999014218734E-6</v>
       </c>
       <c r="AC44" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>7.8370278147942755E-6</v>
       </c>
     </row>
@@ -9192,15 +8588,15 @@
         <v>-11.58207</v>
       </c>
       <c r="AA45" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>8.4294977567449928E-6</v>
       </c>
       <c r="AB45" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>7.6443280405897398E-6</v>
       </c>
       <c r="AC45" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>8.0295882556372835E-6</v>
       </c>
     </row>
@@ -9268,15 +8664,15 @@
         <v>-18.657005000000002</v>
       </c>
       <c r="AA46" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>7.9286558859784272E-6</v>
       </c>
       <c r="AB46" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>8.0018597077475151E-6</v>
       </c>
       <c r="AC46" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>7.9862126880040829E-6</v>
       </c>
     </row>
@@ -9344,15 +8740,15 @@
         <v>386.97922299999999</v>
       </c>
       <c r="AA47" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.0708586132256587E-5</v>
       </c>
       <c r="AB47" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>7.4987155157260956E-6</v>
       </c>
       <c r="AC47" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>7.9409317475054954E-6</v>
       </c>
     </row>
@@ -9420,15 +8816,15 @@
         <v>-6.5022200000000003</v>
       </c>
       <c r="AA48" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>7.6916897275550193E-6</v>
       </c>
       <c r="AB48" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>8.5616305080341139E-6</v>
       </c>
       <c r="AC48" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>7.8434134781560541E-6</v>
       </c>
     </row>
@@ -9487,15 +8883,15 @@
         <v>6.9430820000000004</v>
       </c>
       <c r="AA49" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>7.9167795671035992E-6</v>
       </c>
       <c r="AB49" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>8.1555668095662632E-6</v>
       </c>
       <c r="AC49" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>7.9214913949838781E-6</v>
       </c>
     </row>
@@ -9561,15 +8957,15 @@
         <v>-0.14544799999999999</v>
       </c>
       <c r="AA50" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>8.1120570934746094E-6</v>
       </c>
       <c r="AB50" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>8.0075868245228309E-6</v>
       </c>
       <c r="AC50" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6.8752621193751767E-6</v>
       </c>
     </row>
@@ -9637,15 +9033,15 @@
         <v>-0.71031699999999998</v>
       </c>
       <c r="AA51" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>7.5407052410185885E-6</v>
       </c>
       <c r="AB51" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>7.9636063191737858E-6</v>
       </c>
       <c r="AC51" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>7.0390611582250812E-6</v>
       </c>
     </row>
@@ -9713,15 +9109,15 @@
         <v>61.998641999999997</v>
       </c>
       <c r="AA52" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>7.9140928838782697E-6</v>
       </c>
       <c r="AB52" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>7.948299962525602E-6</v>
       </c>
       <c r="AC52" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>7.8388199266642414E-6</v>
       </c>
     </row>
@@ -9787,15 +9183,15 @@
         <v>34.746211000000002</v>
       </c>
       <c r="AA53" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>8.3875603086359612E-6</v>
       </c>
       <c r="AB53" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>7.6443282176677779E-6</v>
       </c>
       <c r="AC53" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>8.0008083692844302E-6</v>
       </c>
     </row>
@@ -9851,15 +9247,15 @@
         <v>45.265366</v>
       </c>
       <c r="AA54" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>7.9459025035501571E-6</v>
       </c>
       <c r="AB54" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>7.9998879567748566E-6</v>
       </c>
       <c r="AC54" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>7.9972203253339472E-6</v>
       </c>
     </row>
@@ -9915,15 +9311,15 @@
         <v>-1031.0316089999999</v>
       </c>
       <c r="AA55" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>8.0750030013968535E-6</v>
       </c>
       <c r="AB55" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>8.1388627168106224E-6</v>
       </c>
       <c r="AC55" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>7.883304307765761E-6</v>
       </c>
     </row>
@@ -9979,15 +9375,15 @@
         <v>19.50666</v>
       </c>
       <c r="AA56" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>7.6916889970745662E-6</v>
       </c>
       <c r="AB56" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>8.5616293974628215E-6</v>
       </c>
       <c r="AC56" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>7.8434134782015855E-6</v>
       </c>
     </row>
@@ -10074,7 +9470,7 @@
         <v>6.7655709999999996</v>
       </c>
       <c r="F66" s="44">
-        <f t="shared" ref="F66:F70" si="2">(D66-E66)/D66</f>
+        <f t="shared" ref="F66:F70" si="1">(D66-E66)/D66</f>
         <v>6.7990842520663734E-6</v>
       </c>
       <c r="H66">
@@ -10090,7 +9486,7 @@
         <v>1.6872549999999999</v>
       </c>
       <c r="O66">
-        <f t="shared" ref="O66:O67" si="3">N66*N66</f>
+        <f t="shared" ref="O66:O67" si="2">N66*N66</f>
         <v>2.8468294350249996</v>
       </c>
     </row>
@@ -10106,7 +9502,7 @@
         <v>169.397482</v>
       </c>
       <c r="F67" s="44">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>7.7627469810501904E-6</v>
       </c>
       <c r="H67">
@@ -10122,7 +9518,7 @@
         <v>0</v>
       </c>
       <c r="O67">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -10138,7 +9534,7 @@
         <v>-3.9566249999999998</v>
       </c>
       <c r="F68" s="44">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>7.0766883020474801E-6</v>
       </c>
       <c r="O68">
@@ -10158,7 +9554,7 @@
         <v>150.42814000000001</v>
       </c>
       <c r="F69" s="44">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>7.9904623924895113E-6</v>
       </c>
     </row>
@@ -10174,7 +9570,7 @@
         <v>-38.438657999999997</v>
       </c>
       <c r="F70" s="44">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>7.9086422781099028E-6</v>
       </c>
     </row>
@@ -10196,11 +9592,31 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2027BE14-AE61-3741-88F1-AAA69E462D7D}">
+  <dimension ref="C4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="4" spans="3:3">
+      <c r="C4" t="s">
+        <v>200</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A820870-40C5-8548-B01E-75B2F0C04C79}">
   <dimension ref="B1:AC70"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -11751,7 +11167,3052 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97763F41-A8AB-964A-A5C4-A9AD40870E6A}">
+  <dimension ref="C3:AC65"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="4" max="5" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="11" bestFit="1" customWidth="1"/>
+    <col min="17" max="19" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:29">
+      <c r="C3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="5" spans="3:29">
+      <c r="C5" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="6" spans="3:29">
+      <c r="C6" t="s">
+        <v>144</v>
+      </c>
+      <c r="D6" s="19">
+        <v>4.3250999999999999</v>
+      </c>
+      <c r="E6" s="19">
+        <v>7.0718860000000001</v>
+      </c>
+      <c r="F6" s="19">
+        <v>3.2063899999999999</v>
+      </c>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="19"/>
+      <c r="O6" s="19"/>
+      <c r="P6" s="19"/>
+      <c r="Q6" s="19"/>
+      <c r="R6" s="19"/>
+      <c r="S6" s="19"/>
+      <c r="T6" s="19"/>
+      <c r="U6" s="19"/>
+      <c r="V6" s="19"/>
+      <c r="W6" s="19"/>
+      <c r="X6" s="19"/>
+      <c r="Y6" s="19"/>
+    </row>
+    <row r="7" spans="3:29">
+      <c r="C7" t="s">
+        <v>143</v>
+      </c>
+      <c r="D7" s="19">
+        <v>86.915747999999994</v>
+      </c>
+      <c r="E7" s="19">
+        <v>53.990470999999999</v>
+      </c>
+      <c r="F7" s="19">
+        <v>54.026533999999998</v>
+      </c>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="19"/>
+      <c r="O7" s="19"/>
+      <c r="P7" s="19"/>
+      <c r="Q7" s="19"/>
+      <c r="R7" s="19"/>
+      <c r="S7" s="19"/>
+      <c r="T7" s="19"/>
+      <c r="U7" s="19"/>
+      <c r="V7" s="19"/>
+      <c r="W7" s="19"/>
+      <c r="X7" s="19"/>
+      <c r="Y7" s="19"/>
+    </row>
+    <row r="8" spans="3:29">
+      <c r="H8" s="43" t="s">
+        <v>149</v>
+      </c>
+      <c r="I8" s="43"/>
+      <c r="J8" s="43" t="s">
+        <v>150</v>
+      </c>
+      <c r="K8" s="43" t="s">
+        <v>153</v>
+      </c>
+      <c r="L8" s="43" t="s">
+        <v>152</v>
+      </c>
+      <c r="M8" s="19"/>
+      <c r="N8" s="19"/>
+      <c r="O8" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="P8" s="19"/>
+      <c r="Q8" s="19"/>
+      <c r="R8" s="19"/>
+      <c r="S8" s="19"/>
+      <c r="T8" s="19"/>
+      <c r="U8" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="V8" s="19"/>
+      <c r="W8" s="19"/>
+      <c r="X8" s="19"/>
+      <c r="Y8" s="19"/>
+      <c r="AA8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="3:29">
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" t="s">
+        <v>147</v>
+      </c>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="19"/>
+      <c r="N9" s="19"/>
+      <c r="O9" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="P9" s="19"/>
+      <c r="Q9" s="19"/>
+      <c r="R9" s="19"/>
+      <c r="S9" s="19"/>
+      <c r="T9" s="19"/>
+      <c r="U9" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="V9" s="19"/>
+      <c r="W9" s="19"/>
+      <c r="X9" s="19"/>
+      <c r="Y9" s="19"/>
+    </row>
+    <row r="10" spans="3:29">
+      <c r="C10" t="s">
+        <v>138</v>
+      </c>
+      <c r="D10">
+        <v>-139.10868416</v>
+      </c>
+      <c r="E10">
+        <v>-196.725498837413</v>
+      </c>
+      <c r="H10" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="I10" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="J10" s="19">
+        <v>0.05</v>
+      </c>
+      <c r="K10" s="19">
+        <v>0</v>
+      </c>
+      <c r="L10" s="19">
+        <v>0</v>
+      </c>
+      <c r="M10" s="19">
+        <v>2</v>
+      </c>
+      <c r="N10" s="19"/>
+      <c r="O10" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="P10" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q10" s="19">
+        <v>-17.745493</v>
+      </c>
+      <c r="R10" s="19">
+        <v>1.1245769999999999</v>
+      </c>
+      <c r="S10" s="19">
+        <v>-43.046187000000003</v>
+      </c>
+      <c r="T10" s="19"/>
+      <c r="U10" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="V10" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="W10" s="19">
+        <v>-17.745346999999999</v>
+      </c>
+      <c r="X10" s="19">
+        <v>1.124579</v>
+      </c>
+      <c r="Y10" s="19">
+        <v>-43.045844000000002</v>
+      </c>
+      <c r="AA10" s="16">
+        <f t="shared" ref="AA10:AC17" si="0">(Q10-W10)/Q10</f>
+        <v>8.2274411875098459E-6</v>
+      </c>
+      <c r="AB10" s="16">
+        <f t="shared" si="0"/>
+        <v>-1.7784464737030114E-6</v>
+      </c>
+      <c r="AC10" s="16">
+        <f t="shared" si="0"/>
+        <v>7.9681854283834792E-6</v>
+      </c>
+    </row>
+    <row r="11" spans="3:29">
+      <c r="C11" t="s">
+        <v>139</v>
+      </c>
+      <c r="D11">
+        <v>-138.73037528</v>
+      </c>
+      <c r="E11">
+        <v>-81.111373401000904</v>
+      </c>
+      <c r="H11" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="I11" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="J11" s="19">
+        <v>0.49</v>
+      </c>
+      <c r="K11" s="19">
+        <v>0.52</v>
+      </c>
+      <c r="L11" s="19">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="M11" s="19">
+        <v>2</v>
+      </c>
+      <c r="N11" s="19"/>
+      <c r="O11" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="P11" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q11" s="19">
+        <v>45.914861000000002</v>
+      </c>
+      <c r="R11" s="19">
+        <v>91.643930999999995</v>
+      </c>
+      <c r="S11" s="19">
+        <v>-6.6300220000000003</v>
+      </c>
+      <c r="T11" s="19"/>
+      <c r="U11" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="V11" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="W11" s="19">
+        <v>45.914496999999997</v>
+      </c>
+      <c r="X11" s="19">
+        <v>91.643197000000001</v>
+      </c>
+      <c r="Y11" s="19">
+        <v>-6.629969</v>
+      </c>
+      <c r="AA11" s="16">
+        <f t="shared" si="0"/>
+        <v>7.9277164751668071E-6</v>
+      </c>
+      <c r="AB11" s="16">
+        <f t="shared" si="0"/>
+        <v>8.0092592273703238E-6</v>
+      </c>
+      <c r="AC11" s="16">
+        <f t="shared" si="0"/>
+        <v>7.9939402916465144E-6</v>
+      </c>
+    </row>
+    <row r="12" spans="3:29">
+      <c r="C12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D12">
+        <v>-277.83905944000003</v>
+      </c>
+      <c r="E12">
+        <v>-277.836872238414</v>
+      </c>
+      <c r="F12" s="18">
+        <f>(D12-E12)/D12</f>
+        <v>7.8721889947143947E-6</v>
+      </c>
+      <c r="H12" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="I12" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="J12" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="K12" s="19">
+        <v>0</v>
+      </c>
+      <c r="L12" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="M12" s="19">
+        <v>2</v>
+      </c>
+      <c r="N12" s="19"/>
+      <c r="O12" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="P12" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q12" s="19">
+        <v>-33.661321000000001</v>
+      </c>
+      <c r="R12" s="19">
+        <v>-38.604883000000001</v>
+      </c>
+      <c r="S12" s="19">
+        <v>-15.2334</v>
+      </c>
+      <c r="T12" s="19"/>
+      <c r="U12" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="V12" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="W12" s="19">
+        <v>-33.661070000000002</v>
+      </c>
+      <c r="X12" s="19">
+        <v>-38.604579000000001</v>
+      </c>
+      <c r="Y12" s="19">
+        <v>-15.233283</v>
+      </c>
+      <c r="AA12" s="16">
+        <f t="shared" si="0"/>
+        <v>7.4566295243929655E-6</v>
+      </c>
+      <c r="AB12" s="16">
+        <f t="shared" si="0"/>
+        <v>7.8746515045741727E-6</v>
+      </c>
+      <c r="AC12" s="16">
+        <f t="shared" si="0"/>
+        <v>7.6804915514250682E-6</v>
+      </c>
+    </row>
+    <row r="13" spans="3:29">
+      <c r="H13" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="I13" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="J13" s="19">
+        <v>0</v>
+      </c>
+      <c r="K13" s="19">
+        <v>0.52</v>
+      </c>
+      <c r="L13" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="M13" s="19">
+        <v>2</v>
+      </c>
+      <c r="N13" s="19"/>
+      <c r="O13" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="P13" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q13" s="19">
+        <v>-37.023462000000002</v>
+      </c>
+      <c r="R13" s="19">
+        <v>-409.06046300000003</v>
+      </c>
+      <c r="S13" s="19">
+        <v>763.52360099999999</v>
+      </c>
+      <c r="T13" s="19"/>
+      <c r="U13" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="V13" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="W13" s="19">
+        <v>-37.023279000000002</v>
+      </c>
+      <c r="X13" s="19">
+        <v>-409.05734799999999</v>
+      </c>
+      <c r="Y13" s="19">
+        <v>763.51753900000006</v>
+      </c>
+      <c r="AA13" s="16">
+        <f t="shared" si="0"/>
+        <v>4.9428116689849857E-6</v>
+      </c>
+      <c r="AB13" s="16">
+        <f t="shared" si="0"/>
+        <v>7.6150111824339672E-6</v>
+      </c>
+      <c r="AC13" s="16">
+        <f t="shared" si="0"/>
+        <v>7.9395057231884543E-6</v>
+      </c>
+    </row>
+    <row r="14" spans="3:29">
+      <c r="C14" s="2"/>
+      <c r="D14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H14" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="I14" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="J14" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="K14" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="L14" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="M14" s="19">
+        <v>-2</v>
+      </c>
+      <c r="N14" s="19"/>
+      <c r="O14" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="P14" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q14" s="19">
+        <v>2.1356540000000002</v>
+      </c>
+      <c r="R14" s="19">
+        <v>-33.072212999999998</v>
+      </c>
+      <c r="S14" s="19">
+        <v>17.856475</v>
+      </c>
+      <c r="T14" s="19"/>
+      <c r="U14" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="V14" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="W14" s="19">
+        <v>2.1356310000000001</v>
+      </c>
+      <c r="X14" s="19">
+        <v>-33.071958000000002</v>
+      </c>
+      <c r="Y14" s="19">
+        <v>17.856332999999999</v>
+      </c>
+      <c r="AA14" s="16">
+        <f t="shared" si="0"/>
+        <v>1.0769534765512703E-5</v>
+      </c>
+      <c r="AB14" s="16">
+        <f t="shared" si="0"/>
+        <v>7.7104002685177248E-6</v>
+      </c>
+      <c r="AC14" s="16">
+        <f t="shared" si="0"/>
+        <v>7.9522974159406349E-6</v>
+      </c>
+    </row>
+    <row r="15" spans="3:29">
+      <c r="C15" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="H15" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="I15" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="J15" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="K15" s="19">
+        <v>0</v>
+      </c>
+      <c r="L15" s="19">
+        <v>-0.04</v>
+      </c>
+      <c r="M15" s="19">
+        <v>-2</v>
+      </c>
+      <c r="N15" s="19"/>
+      <c r="O15" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="P15" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q15" s="19">
+        <v>54.102513999999999</v>
+      </c>
+      <c r="R15" s="19">
+        <v>51.080497999999999</v>
+      </c>
+      <c r="S15" s="19">
+        <v>39.497791999999997</v>
+      </c>
+      <c r="T15" s="19"/>
+      <c r="U15" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="V15" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="W15" s="19">
+        <v>54.102091000000001</v>
+      </c>
+      <c r="X15" s="19">
+        <v>51.080084999999997</v>
+      </c>
+      <c r="Y15" s="19">
+        <v>39.497475999999999</v>
+      </c>
+      <c r="AA15" s="16">
+        <f t="shared" si="0"/>
+        <v>7.81849065272349E-6</v>
+      </c>
+      <c r="AB15" s="16">
+        <f t="shared" si="0"/>
+        <v>8.0852774771650239E-6</v>
+      </c>
+      <c r="AC15" s="16">
+        <f t="shared" si="0"/>
+        <v>8.0004472148211375E-6</v>
+      </c>
+    </row>
+    <row r="16" spans="3:29">
+      <c r="C16" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="H16" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="I16" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="J16" s="19">
+        <v>0.1</v>
+      </c>
+      <c r="K16" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="L16" s="19">
+        <v>0.32</v>
+      </c>
+      <c r="M16" s="19">
+        <v>-2</v>
+      </c>
+      <c r="N16" s="19"/>
+      <c r="O16" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="P16" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q16" s="19">
+        <v>-12.695687</v>
+      </c>
+      <c r="R16" s="19">
+        <v>339.18698799999999</v>
+      </c>
+      <c r="S16" s="19">
+        <v>-776.69462299999998</v>
+      </c>
+      <c r="T16" s="19"/>
+      <c r="U16" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="V16" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="W16" s="19">
+        <v>-12.695468</v>
+      </c>
+      <c r="X16" s="19">
+        <v>339.18444299999999</v>
+      </c>
+      <c r="Y16" s="19">
+        <v>-776.68845499999998</v>
+      </c>
+      <c r="AA16" s="16">
+        <f t="shared" si="0"/>
+        <v>1.7249952680743085E-5</v>
+      </c>
+      <c r="AB16" s="16">
+        <f t="shared" si="0"/>
+        <v>7.5032359437025309E-6</v>
+      </c>
+      <c r="AC16" s="16">
+        <f t="shared" si="0"/>
+        <v>7.9413450503601519E-6</v>
+      </c>
+    </row>
+    <row r="17" spans="3:29">
+      <c r="C17" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="H17" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="I17" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="J17" s="19">
+        <v>0</v>
+      </c>
+      <c r="K17" s="19">
+        <v>0</v>
+      </c>
+      <c r="L17" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="M17" s="19">
+        <v>-2</v>
+      </c>
+      <c r="N17" s="19"/>
+      <c r="O17" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="P17" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q17" s="19">
+        <v>-1.027066</v>
+      </c>
+      <c r="R17" s="19">
+        <v>-2.298435</v>
+      </c>
+      <c r="S17" s="19">
+        <v>20.726364</v>
+      </c>
+      <c r="T17" s="19"/>
+      <c r="U17" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="V17" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="W17" s="19">
+        <v>-1.0270550000000001</v>
+      </c>
+      <c r="X17" s="19">
+        <v>-2.298419</v>
+      </c>
+      <c r="Y17" s="19">
+        <v>20.726203000000002</v>
+      </c>
+      <c r="AA17" s="16">
+        <f t="shared" si="0"/>
+        <v>1.0710119894907674E-5</v>
+      </c>
+      <c r="AB17" s="16">
+        <f t="shared" si="0"/>
+        <v>6.9612584214981066E-6</v>
+      </c>
+      <c r="AC17" s="16">
+        <f t="shared" si="0"/>
+        <v>7.7678844199842973E-6</v>
+      </c>
+    </row>
+    <row r="18" spans="3:29">
+      <c r="C18" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="19"/>
+      <c r="L18" s="19"/>
+      <c r="M18" s="19"/>
+      <c r="N18" s="19"/>
+      <c r="O18" s="19"/>
+      <c r="P18" s="19"/>
+      <c r="Q18" s="19"/>
+      <c r="R18" s="19"/>
+      <c r="S18" s="19"/>
+      <c r="T18" s="19"/>
+      <c r="U18" s="19"/>
+      <c r="V18" s="19"/>
+      <c r="W18" s="19"/>
+      <c r="X18" s="19"/>
+      <c r="Y18" s="19"/>
+      <c r="AA18" s="16"/>
+      <c r="AB18" s="16"/>
+      <c r="AC18" s="16"/>
+    </row>
+    <row r="19" spans="3:29">
+      <c r="C19" s="2"/>
+      <c r="D19" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="19"/>
+      <c r="M19" s="19"/>
+      <c r="N19" s="19"/>
+      <c r="O19" s="19"/>
+      <c r="P19" s="19"/>
+      <c r="Q19" s="19"/>
+      <c r="R19" s="19"/>
+      <c r="S19" s="19"/>
+      <c r="T19" s="19"/>
+      <c r="U19" s="19"/>
+      <c r="V19" s="19"/>
+      <c r="W19" s="19"/>
+      <c r="X19" s="19"/>
+      <c r="Y19" s="19"/>
+      <c r="AA19" s="16"/>
+      <c r="AB19" s="16"/>
+      <c r="AC19" s="16"/>
+    </row>
+    <row r="20" spans="3:29">
+      <c r="C20" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="19"/>
+      <c r="K20" s="19"/>
+      <c r="L20" s="19"/>
+      <c r="M20" s="19"/>
+      <c r="N20" s="19"/>
+      <c r="O20" s="19"/>
+      <c r="P20" s="19"/>
+      <c r="Q20" s="19"/>
+      <c r="R20" s="19"/>
+      <c r="S20" s="19"/>
+      <c r="T20" s="19"/>
+      <c r="U20" s="19"/>
+      <c r="V20" s="19"/>
+      <c r="W20" s="19"/>
+      <c r="X20" s="19"/>
+      <c r="Y20" s="19"/>
+      <c r="AA20" s="16"/>
+      <c r="AB20" s="16"/>
+      <c r="AC20" s="16"/>
+    </row>
+    <row r="21" spans="3:29">
+      <c r="C21" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="19"/>
+      <c r="L21" s="19"/>
+      <c r="M21" s="19"/>
+      <c r="N21" s="19"/>
+      <c r="O21" s="19"/>
+      <c r="P21" s="19"/>
+      <c r="Q21" s="19"/>
+      <c r="R21" s="19"/>
+      <c r="S21" s="19"/>
+      <c r="T21" s="19"/>
+      <c r="U21" s="19"/>
+      <c r="V21" s="19"/>
+      <c r="W21" s="19"/>
+      <c r="X21" s="19"/>
+      <c r="Y21" s="19"/>
+      <c r="AA21" s="16"/>
+      <c r="AB21" s="16"/>
+      <c r="AC21" s="16"/>
+    </row>
+    <row r="22" spans="3:29">
+      <c r="C22" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+    </row>
+    <row r="24" spans="3:29">
+      <c r="D24" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="H24" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="25" spans="3:29">
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" s="7">
+        <v>71.271347000000006</v>
+      </c>
+      <c r="E25" s="7">
+        <f>H25</f>
+        <v>71.270770999999996</v>
+      </c>
+      <c r="F25" s="44">
+        <f>(D25-E25)/D25</f>
+        <v>8.0817891657001759E-6</v>
+      </c>
+      <c r="H25">
+        <v>71.270770999999996</v>
+      </c>
+      <c r="I25">
+        <v>-35.662618000000002</v>
+      </c>
+      <c r="J25">
+        <v>97.488838000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29">
+      <c r="C26" t="s">
+        <v>28</v>
+      </c>
+      <c r="D26" s="7">
+        <v>16.755025</v>
+      </c>
+      <c r="E26" s="7">
+        <f>I26</f>
+        <v>16.754899000000002</v>
+      </c>
+      <c r="F26" s="44">
+        <f t="shared" ref="F26:F30" si="1">(D26-E26)/D26</f>
+        <v>7.5201320199803996E-6</v>
+      </c>
+      <c r="H26">
+        <v>-35.662618000000002</v>
+      </c>
+      <c r="I26">
+        <v>16.754899000000002</v>
+      </c>
+      <c r="J26">
+        <v>-46.784371999999998</v>
+      </c>
+    </row>
+    <row r="27" spans="3:29">
+      <c r="C27" t="s">
+        <v>29</v>
+      </c>
+      <c r="D27" s="7">
+        <v>189.81268800000001</v>
+      </c>
+      <c r="E27" s="7">
+        <f>J27</f>
+        <v>189.81120200000001</v>
+      </c>
+      <c r="F27" s="44">
+        <f t="shared" si="1"/>
+        <v>7.8287706457214083E-6</v>
+      </c>
+      <c r="H27">
+        <v>97.488838000000001</v>
+      </c>
+      <c r="I27">
+        <v>-46.784371999999998</v>
+      </c>
+      <c r="J27">
+        <v>189.81120200000001</v>
+      </c>
+    </row>
+    <row r="28" spans="3:29">
+      <c r="C28" t="s">
+        <v>30</v>
+      </c>
+      <c r="D28" s="7">
+        <v>-46.784737</v>
+      </c>
+      <c r="E28" s="7">
+        <f>J26</f>
+        <v>-46.784371999999998</v>
+      </c>
+      <c r="F28" s="44">
+        <f t="shared" si="1"/>
+        <v>7.8016896835856768E-6</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29">
+      <c r="C29" t="s">
+        <v>31</v>
+      </c>
+      <c r="D29" s="7">
+        <v>97.489626000000001</v>
+      </c>
+      <c r="E29" s="7">
+        <f>J25</f>
+        <v>97.488838000000001</v>
+      </c>
+      <c r="F29" s="44">
+        <f t="shared" si="1"/>
+        <v>8.08291130381412E-6</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29">
+      <c r="C30" t="s">
+        <v>32</v>
+      </c>
+      <c r="D30" s="7">
+        <v>-35.662902000000003</v>
+      </c>
+      <c r="E30" s="7">
+        <f>I25</f>
+        <v>-35.662618000000002</v>
+      </c>
+      <c r="F30" s="44">
+        <f t="shared" si="1"/>
+        <v>7.9634573765370261E-6</v>
+      </c>
+    </row>
+    <row r="37" spans="3:29">
+      <c r="D37" s="19"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="19"/>
+      <c r="H37" s="19"/>
+      <c r="I37" s="19"/>
+      <c r="J37" s="19"/>
+      <c r="K37" s="19"/>
+      <c r="L37" s="19"/>
+      <c r="M37" s="19"/>
+      <c r="N37" s="19"/>
+      <c r="O37" s="19"/>
+      <c r="P37" s="19"/>
+      <c r="Q37" s="19"/>
+      <c r="R37" s="19"/>
+      <c r="S37" s="19"/>
+      <c r="T37" s="19"/>
+      <c r="U37" s="19"/>
+      <c r="V37" s="19"/>
+      <c r="W37" s="19"/>
+      <c r="X37" s="19"/>
+      <c r="Y37" s="19"/>
+    </row>
+    <row r="38" spans="3:29">
+      <c r="D38" s="19"/>
+      <c r="E38" s="19"/>
+      <c r="F38" s="19"/>
+      <c r="H38" s="19"/>
+      <c r="I38" s="19"/>
+      <c r="J38" s="19"/>
+      <c r="K38" s="19"/>
+      <c r="L38" s="19"/>
+      <c r="M38" s="19"/>
+      <c r="N38" s="19"/>
+      <c r="O38" s="19"/>
+      <c r="P38" s="19"/>
+      <c r="Q38" s="19"/>
+      <c r="R38" s="19"/>
+      <c r="S38" s="19"/>
+      <c r="T38" s="19"/>
+      <c r="U38" s="19"/>
+      <c r="V38" s="19"/>
+      <c r="W38" s="19"/>
+      <c r="X38" s="19"/>
+      <c r="Y38" s="19"/>
+    </row>
+    <row r="39" spans="3:29">
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="H39" s="43"/>
+      <c r="I39" s="43"/>
+      <c r="J39" s="43"/>
+      <c r="K39" s="43"/>
+      <c r="L39" s="43"/>
+      <c r="M39" s="19"/>
+      <c r="N39" s="19"/>
+      <c r="O39" s="19"/>
+      <c r="P39" s="19"/>
+      <c r="Q39" s="19"/>
+      <c r="R39" s="19"/>
+      <c r="S39" s="19"/>
+      <c r="T39" s="19"/>
+      <c r="U39" s="19"/>
+      <c r="V39" s="19"/>
+      <c r="W39" s="19"/>
+      <c r="X39" s="19"/>
+      <c r="Y39" s="19"/>
+    </row>
+    <row r="40" spans="3:29">
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="H40" s="19"/>
+      <c r="I40" s="19"/>
+      <c r="J40" s="19"/>
+      <c r="K40" s="19"/>
+      <c r="L40" s="19"/>
+      <c r="M40" s="19"/>
+      <c r="N40" s="19"/>
+      <c r="O40" s="19"/>
+      <c r="P40" s="19"/>
+      <c r="Q40" s="19"/>
+      <c r="R40" s="19"/>
+      <c r="S40" s="19"/>
+      <c r="T40" s="19"/>
+      <c r="U40" s="19"/>
+      <c r="V40" s="19"/>
+      <c r="W40" s="19"/>
+      <c r="X40" s="19"/>
+      <c r="Y40" s="19"/>
+    </row>
+    <row r="41" spans="3:29">
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="H41" s="19"/>
+      <c r="I41" s="19"/>
+      <c r="J41" s="6"/>
+      <c r="K41" s="6"/>
+      <c r="L41" s="6"/>
+      <c r="M41" s="6"/>
+      <c r="N41" s="19"/>
+      <c r="O41" s="19"/>
+      <c r="P41" s="19"/>
+      <c r="Q41" s="19"/>
+      <c r="R41" s="19"/>
+      <c r="S41" s="19"/>
+      <c r="T41" s="19"/>
+      <c r="U41" s="19"/>
+      <c r="V41" s="19"/>
+      <c r="W41" s="19"/>
+      <c r="X41" s="19"/>
+      <c r="Y41" s="19"/>
+      <c r="AA41" s="16"/>
+      <c r="AB41" s="16"/>
+      <c r="AC41" s="16"/>
+    </row>
+    <row r="42" spans="3:29">
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="44"/>
+      <c r="H42" s="19"/>
+      <c r="I42" s="19"/>
+      <c r="J42" s="6"/>
+      <c r="K42" s="6"/>
+      <c r="L42" s="6"/>
+      <c r="M42" s="6"/>
+      <c r="N42" s="19"/>
+      <c r="O42" s="19"/>
+      <c r="P42" s="19"/>
+      <c r="Q42" s="19"/>
+      <c r="R42" s="19"/>
+      <c r="S42" s="19"/>
+      <c r="T42" s="19"/>
+      <c r="U42" s="19"/>
+      <c r="V42" s="19"/>
+      <c r="W42" s="19"/>
+      <c r="X42" s="19"/>
+      <c r="Y42" s="19"/>
+      <c r="AA42" s="16"/>
+      <c r="AB42" s="16"/>
+      <c r="AC42" s="16"/>
+    </row>
+    <row r="43" spans="3:29">
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="44"/>
+      <c r="H43" s="19"/>
+      <c r="I43" s="19"/>
+      <c r="J43" s="6"/>
+      <c r="K43" s="6"/>
+      <c r="L43" s="6"/>
+      <c r="M43" s="6"/>
+      <c r="N43" s="19"/>
+      <c r="O43" s="19"/>
+      <c r="P43" s="19"/>
+      <c r="Q43" s="19"/>
+      <c r="R43" s="19"/>
+      <c r="S43" s="19"/>
+      <c r="T43" s="19"/>
+      <c r="U43" s="19"/>
+      <c r="V43" s="19"/>
+      <c r="W43" s="19"/>
+      <c r="X43" s="19"/>
+      <c r="Y43" s="19"/>
+      <c r="AA43" s="16"/>
+      <c r="AB43" s="16"/>
+      <c r="AC43" s="16"/>
+    </row>
+    <row r="44" spans="3:29">
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
+      <c r="H44" s="19"/>
+      <c r="I44" s="19"/>
+      <c r="J44" s="6"/>
+      <c r="K44" s="6"/>
+      <c r="L44" s="6"/>
+      <c r="M44" s="6"/>
+      <c r="N44" s="19"/>
+      <c r="O44" s="19"/>
+      <c r="P44" s="19"/>
+      <c r="Q44" s="19"/>
+      <c r="R44" s="19"/>
+      <c r="S44" s="19"/>
+      <c r="T44" s="19"/>
+      <c r="U44" s="19"/>
+      <c r="V44" s="19"/>
+      <c r="W44" s="19"/>
+      <c r="X44" s="19"/>
+      <c r="Y44" s="19"/>
+      <c r="AA44" s="16"/>
+      <c r="AB44" s="16"/>
+      <c r="AC44" s="16"/>
+    </row>
+    <row r="45" spans="3:29">
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="H45" s="19"/>
+      <c r="I45" s="19"/>
+      <c r="J45" s="6"/>
+      <c r="K45" s="6"/>
+      <c r="L45" s="6"/>
+      <c r="M45" s="6"/>
+      <c r="N45" s="19"/>
+      <c r="O45" s="19"/>
+      <c r="P45" s="19"/>
+      <c r="Q45" s="19"/>
+      <c r="R45" s="19"/>
+      <c r="S45" s="19"/>
+      <c r="T45" s="19"/>
+      <c r="U45" s="19"/>
+      <c r="V45" s="19"/>
+      <c r="W45" s="19"/>
+      <c r="X45" s="19"/>
+      <c r="Y45" s="19"/>
+      <c r="AA45" s="16"/>
+      <c r="AB45" s="16"/>
+      <c r="AC45" s="16"/>
+    </row>
+    <row r="46" spans="3:29">
+      <c r="C46" s="2"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="H46" s="19"/>
+      <c r="I46" s="19"/>
+      <c r="J46" s="6"/>
+      <c r="K46" s="6"/>
+      <c r="L46" s="6"/>
+      <c r="M46" s="6"/>
+      <c r="N46" s="19"/>
+      <c r="O46" s="19"/>
+      <c r="P46" s="19"/>
+      <c r="Q46" s="19"/>
+      <c r="R46" s="19"/>
+      <c r="S46" s="19"/>
+      <c r="T46" s="19"/>
+      <c r="U46" s="19"/>
+      <c r="V46" s="19"/>
+      <c r="W46" s="19"/>
+      <c r="X46" s="19"/>
+      <c r="Y46" s="19"/>
+      <c r="AA46" s="16"/>
+      <c r="AB46" s="16"/>
+      <c r="AC46" s="16"/>
+    </row>
+    <row r="47" spans="3:29">
+      <c r="C47" s="2"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="H47" s="19"/>
+      <c r="I47" s="19"/>
+      <c r="J47" s="6"/>
+      <c r="K47" s="6"/>
+      <c r="L47" s="6"/>
+      <c r="M47" s="6"/>
+      <c r="N47" s="19"/>
+      <c r="O47" s="19"/>
+      <c r="P47" s="19"/>
+      <c r="Q47" s="19"/>
+      <c r="R47" s="19"/>
+      <c r="S47" s="19"/>
+      <c r="T47" s="19"/>
+      <c r="U47" s="19"/>
+      <c r="V47" s="19"/>
+      <c r="W47" s="19"/>
+      <c r="X47" s="19"/>
+      <c r="Y47" s="19"/>
+      <c r="AA47" s="16"/>
+      <c r="AB47" s="16"/>
+      <c r="AC47" s="16"/>
+    </row>
+    <row r="48" spans="3:29">
+      <c r="C48" s="2"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="H48" s="19"/>
+      <c r="I48" s="19"/>
+      <c r="J48" s="6"/>
+      <c r="K48" s="6"/>
+      <c r="L48" s="6"/>
+      <c r="M48" s="6"/>
+      <c r="N48" s="19"/>
+      <c r="O48" s="19"/>
+      <c r="P48" s="19"/>
+      <c r="Q48" s="19"/>
+      <c r="R48" s="19"/>
+      <c r="S48" s="19"/>
+      <c r="T48" s="19"/>
+      <c r="U48" s="19"/>
+      <c r="V48" s="19"/>
+      <c r="W48" s="19"/>
+      <c r="X48" s="19"/>
+      <c r="Y48" s="19"/>
+      <c r="AA48" s="16"/>
+      <c r="AB48" s="16"/>
+      <c r="AC48" s="16"/>
+    </row>
+    <row r="49" spans="3:29">
+      <c r="C49" s="2"/>
+      <c r="H49" s="19"/>
+      <c r="I49" s="19"/>
+      <c r="J49" s="6"/>
+      <c r="K49" s="6"/>
+      <c r="L49" s="6"/>
+      <c r="M49" s="6"/>
+      <c r="N49" s="19"/>
+      <c r="O49" s="19"/>
+      <c r="P49" s="19"/>
+      <c r="Q49" s="19"/>
+      <c r="R49" s="19"/>
+      <c r="S49" s="19"/>
+      <c r="T49" s="19"/>
+      <c r="U49" s="19"/>
+      <c r="V49" s="19"/>
+      <c r="W49" s="19"/>
+      <c r="X49" s="19"/>
+      <c r="Y49" s="19"/>
+      <c r="AA49" s="16"/>
+      <c r="AB49" s="16"/>
+      <c r="AC49" s="16"/>
+    </row>
+    <row r="50" spans="3:29">
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="H50" s="19"/>
+      <c r="I50" s="19"/>
+      <c r="J50" s="6"/>
+      <c r="K50" s="6"/>
+      <c r="L50" s="6"/>
+      <c r="M50" s="6"/>
+      <c r="N50" s="19"/>
+      <c r="O50" s="19"/>
+      <c r="P50" s="19"/>
+      <c r="Q50" s="19"/>
+      <c r="R50" s="19"/>
+      <c r="S50" s="19"/>
+      <c r="T50" s="19"/>
+      <c r="U50" s="19"/>
+      <c r="V50" s="19"/>
+      <c r="W50" s="19"/>
+      <c r="X50" s="19"/>
+      <c r="Y50" s="19"/>
+      <c r="AA50" s="16"/>
+      <c r="AB50" s="16"/>
+      <c r="AC50" s="16"/>
+    </row>
+    <row r="51" spans="3:29">
+      <c r="C51" s="2"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+      <c r="H51" s="19"/>
+      <c r="I51" s="19"/>
+      <c r="J51" s="6"/>
+      <c r="K51" s="6"/>
+      <c r="L51" s="6"/>
+      <c r="M51" s="6"/>
+      <c r="N51" s="19"/>
+      <c r="O51" s="19"/>
+      <c r="P51" s="19"/>
+      <c r="Q51" s="19"/>
+      <c r="R51" s="19"/>
+      <c r="S51" s="19"/>
+      <c r="T51" s="19"/>
+      <c r="U51" s="19"/>
+      <c r="V51" s="19"/>
+      <c r="W51" s="19"/>
+      <c r="X51" s="19"/>
+      <c r="Y51" s="19"/>
+      <c r="AA51" s="16"/>
+      <c r="AB51" s="16"/>
+      <c r="AC51" s="16"/>
+    </row>
+    <row r="52" spans="3:29">
+      <c r="C52" s="2"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+      <c r="H52" s="19"/>
+      <c r="I52" s="19"/>
+      <c r="J52" s="6"/>
+      <c r="K52" s="6"/>
+      <c r="L52" s="6"/>
+      <c r="M52" s="6"/>
+      <c r="N52" s="19"/>
+      <c r="O52" s="19"/>
+      <c r="P52" s="19"/>
+      <c r="Q52" s="19"/>
+      <c r="R52" s="19"/>
+      <c r="S52" s="19"/>
+      <c r="T52" s="19"/>
+      <c r="U52" s="19"/>
+      <c r="V52" s="19"/>
+      <c r="W52" s="19"/>
+      <c r="X52" s="19"/>
+      <c r="Y52" s="19"/>
+      <c r="AA52" s="16"/>
+      <c r="AB52" s="16"/>
+      <c r="AC52" s="16"/>
+    </row>
+    <row r="53" spans="3:29">
+      <c r="C53" s="2"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4"/>
+      <c r="J53" s="6"/>
+      <c r="K53" s="6"/>
+      <c r="L53" s="6"/>
+      <c r="M53" s="6"/>
+      <c r="AA53" s="16"/>
+      <c r="AB53" s="16"/>
+      <c r="AC53" s="16"/>
+    </row>
+    <row r="54" spans="3:29">
+      <c r="D54" s="7"/>
+      <c r="E54" s="7"/>
+      <c r="J54" s="6"/>
+      <c r="K54" s="6"/>
+      <c r="L54" s="6"/>
+      <c r="M54" s="6"/>
+      <c r="AA54" s="16"/>
+      <c r="AB54" s="16"/>
+      <c r="AC54" s="16"/>
+    </row>
+    <row r="55" spans="3:29">
+      <c r="D55" s="7"/>
+      <c r="E55" s="7"/>
+      <c r="J55" s="6"/>
+      <c r="K55" s="6"/>
+      <c r="L55" s="6"/>
+      <c r="M55" s="6"/>
+      <c r="AA55" s="16"/>
+      <c r="AB55" s="16"/>
+      <c r="AC55" s="16"/>
+    </row>
+    <row r="56" spans="3:29">
+      <c r="D56" s="7"/>
+      <c r="E56" s="7"/>
+      <c r="J56" s="6"/>
+      <c r="K56" s="6"/>
+      <c r="L56" s="6"/>
+      <c r="M56" s="6"/>
+      <c r="AA56" s="16"/>
+      <c r="AB56" s="16"/>
+      <c r="AC56" s="16"/>
+    </row>
+    <row r="57" spans="3:29">
+      <c r="D57" s="7"/>
+      <c r="E57" s="7"/>
+    </row>
+    <row r="58" spans="3:29">
+      <c r="D58" s="7"/>
+      <c r="E58" s="7"/>
+    </row>
+    <row r="59" spans="3:29">
+      <c r="D59" s="7"/>
+      <c r="E59" s="7"/>
+    </row>
+    <row r="60" spans="3:29">
+      <c r="D60" s="7"/>
+      <c r="E60" s="7"/>
+      <c r="F60" s="44"/>
+    </row>
+    <row r="61" spans="3:29">
+      <c r="D61" s="7"/>
+      <c r="E61" s="7"/>
+      <c r="F61" s="44"/>
+    </row>
+    <row r="62" spans="3:29">
+      <c r="D62" s="7"/>
+      <c r="E62" s="7"/>
+      <c r="F62" s="44"/>
+    </row>
+    <row r="63" spans="3:29">
+      <c r="D63" s="7"/>
+      <c r="E63" s="7"/>
+      <c r="F63" s="44"/>
+    </row>
+    <row r="64" spans="3:29">
+      <c r="D64" s="7"/>
+      <c r="E64" s="7"/>
+      <c r="F64" s="44"/>
+    </row>
+    <row r="65" spans="4:6">
+      <c r="D65" s="7"/>
+      <c r="E65" s="7"/>
+      <c r="F65" s="44"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABDCF178-1506-674B-810D-3F7B9D4F66D4}">
+  <dimension ref="B1:AC70"/>
+  <sheetViews>
+    <sheetView topLeftCell="D1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="3" max="4" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="22.83203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.33203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.83203125" style="20"/>
+    <col min="23" max="24" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:29">
+      <c r="C1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D1">
+        <v>37.140647999999999</v>
+      </c>
+    </row>
+    <row r="2" spans="2:29">
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+    </row>
+    <row r="3" spans="2:29">
+      <c r="C3" t="s">
+        <v>185</v>
+      </c>
+      <c r="G3" s="19"/>
+      <c r="H3" s="43" t="s">
+        <v>186</v>
+      </c>
+      <c r="I3" s="43"/>
+      <c r="J3" s="43"/>
+      <c r="K3" s="43"/>
+      <c r="L3" s="43" t="s">
+        <v>187</v>
+      </c>
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="19"/>
+      <c r="Q3" s="19"/>
+    </row>
+    <row r="4" spans="2:29">
+      <c r="C4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D4" t="s">
+        <v>113</v>
+      </c>
+      <c r="E4" t="s">
+        <v>114</v>
+      </c>
+      <c r="G4" s="19"/>
+      <c r="H4" t="s">
+        <v>112</v>
+      </c>
+      <c r="I4" t="s">
+        <v>113</v>
+      </c>
+      <c r="J4" t="s">
+        <v>114</v>
+      </c>
+      <c r="L4" t="s">
+        <v>112</v>
+      </c>
+      <c r="M4" t="s">
+        <v>113</v>
+      </c>
+      <c r="N4" t="s">
+        <v>114</v>
+      </c>
+      <c r="O4" s="19"/>
+      <c r="P4" s="19"/>
+      <c r="Q4" s="19"/>
+    </row>
+    <row r="5" spans="2:29">
+      <c r="B5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="19">
+        <v>4.3250999999999999</v>
+      </c>
+      <c r="D5" s="19">
+        <v>4.1540999999999997</v>
+      </c>
+      <c r="E5" s="19">
+        <v>1.8851</v>
+      </c>
+      <c r="G5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H5" s="19">
+        <v>4.3251499999999998</v>
+      </c>
+      <c r="I5" s="19">
+        <v>4.1540999999999997</v>
+      </c>
+      <c r="J5" s="19">
+        <v>1.8851</v>
+      </c>
+      <c r="K5" t="s">
+        <v>36</v>
+      </c>
+      <c r="L5" s="19">
+        <v>4.3250500000000001</v>
+      </c>
+      <c r="M5" s="19">
+        <v>4.1540999999999997</v>
+      </c>
+      <c r="N5" s="19">
+        <v>1.8851</v>
+      </c>
+      <c r="O5" s="19"/>
+      <c r="P5" s="19">
+        <f>(H9-L9)/(H5-L5)</f>
+        <v>-3.9711326303496901</v>
+      </c>
+      <c r="Q5" s="19"/>
+    </row>
+    <row r="6" spans="2:29">
+      <c r="B6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="19">
+        <v>0</v>
+      </c>
+      <c r="D6" s="19">
+        <v>5.7232000000000003</v>
+      </c>
+      <c r="E6" s="19">
+        <v>-1.1551</v>
+      </c>
+      <c r="G6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6" s="19">
+        <v>0</v>
+      </c>
+      <c r="I6" s="19">
+        <v>5.7232000000000003</v>
+      </c>
+      <c r="J6" s="19">
+        <v>-1.1551</v>
+      </c>
+      <c r="K6" t="s">
+        <v>37</v>
+      </c>
+      <c r="L6" s="19">
+        <v>0</v>
+      </c>
+      <c r="M6" s="19">
+        <v>5.7232000000000003</v>
+      </c>
+      <c r="N6" s="19">
+        <v>-1.1551</v>
+      </c>
+      <c r="O6" s="19"/>
+      <c r="P6" s="19"/>
+      <c r="Q6" s="19"/>
+    </row>
+    <row r="7" spans="2:29">
+      <c r="B7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="19">
+        <v>0</v>
+      </c>
+      <c r="D7" s="19">
+        <v>0</v>
+      </c>
+      <c r="E7" s="19">
+        <v>2.3222999999999998</v>
+      </c>
+      <c r="G7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" s="19">
+        <v>0</v>
+      </c>
+      <c r="I7" s="19">
+        <v>0</v>
+      </c>
+      <c r="J7" s="19">
+        <v>2.3222999999999998</v>
+      </c>
+      <c r="K7" t="s">
+        <v>38</v>
+      </c>
+      <c r="L7" s="19">
+        <v>0</v>
+      </c>
+      <c r="M7" s="19">
+        <v>0</v>
+      </c>
+      <c r="N7" s="19">
+        <v>2.3222999999999998</v>
+      </c>
+      <c r="O7" s="19"/>
+      <c r="P7" s="19"/>
+      <c r="Q7" s="19"/>
+    </row>
+    <row r="8" spans="2:29">
+      <c r="H8" s="19"/>
+      <c r="I8" s="43"/>
+      <c r="J8" s="43"/>
+      <c r="L8" s="43"/>
+      <c r="M8" s="43"/>
+      <c r="N8" s="19"/>
+      <c r="O8" s="19"/>
+      <c r="P8" s="19"/>
+      <c r="Q8" s="19"/>
+    </row>
+    <row r="9" spans="2:29">
+      <c r="C9" t="s">
+        <v>199</v>
+      </c>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19">
+        <v>-277.83707079025203</v>
+      </c>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19">
+        <v>-277.83667367698899</v>
+      </c>
+      <c r="M9" s="19"/>
+      <c r="N9" s="19"/>
+      <c r="O9" s="19"/>
+      <c r="P9" s="19"/>
+      <c r="Q9" s="19"/>
+    </row>
+    <row r="10" spans="2:29">
+      <c r="C10" t="s">
+        <v>112</v>
+      </c>
+      <c r="D10" t="s">
+        <v>113</v>
+      </c>
+      <c r="E10" t="s">
+        <v>114</v>
+      </c>
+      <c r="G10" s="19"/>
+      <c r="H10" s="50" t="s">
+        <v>188</v>
+      </c>
+      <c r="I10" s="50"/>
+      <c r="J10" s="50"/>
+      <c r="K10" s="50"/>
+      <c r="L10" s="50" t="s">
+        <v>189</v>
+      </c>
+      <c r="M10" s="19"/>
+      <c r="N10" s="19"/>
+      <c r="O10" s="19"/>
+      <c r="P10" s="19"/>
+      <c r="Q10" s="19"/>
+      <c r="AB10" s="16"/>
+      <c r="AC10" s="16"/>
+    </row>
+    <row r="11" spans="2:29">
+      <c r="B11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="43">
+        <v>-3.971133</v>
+      </c>
+      <c r="D11" s="50">
+        <v>2.2413729999999998</v>
+      </c>
+      <c r="E11" s="58">
+        <v>41.979433</v>
+      </c>
+      <c r="H11" t="s">
+        <v>112</v>
+      </c>
+      <c r="I11" t="s">
+        <v>113</v>
+      </c>
+      <c r="J11" t="s">
+        <v>114</v>
+      </c>
+      <c r="L11" t="s">
+        <v>112</v>
+      </c>
+      <c r="M11" t="s">
+        <v>113</v>
+      </c>
+      <c r="N11" t="s">
+        <v>114</v>
+      </c>
+      <c r="O11" s="19"/>
+      <c r="P11" s="19"/>
+      <c r="Q11" s="19"/>
+      <c r="AB11" s="16"/>
+      <c r="AC11" s="16"/>
+    </row>
+    <row r="12" spans="2:29">
+      <c r="B12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="19">
+        <v>1.628439</v>
+      </c>
+      <c r="D12" s="50">
+        <v>-1.13842</v>
+      </c>
+      <c r="E12" s="58">
+        <v>-20.145706000000001</v>
+      </c>
+      <c r="G12" t="s">
+        <v>36</v>
+      </c>
+      <c r="H12" s="19">
+        <v>4.3250999999999999</v>
+      </c>
+      <c r="I12" s="19">
+        <v>4.1541499999999996</v>
+      </c>
+      <c r="J12" s="19">
+        <v>1.8851</v>
+      </c>
+      <c r="K12" t="s">
+        <v>36</v>
+      </c>
+      <c r="L12" s="19">
+        <v>4.3250999999999999</v>
+      </c>
+      <c r="M12" s="19">
+        <v>4.1540499999999998</v>
+      </c>
+      <c r="N12" s="19">
+        <v>1.8851</v>
+      </c>
+      <c r="O12" s="19"/>
+      <c r="P12" s="19">
+        <f>(H16-L16)/(I12-M12)</f>
+        <v>2.2413729595934853</v>
+      </c>
+      <c r="Q12" s="19"/>
+      <c r="AB12" s="16"/>
+      <c r="AC12" s="16"/>
+    </row>
+    <row r="13" spans="2:29">
+      <c r="B13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="19">
+        <v>-21.076359</v>
+      </c>
+      <c r="D13" s="19">
+        <v>8.3216970000000003</v>
+      </c>
+      <c r="E13" s="58">
+        <v>81.734144000000001</v>
+      </c>
+      <c r="G13" t="s">
+        <v>37</v>
+      </c>
+      <c r="H13" s="19">
+        <v>0</v>
+      </c>
+      <c r="I13" s="19">
+        <v>5.7232000000000003</v>
+      </c>
+      <c r="J13" s="19">
+        <v>-1.1551</v>
+      </c>
+      <c r="K13" t="s">
+        <v>37</v>
+      </c>
+      <c r="L13" s="19">
+        <v>0</v>
+      </c>
+      <c r="M13" s="19">
+        <v>5.7232000000000003</v>
+      </c>
+      <c r="N13" s="19">
+        <v>-1.1551</v>
+      </c>
+      <c r="O13" s="19"/>
+      <c r="P13" s="19"/>
+      <c r="Q13" s="19"/>
+      <c r="AB13" s="16"/>
+      <c r="AC13" s="16"/>
+    </row>
+    <row r="14" spans="2:29">
+      <c r="G14" t="s">
+        <v>38</v>
+      </c>
+      <c r="H14" s="19">
+        <v>0</v>
+      </c>
+      <c r="I14" s="19">
+        <v>0</v>
+      </c>
+      <c r="J14" s="19">
+        <v>2.3222999999999998</v>
+      </c>
+      <c r="K14" t="s">
+        <v>38</v>
+      </c>
+      <c r="L14" s="19">
+        <v>0</v>
+      </c>
+      <c r="M14" s="19">
+        <v>0</v>
+      </c>
+      <c r="N14" s="19">
+        <v>2.3222999999999998</v>
+      </c>
+      <c r="O14" s="19"/>
+      <c r="P14" s="19"/>
+      <c r="Q14" s="19"/>
+      <c r="AB14" s="16"/>
+      <c r="AC14" s="16"/>
+    </row>
+    <row r="15" spans="2:29">
+      <c r="C15" t="s">
+        <v>198</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="43"/>
+      <c r="J15" s="43"/>
+      <c r="L15" s="43"/>
+      <c r="M15" s="43"/>
+      <c r="N15" s="19"/>
+      <c r="O15" s="19"/>
+      <c r="P15" s="19"/>
+      <c r="Q15" s="19"/>
+      <c r="AB15" s="16"/>
+      <c r="AC15" s="16"/>
+    </row>
+    <row r="16" spans="2:29">
+      <c r="C16" t="s">
+        <v>112</v>
+      </c>
+      <c r="D16" t="s">
+        <v>113</v>
+      </c>
+      <c r="E16" t="s">
+        <v>114</v>
+      </c>
+      <c r="G16" s="5"/>
+      <c r="H16" s="19">
+        <v>-277.83676016875103</v>
+      </c>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="19">
+        <v>-277.83698430604699</v>
+      </c>
+      <c r="M16" s="19"/>
+      <c r="N16" s="19"/>
+      <c r="O16" s="19"/>
+      <c r="P16" s="19"/>
+      <c r="Q16" s="19"/>
+      <c r="AB16" s="16"/>
+      <c r="AC16" s="16"/>
+    </row>
+    <row r="17" spans="2:29">
+      <c r="B17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="54">
+        <f>P5</f>
+        <v>-3.9711326303496901</v>
+      </c>
+      <c r="D17" s="52">
+        <f>P12</f>
+        <v>2.2413729595934853</v>
+      </c>
+      <c r="E17" s="53">
+        <f>P26</f>
+        <v>41.979433329881971</v>
+      </c>
+      <c r="G17" s="5"/>
+      <c r="H17" s="50" t="s">
+        <v>190</v>
+      </c>
+      <c r="I17" s="50"/>
+      <c r="J17" s="50"/>
+      <c r="K17" s="50"/>
+      <c r="L17" s="50" t="s">
+        <v>191</v>
+      </c>
+      <c r="M17" s="19"/>
+      <c r="N17" s="19"/>
+      <c r="O17" s="19"/>
+      <c r="P17" s="19"/>
+      <c r="Q17" s="19"/>
+      <c r="AB17" s="16"/>
+      <c r="AC17" s="16"/>
+    </row>
+    <row r="18" spans="2:29">
+      <c r="B18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="52">
+        <f>P19</f>
+        <v>-1.1384200598767322</v>
+      </c>
+      <c r="E18" s="53">
+        <f>P33</f>
+        <v>-20.145705619827314</v>
+      </c>
+      <c r="G18" s="19"/>
+      <c r="H18" t="s">
+        <v>112</v>
+      </c>
+      <c r="I18" t="s">
+        <v>113</v>
+      </c>
+      <c r="J18" t="s">
+        <v>114</v>
+      </c>
+      <c r="L18" t="s">
+        <v>112</v>
+      </c>
+      <c r="M18" t="s">
+        <v>113</v>
+      </c>
+      <c r="N18" t="s">
+        <v>114</v>
+      </c>
+      <c r="O18" s="19"/>
+      <c r="P18" s="19"/>
+      <c r="Q18" s="19"/>
+      <c r="AB18" s="16"/>
+      <c r="AC18" s="16"/>
+    </row>
+    <row r="19" spans="2:29">
+      <c r="B19" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="53">
+        <f>P40</f>
+        <v>81.734143790127149</v>
+      </c>
+      <c r="G19" t="s">
+        <v>36</v>
+      </c>
+      <c r="H19" s="19">
+        <v>4.3250999999999999</v>
+      </c>
+      <c r="I19" s="19">
+        <v>4.1540999999999997</v>
+      </c>
+      <c r="J19" s="19">
+        <v>1.8851</v>
+      </c>
+      <c r="K19" t="s">
+        <v>36</v>
+      </c>
+      <c r="L19" s="19">
+        <v>4.3250999999999999</v>
+      </c>
+      <c r="M19" s="19">
+        <v>4.1540999999999997</v>
+      </c>
+      <c r="N19" s="19">
+        <v>1.8851</v>
+      </c>
+      <c r="O19" s="19"/>
+      <c r="P19" s="19">
+        <f>(H23-L23)/(I20-M20)</f>
+        <v>-1.1384200598767322</v>
+      </c>
+      <c r="Q19" s="19"/>
+      <c r="AB19" s="16"/>
+      <c r="AC19" s="16"/>
+    </row>
+    <row r="20" spans="2:29">
+      <c r="C20" s="2"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="G20" t="s">
+        <v>37</v>
+      </c>
+      <c r="H20" s="19">
+        <v>0</v>
+      </c>
+      <c r="I20" s="19">
+        <v>5.7232500000000002</v>
+      </c>
+      <c r="J20" s="19">
+        <v>-1.1551</v>
+      </c>
+      <c r="K20" t="s">
+        <v>37</v>
+      </c>
+      <c r="L20" s="19">
+        <v>0</v>
+      </c>
+      <c r="M20" s="19">
+        <v>5.7231500000000004</v>
+      </c>
+      <c r="N20" s="19">
+        <v>-1.1551</v>
+      </c>
+      <c r="O20" s="19"/>
+      <c r="P20" s="19"/>
+      <c r="Q20" s="19"/>
+      <c r="AB20" s="16"/>
+      <c r="AC20" s="16"/>
+    </row>
+    <row r="21" spans="2:29">
+      <c r="B21" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21" s="59">
+        <f>(C17-C11)/C17</f>
+        <v>-9.3084352582940669E-8</v>
+      </c>
+      <c r="D21" s="60">
+        <f t="shared" ref="D21:E23" si="0">(D17-D11)/D17</f>
+        <v>-1.8027572968505109E-8</v>
+      </c>
+      <c r="E21" s="61">
+        <f t="shared" si="0"/>
+        <v>7.8581806485214747E-9</v>
+      </c>
+      <c r="G21" t="s">
+        <v>38</v>
+      </c>
+      <c r="H21" s="19">
+        <v>0</v>
+      </c>
+      <c r="I21" s="19">
+        <v>0</v>
+      </c>
+      <c r="J21" s="19">
+        <v>2.3222999999999998</v>
+      </c>
+      <c r="K21" t="s">
+        <v>38</v>
+      </c>
+      <c r="L21" s="19">
+        <v>0</v>
+      </c>
+      <c r="M21" s="19">
+        <v>0</v>
+      </c>
+      <c r="N21" s="19">
+        <v>2.3222999999999998</v>
+      </c>
+      <c r="O21" s="19"/>
+      <c r="P21" s="19"/>
+      <c r="Q21" s="19"/>
+      <c r="AB21" s="16"/>
+      <c r="AC21" s="16"/>
+    </row>
+    <row r="22" spans="2:29">
+      <c r="C22" s="62"/>
+      <c r="D22" s="60">
+        <f t="shared" si="0"/>
+        <v>5.2596343256236066E-8</v>
+      </c>
+      <c r="E22" s="61">
+        <f t="shared" si="0"/>
+        <v>-1.8871152661266879E-8</v>
+      </c>
+      <c r="H22" s="19"/>
+      <c r="I22" s="43"/>
+      <c r="J22" s="43"/>
+      <c r="L22" s="43"/>
+      <c r="M22" s="43"/>
+      <c r="N22" s="19"/>
+      <c r="O22" s="19"/>
+      <c r="P22" s="19"/>
+      <c r="Q22" s="19"/>
+    </row>
+    <row r="23" spans="2:29">
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="61">
+        <f t="shared" si="0"/>
+        <v>-2.5677500467975777E-9</v>
+      </c>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19">
+        <v>-277.83692915793199</v>
+      </c>
+      <c r="I23" s="19"/>
+      <c r="J23" s="19"/>
+      <c r="K23" s="19"/>
+      <c r="L23" s="19">
+        <v>-277.836815315926</v>
+      </c>
+      <c r="M23" s="19"/>
+      <c r="N23" s="19"/>
+      <c r="O23" s="19"/>
+      <c r="P23" s="19"/>
+      <c r="Q23" s="19"/>
+    </row>
+    <row r="24" spans="2:29">
+      <c r="G24" s="19"/>
+      <c r="H24" s="51" t="s">
+        <v>192</v>
+      </c>
+      <c r="I24" s="51"/>
+      <c r="J24" s="51"/>
+      <c r="K24" s="51"/>
+      <c r="L24" s="51" t="s">
+        <v>193</v>
+      </c>
+      <c r="M24" s="51"/>
+      <c r="N24" s="51"/>
+      <c r="O24" s="51"/>
+      <c r="P24" s="19"/>
+      <c r="Q24" s="19"/>
+    </row>
+    <row r="25" spans="2:29">
+      <c r="G25" s="19"/>
+      <c r="H25" t="s">
+        <v>112</v>
+      </c>
+      <c r="I25" t="s">
+        <v>113</v>
+      </c>
+      <c r="J25" t="s">
+        <v>114</v>
+      </c>
+      <c r="L25" t="s">
+        <v>112</v>
+      </c>
+      <c r="M25" t="s">
+        <v>113</v>
+      </c>
+      <c r="N25" t="s">
+        <v>114</v>
+      </c>
+      <c r="O25" s="19"/>
+      <c r="P25" s="19"/>
+      <c r="Q25" s="19"/>
+    </row>
+    <row r="26" spans="2:29">
+      <c r="G26" t="s">
+        <v>36</v>
+      </c>
+      <c r="H26" s="19">
+        <v>4.3250999999999999</v>
+      </c>
+      <c r="I26" s="19">
+        <v>4.1540999999999997</v>
+      </c>
+      <c r="J26" s="19">
+        <v>1.8851500000000001</v>
+      </c>
+      <c r="K26" t="s">
+        <v>36</v>
+      </c>
+      <c r="L26" s="19">
+        <v>4.3250999999999999</v>
+      </c>
+      <c r="M26" s="19">
+        <v>4.1540999999999997</v>
+      </c>
+      <c r="N26" s="19">
+        <v>1.8850499999999999</v>
+      </c>
+      <c r="O26" s="19"/>
+      <c r="P26" s="19">
+        <f>(H30-L30)/(J26-N26)</f>
+        <v>41.979433329881971</v>
+      </c>
+      <c r="Q26" s="19"/>
+    </row>
+    <row r="27" spans="2:29">
+      <c r="G27" t="s">
+        <v>37</v>
+      </c>
+      <c r="H27" s="19">
+        <v>0</v>
+      </c>
+      <c r="I27" s="19">
+        <v>5.7232000000000003</v>
+      </c>
+      <c r="J27" s="19">
+        <v>-1.1551</v>
+      </c>
+      <c r="K27" t="s">
+        <v>37</v>
+      </c>
+      <c r="L27" s="19">
+        <v>0</v>
+      </c>
+      <c r="M27" s="19">
+        <v>5.7232000000000003</v>
+      </c>
+      <c r="N27" s="19">
+        <v>-1.1551</v>
+      </c>
+      <c r="O27" s="19"/>
+      <c r="P27" s="19"/>
+      <c r="Q27" s="19"/>
+    </row>
+    <row r="28" spans="2:29">
+      <c r="G28" t="s">
+        <v>38</v>
+      </c>
+      <c r="H28" s="19">
+        <v>0</v>
+      </c>
+      <c r="I28" s="19">
+        <v>0</v>
+      </c>
+      <c r="J28" s="19">
+        <v>2.3222999999999998</v>
+      </c>
+      <c r="K28" t="s">
+        <v>38</v>
+      </c>
+      <c r="L28" s="19">
+        <v>0</v>
+      </c>
+      <c r="M28" s="19">
+        <v>0</v>
+      </c>
+      <c r="N28" s="19">
+        <v>2.3222999999999998</v>
+      </c>
+      <c r="O28" s="19"/>
+      <c r="P28" s="19"/>
+      <c r="Q28" s="19"/>
+    </row>
+    <row r="29" spans="2:29">
+      <c r="H29" s="19"/>
+      <c r="I29" s="43"/>
+      <c r="J29" s="43"/>
+      <c r="L29" s="43"/>
+      <c r="M29" s="43"/>
+      <c r="N29" s="19"/>
+      <c r="O29" s="19"/>
+      <c r="P29" s="19"/>
+      <c r="Q29" s="19"/>
+    </row>
+    <row r="30" spans="2:29">
+      <c r="G30" s="19"/>
+      <c r="H30" s="19">
+        <v>-277.83477321337801</v>
+      </c>
+      <c r="I30" s="19"/>
+      <c r="J30" s="19"/>
+      <c r="K30" s="19"/>
+      <c r="L30" s="19">
+        <v>-277.83897115671101</v>
+      </c>
+      <c r="M30" s="19"/>
+      <c r="N30" s="19"/>
+      <c r="O30" s="19"/>
+      <c r="P30" s="19"/>
+    </row>
+    <row r="31" spans="2:29">
+      <c r="G31" s="19"/>
+      <c r="H31" s="51" t="s">
+        <v>194</v>
+      </c>
+      <c r="I31" s="51"/>
+      <c r="J31" s="51"/>
+      <c r="K31" s="51"/>
+      <c r="L31" s="51" t="s">
+        <v>195</v>
+      </c>
+      <c r="M31" s="51"/>
+      <c r="N31" s="51"/>
+      <c r="O31" s="51"/>
+      <c r="P31" s="19"/>
+    </row>
+    <row r="32" spans="2:29">
+      <c r="H32" t="s">
+        <v>112</v>
+      </c>
+      <c r="I32" t="s">
+        <v>113</v>
+      </c>
+      <c r="J32" t="s">
+        <v>114</v>
+      </c>
+      <c r="L32" t="s">
+        <v>112</v>
+      </c>
+      <c r="M32" t="s">
+        <v>113</v>
+      </c>
+      <c r="N32" t="s">
+        <v>114</v>
+      </c>
+      <c r="O32" s="19"/>
+      <c r="P32" s="19"/>
+    </row>
+    <row r="33" spans="3:29">
+      <c r="G33" t="s">
+        <v>36</v>
+      </c>
+      <c r="H33" s="19">
+        <v>4.3250999999999999</v>
+      </c>
+      <c r="I33" s="19">
+        <v>4.1540999999999997</v>
+      </c>
+      <c r="J33" s="19">
+        <v>1.8851</v>
+      </c>
+      <c r="K33" t="s">
+        <v>36</v>
+      </c>
+      <c r="L33" s="19">
+        <v>4.3250999999999999</v>
+      </c>
+      <c r="M33" s="19">
+        <v>4.1540999999999997</v>
+      </c>
+      <c r="N33" s="19">
+        <v>1.8851</v>
+      </c>
+      <c r="O33" s="19"/>
+      <c r="P33" s="19">
+        <f>(H37-L37)/(J34-N34)</f>
+        <v>-20.145705619827314</v>
+      </c>
+    </row>
+    <row r="34" spans="3:29">
+      <c r="G34" t="s">
+        <v>37</v>
+      </c>
+      <c r="H34" s="19">
+        <v>0</v>
+      </c>
+      <c r="I34" s="19">
+        <v>5.7232000000000003</v>
+      </c>
+      <c r="J34" s="19">
+        <v>-1.1550499999999999</v>
+      </c>
+      <c r="K34" t="s">
+        <v>37</v>
+      </c>
+      <c r="L34" s="19">
+        <v>0</v>
+      </c>
+      <c r="M34" s="19">
+        <v>5.7232000000000003</v>
+      </c>
+      <c r="N34" s="19">
+        <v>-1.1551499999999999</v>
+      </c>
+      <c r="O34" s="19"/>
+      <c r="P34" s="19"/>
+    </row>
+    <row r="35" spans="3:29">
+      <c r="G35" t="s">
+        <v>38</v>
+      </c>
+      <c r="H35" s="19">
+        <v>0</v>
+      </c>
+      <c r="I35" s="19">
+        <v>0</v>
+      </c>
+      <c r="J35" s="19">
+        <v>2.3222999999999998</v>
+      </c>
+      <c r="K35" t="s">
+        <v>38</v>
+      </c>
+      <c r="L35" s="19">
+        <v>0</v>
+      </c>
+      <c r="M35" s="19">
+        <v>0</v>
+      </c>
+      <c r="N35" s="19">
+        <v>2.3222999999999998</v>
+      </c>
+      <c r="O35" s="19"/>
+      <c r="P35" s="19"/>
+    </row>
+    <row r="36" spans="3:29">
+      <c r="H36" s="19"/>
+      <c r="I36" s="43"/>
+      <c r="J36" s="43"/>
+      <c r="L36" s="43"/>
+      <c r="M36" s="43"/>
+      <c r="N36" s="19"/>
+      <c r="O36" s="19"/>
+      <c r="P36" s="19"/>
+    </row>
+    <row r="37" spans="3:29">
+      <c r="G37" s="5"/>
+      <c r="H37" s="19">
+        <v>-277.83787949915398</v>
+      </c>
+      <c r="I37" s="19"/>
+      <c r="J37" s="19"/>
+      <c r="K37" s="19"/>
+      <c r="L37" s="19">
+        <v>-277.835864928592</v>
+      </c>
+      <c r="M37" s="19"/>
+      <c r="N37" s="19"/>
+      <c r="O37" s="19"/>
+      <c r="P37" s="19"/>
+      <c r="Q37" s="19"/>
+      <c r="U37" s="19"/>
+      <c r="V37" s="19"/>
+      <c r="W37" s="19"/>
+      <c r="X37" s="19"/>
+      <c r="Y37" s="19"/>
+    </row>
+    <row r="38" spans="3:29">
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="51" t="s">
+        <v>196</v>
+      </c>
+      <c r="I38" s="51"/>
+      <c r="J38" s="51"/>
+      <c r="K38" s="51"/>
+      <c r="L38" s="51" t="s">
+        <v>197</v>
+      </c>
+      <c r="M38" s="51"/>
+      <c r="N38" s="51"/>
+      <c r="O38" s="51"/>
+      <c r="P38" s="19"/>
+      <c r="Q38" s="19"/>
+      <c r="U38" s="19"/>
+      <c r="V38" s="19"/>
+      <c r="W38" s="19"/>
+      <c r="X38" s="19"/>
+      <c r="Y38" s="19"/>
+    </row>
+    <row r="39" spans="3:29">
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="G39" s="19"/>
+      <c r="H39" t="s">
+        <v>112</v>
+      </c>
+      <c r="I39" t="s">
+        <v>113</v>
+      </c>
+      <c r="J39" t="s">
+        <v>114</v>
+      </c>
+      <c r="L39" t="s">
+        <v>112</v>
+      </c>
+      <c r="M39" t="s">
+        <v>113</v>
+      </c>
+      <c r="N39" t="s">
+        <v>114</v>
+      </c>
+      <c r="O39" s="19"/>
+      <c r="P39" s="19"/>
+      <c r="Q39" s="19"/>
+      <c r="U39" s="19"/>
+      <c r="V39" s="19"/>
+      <c r="W39" s="19"/>
+      <c r="X39" s="19"/>
+      <c r="Y39" s="19"/>
+    </row>
+    <row r="40" spans="3:29">
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="G40" t="s">
+        <v>36</v>
+      </c>
+      <c r="H40" s="19">
+        <v>4.3250999999999999</v>
+      </c>
+      <c r="I40" s="19">
+        <v>4.1540999999999997</v>
+      </c>
+      <c r="J40" s="19">
+        <v>1.8851</v>
+      </c>
+      <c r="K40" t="s">
+        <v>36</v>
+      </c>
+      <c r="L40" s="19">
+        <v>4.3250999999999999</v>
+      </c>
+      <c r="M40" s="19">
+        <v>4.1540999999999997</v>
+      </c>
+      <c r="N40" s="19">
+        <v>1.8851</v>
+      </c>
+      <c r="O40" s="19"/>
+      <c r="P40" s="19">
+        <f>(H44-L44)/(J42-N42)</f>
+        <v>81.734143790127149</v>
+      </c>
+      <c r="Q40" s="19"/>
+      <c r="U40" s="19"/>
+      <c r="V40" s="19"/>
+      <c r="W40" s="19"/>
+      <c r="X40" s="19"/>
+      <c r="Y40" s="19"/>
+    </row>
+    <row r="41" spans="3:29">
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="G41" t="s">
+        <v>37</v>
+      </c>
+      <c r="H41" s="19">
+        <v>0</v>
+      </c>
+      <c r="I41" s="19">
+        <v>5.7232000000000003</v>
+      </c>
+      <c r="J41" s="19">
+        <v>-1.1551</v>
+      </c>
+      <c r="K41" t="s">
+        <v>37</v>
+      </c>
+      <c r="L41" s="19">
+        <v>0</v>
+      </c>
+      <c r="M41" s="19">
+        <v>5.7232000000000003</v>
+      </c>
+      <c r="N41" s="19">
+        <v>-1.1551</v>
+      </c>
+      <c r="O41" s="19"/>
+      <c r="P41" s="19"/>
+      <c r="Q41" s="19"/>
+      <c r="U41" s="19"/>
+      <c r="V41" s="19"/>
+      <c r="W41" s="19"/>
+      <c r="X41" s="19"/>
+      <c r="Y41" s="19"/>
+      <c r="AA41" s="16"/>
+      <c r="AB41" s="16"/>
+      <c r="AC41" s="16"/>
+    </row>
+    <row r="42" spans="3:29">
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="44"/>
+      <c r="G42" t="s">
+        <v>38</v>
+      </c>
+      <c r="H42" s="19">
+        <v>0</v>
+      </c>
+      <c r="I42" s="19">
+        <v>0</v>
+      </c>
+      <c r="J42" s="19">
+        <v>2.3223500000000001</v>
+      </c>
+      <c r="K42" t="s">
+        <v>38</v>
+      </c>
+      <c r="L42" s="19">
+        <v>0</v>
+      </c>
+      <c r="M42" s="19">
+        <v>0</v>
+      </c>
+      <c r="N42" s="19">
+        <v>2.3222499999999999</v>
+      </c>
+      <c r="O42" s="19"/>
+      <c r="P42" s="19"/>
+      <c r="Q42" s="19"/>
+      <c r="U42" s="19"/>
+      <c r="V42" s="19"/>
+      <c r="W42" s="19"/>
+      <c r="X42" s="19"/>
+      <c r="Y42" s="19"/>
+      <c r="AA42" s="16"/>
+      <c r="AB42" s="16"/>
+      <c r="AC42" s="16"/>
+    </row>
+    <row r="43" spans="3:29">
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="44"/>
+      <c r="H43" s="19"/>
+      <c r="I43" s="43"/>
+      <c r="J43" s="43"/>
+      <c r="L43" s="43"/>
+      <c r="M43" s="43"/>
+      <c r="N43" s="19"/>
+      <c r="O43" s="19"/>
+      <c r="P43" s="19"/>
+      <c r="Q43" s="19"/>
+      <c r="U43" s="19"/>
+      <c r="V43" s="19"/>
+      <c r="W43" s="19"/>
+      <c r="X43" s="19"/>
+      <c r="Y43" s="19"/>
+      <c r="AA43" s="16"/>
+      <c r="AB43" s="16"/>
+      <c r="AC43" s="16"/>
+    </row>
+    <row r="44" spans="3:29">
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
+      <c r="G44" s="19"/>
+      <c r="H44" s="19">
+        <v>-277.83278560913499</v>
+      </c>
+      <c r="I44" s="19"/>
+      <c r="J44" s="19"/>
+      <c r="K44" s="19"/>
+      <c r="L44" s="19">
+        <v>-277.84095902351402</v>
+      </c>
+      <c r="M44" s="19"/>
+      <c r="N44" s="19"/>
+      <c r="O44" s="19"/>
+      <c r="P44" s="19"/>
+      <c r="Q44" s="19"/>
+      <c r="U44" s="19"/>
+      <c r="V44" s="19"/>
+      <c r="W44" s="19"/>
+      <c r="X44" s="19"/>
+      <c r="Y44" s="19"/>
+      <c r="AA44" s="16"/>
+      <c r="AB44" s="16"/>
+      <c r="AC44" s="16"/>
+    </row>
+    <row r="45" spans="3:29">
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="Q45" s="19"/>
+      <c r="U45" s="19"/>
+      <c r="V45" s="19"/>
+      <c r="W45" s="19"/>
+      <c r="X45" s="19"/>
+      <c r="Y45" s="19"/>
+      <c r="AA45" s="16"/>
+      <c r="AB45" s="16"/>
+      <c r="AC45" s="16"/>
+    </row>
+    <row r="46" spans="3:29">
+      <c r="C46" s="2"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="H46" s="19"/>
+      <c r="I46" s="19"/>
+      <c r="J46" s="6"/>
+      <c r="K46" s="6"/>
+      <c r="L46" s="6"/>
+      <c r="M46" s="6"/>
+      <c r="N46" s="19"/>
+      <c r="O46" s="19"/>
+      <c r="P46" s="19"/>
+      <c r="Q46" s="19"/>
+      <c r="U46" s="19"/>
+      <c r="V46" s="19"/>
+      <c r="W46" s="19"/>
+      <c r="X46" s="19"/>
+      <c r="Y46" s="19"/>
+      <c r="AA46" s="16"/>
+      <c r="AB46" s="16"/>
+      <c r="AC46" s="16"/>
+    </row>
+    <row r="47" spans="3:29">
+      <c r="C47" s="2"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="H47" s="19"/>
+      <c r="I47" s="19"/>
+      <c r="J47" s="6"/>
+      <c r="K47" s="6"/>
+      <c r="L47" s="6"/>
+      <c r="M47" s="6"/>
+      <c r="N47" s="19"/>
+      <c r="O47" s="19"/>
+      <c r="P47" s="19"/>
+      <c r="Q47" s="19"/>
+      <c r="U47" s="19"/>
+      <c r="V47" s="19"/>
+      <c r="W47" s="19"/>
+      <c r="X47" s="19"/>
+      <c r="Y47" s="19"/>
+      <c r="AA47" s="16"/>
+      <c r="AB47" s="16"/>
+      <c r="AC47" s="16"/>
+    </row>
+    <row r="48" spans="3:29">
+      <c r="C48" s="2"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="H48" s="19"/>
+      <c r="I48" s="19"/>
+      <c r="J48" s="6"/>
+      <c r="K48" s="6"/>
+      <c r="L48" s="6"/>
+      <c r="M48" s="6"/>
+      <c r="N48" s="19"/>
+      <c r="O48" s="19"/>
+      <c r="P48" s="19"/>
+      <c r="Q48" s="19"/>
+      <c r="U48" s="19"/>
+      <c r="V48" s="19"/>
+      <c r="W48" s="19"/>
+      <c r="X48" s="19"/>
+      <c r="Y48" s="19"/>
+      <c r="AA48" s="16"/>
+      <c r="AB48" s="16"/>
+      <c r="AC48" s="16"/>
+    </row>
+    <row r="49" spans="3:29">
+      <c r="C49" s="2"/>
+      <c r="H49" s="19"/>
+      <c r="I49" s="19"/>
+      <c r="J49" s="6"/>
+      <c r="K49" s="6"/>
+      <c r="L49" s="6"/>
+      <c r="M49" s="6"/>
+      <c r="N49" s="19"/>
+      <c r="O49" s="19"/>
+      <c r="P49" s="19"/>
+      <c r="Q49" s="19"/>
+      <c r="U49" s="19"/>
+      <c r="V49" s="19"/>
+      <c r="W49" s="19"/>
+      <c r="X49" s="19"/>
+      <c r="Y49" s="19"/>
+      <c r="AA49" s="16"/>
+      <c r="AB49" s="16"/>
+      <c r="AC49" s="16"/>
+    </row>
+    <row r="50" spans="3:29">
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="H50" s="19"/>
+      <c r="I50" s="19"/>
+      <c r="J50" s="6"/>
+      <c r="K50" s="6"/>
+      <c r="L50" s="6"/>
+      <c r="M50" s="6"/>
+      <c r="N50" s="19"/>
+      <c r="O50" s="19"/>
+      <c r="P50" s="19"/>
+      <c r="Q50" s="19"/>
+      <c r="U50" s="19"/>
+      <c r="V50" s="19"/>
+      <c r="W50" s="19"/>
+      <c r="X50" s="19"/>
+      <c r="Y50" s="19"/>
+      <c r="AA50" s="16"/>
+      <c r="AB50" s="16"/>
+      <c r="AC50" s="16"/>
+    </row>
+    <row r="51" spans="3:29">
+      <c r="C51" s="2"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+      <c r="H51" s="19"/>
+      <c r="I51" s="19"/>
+      <c r="J51" s="6"/>
+      <c r="K51" s="6"/>
+      <c r="L51" s="6"/>
+      <c r="M51" s="6"/>
+      <c r="N51" s="19"/>
+      <c r="O51" s="19"/>
+      <c r="P51" s="19"/>
+      <c r="Q51" s="19"/>
+      <c r="U51" s="19"/>
+      <c r="V51" s="19"/>
+      <c r="W51" s="19"/>
+      <c r="X51" s="19"/>
+      <c r="Y51" s="19"/>
+      <c r="AA51" s="16"/>
+      <c r="AB51" s="16"/>
+      <c r="AC51" s="16"/>
+    </row>
+    <row r="52" spans="3:29">
+      <c r="C52" s="2"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+      <c r="H52" s="19"/>
+      <c r="I52" s="19"/>
+      <c r="J52" s="6"/>
+      <c r="K52" s="6"/>
+      <c r="L52" s="6"/>
+      <c r="M52" s="6"/>
+      <c r="N52" s="19"/>
+      <c r="O52" s="19"/>
+      <c r="P52" s="19"/>
+      <c r="Q52" s="19"/>
+      <c r="U52" s="19"/>
+      <c r="V52" s="19"/>
+      <c r="W52" s="19"/>
+      <c r="X52" s="19"/>
+      <c r="Y52" s="19"/>
+      <c r="AA52" s="16"/>
+      <c r="AB52" s="16"/>
+      <c r="AC52" s="16"/>
+    </row>
+    <row r="53" spans="3:29">
+      <c r="C53" s="2"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4"/>
+      <c r="J53" s="6"/>
+      <c r="K53" s="6"/>
+      <c r="L53" s="6"/>
+      <c r="M53" s="6"/>
+      <c r="AA53" s="16"/>
+      <c r="AB53" s="16"/>
+      <c r="AC53" s="16"/>
+    </row>
+    <row r="54" spans="3:29">
+      <c r="D54" s="7"/>
+      <c r="E54" s="7"/>
+      <c r="J54" s="6"/>
+      <c r="K54" s="6"/>
+      <c r="L54" s="6"/>
+      <c r="M54" s="6"/>
+      <c r="AA54" s="16"/>
+      <c r="AB54" s="16"/>
+      <c r="AC54" s="16"/>
+    </row>
+    <row r="55" spans="3:29">
+      <c r="D55" s="7"/>
+      <c r="E55" s="7"/>
+      <c r="J55" s="6"/>
+      <c r="K55" s="6"/>
+      <c r="L55" s="6"/>
+      <c r="M55" s="6"/>
+      <c r="AA55" s="16"/>
+      <c r="AB55" s="16"/>
+      <c r="AC55" s="16"/>
+    </row>
+    <row r="56" spans="3:29">
+      <c r="D56" s="7"/>
+      <c r="E56" s="7"/>
+      <c r="J56" s="6"/>
+      <c r="K56" s="6"/>
+      <c r="L56" s="6"/>
+      <c r="M56" s="6"/>
+      <c r="AA56" s="16"/>
+      <c r="AB56" s="16"/>
+      <c r="AC56" s="16"/>
+    </row>
+    <row r="57" spans="3:29">
+      <c r="D57" s="7"/>
+      <c r="E57" s="7"/>
+    </row>
+    <row r="58" spans="3:29">
+      <c r="D58" s="7"/>
+      <c r="E58" s="7"/>
+    </row>
+    <row r="59" spans="3:29">
+      <c r="D59" s="7"/>
+      <c r="E59" s="7"/>
+    </row>
+    <row r="60" spans="3:29">
+      <c r="D60" s="7"/>
+      <c r="E60" s="7"/>
+    </row>
+    <row r="61" spans="3:29">
+      <c r="D61" s="7"/>
+      <c r="E61" s="7"/>
+    </row>
+    <row r="62" spans="3:29">
+      <c r="D62" s="7"/>
+      <c r="E62" s="7"/>
+    </row>
+    <row r="63" spans="3:29">
+      <c r="D63" s="7"/>
+      <c r="E63" s="7"/>
+    </row>
+    <row r="64" spans="3:29">
+      <c r="D64" s="7"/>
+      <c r="E64" s="7"/>
+    </row>
+    <row r="65" spans="4:6">
+      <c r="D65" s="7"/>
+      <c r="E65" s="7"/>
+      <c r="F65" s="44"/>
+    </row>
+    <row r="66" spans="4:6">
+      <c r="D66" s="7"/>
+      <c r="E66" s="7"/>
+      <c r="F66" s="44"/>
+    </row>
+    <row r="67" spans="4:6">
+      <c r="D67" s="7"/>
+      <c r="E67" s="7"/>
+      <c r="F67" s="44"/>
+    </row>
+    <row r="68" spans="4:6">
+      <c r="D68" s="7"/>
+      <c r="E68" s="7"/>
+      <c r="F68" s="44"/>
+    </row>
+    <row r="69" spans="4:6">
+      <c r="D69" s="7"/>
+      <c r="E69" s="7"/>
+      <c r="F69" s="44"/>
+    </row>
+    <row r="70" spans="4:6">
+      <c r="D70" s="7"/>
+      <c r="E70" s="7"/>
+      <c r="F70" s="44"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68943BD1-0AAE-FD49-A208-8D79B6BD1192}">
   <dimension ref="B2:Y87"/>
   <sheetViews>
